--- a/data/Classes_2025.xlsx
+++ b/data/Classes_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Text\Lectures\Mat_Met_Psychology\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{739C542E-8595-4057-85AF-00FA8DFB0809}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73672FD8-E915-4502-961F-A87724CABA41}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9204" xr2:uid="{3A97A19D-B251-4EA6-95C8-17D64B7903C7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Name</t>
   </si>
@@ -54,10 +54,13 @@
     <t>Толкачев Данила Владимирович</t>
   </si>
   <si>
-    <t>ДЗ1 % от максимума</t>
+    <t>Варианты для ДЗ_3</t>
   </si>
   <si>
-    <t>Варианты для ДЗ_2</t>
+    <t>ДЗ 2 % от максимума</t>
+  </si>
+  <si>
+    <t>ДЗ 1 % от максимума</t>
   </si>
 </sst>
 </file>
@@ -1849,40 +1852,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE58FD4-1700-4E0B-A6AC-057BF15C523A}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C9"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="35.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1">
+    <row r="1" spans="1:4" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="2" spans="1:3" ht="15" thickBot="1">
+    <row r="2" spans="1:4" ht="15" thickBot="1">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="1">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" thickBot="1">
+    <row r="3" spans="1:4" ht="15" thickBot="1">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -1890,19 +1897,23 @@
         <v>100</v>
       </c>
       <c r="C3" s="1">
+        <v>100</v>
+      </c>
+      <c r="D3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" thickBot="1">
+    <row r="4" spans="1:4" ht="15" thickBot="1">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="1">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" thickBot="1">
+    <row r="5" spans="1:4" ht="15" thickBot="1">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -1910,10 +1921,13 @@
         <v>100</v>
       </c>
       <c r="C5" s="1">
+        <v>100</v>
+      </c>
+      <c r="D5" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1">
+    <row r="6" spans="1:4" ht="15" thickBot="1">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -1921,10 +1935,13 @@
         <v>100</v>
       </c>
       <c r="C6" s="1">
+        <v>100</v>
+      </c>
+      <c r="D6" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" thickBot="1">
+    <row r="7" spans="1:4" ht="15" thickBot="1">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -1932,26 +1949,31 @@
         <v>100</v>
       </c>
       <c r="C7" s="1">
+        <v>100</v>
+      </c>
+      <c r="D7" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" thickBot="1">
+    <row r="8" spans="1:4" ht="15" thickBot="1">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="1">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" thickBot="1">
+    <row r="9" spans="1:4" ht="15" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="1">
         <v>60</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1">
         <v>3</v>
       </c>
     </row>

--- a/data/Classes_2025.xlsx
+++ b/data/Classes_2025.xlsx
@@ -1,33 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Text\Lectures\Mat_Met_Psychology\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73672FD8-E915-4502-961F-A87724CABA41}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9204" xr2:uid="{3A97A19D-B251-4EA6-95C8-17D64B7903C7}"/>
+    <workbookView windowWidth="22188" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>ДЗ 1 % от максимума</t>
+  </si>
+  <si>
+    <t>ДЗ 2 % от максимума</t>
+  </si>
+  <si>
+    <t>Варианты для ДЗ_3</t>
+  </si>
+  <si>
+    <t>Варианты для ДЗ_4</t>
   </si>
   <si>
     <t>Василькова Софья Владимировна</t>
@@ -53,29 +67,23 @@
   <si>
     <t>Толкачев Данила Владимирович</t>
   </si>
-  <si>
-    <t>Варианты для ДЗ_3</t>
-  </si>
-  <si>
-    <t>ДЗ 2 % от максимума</t>
-  </si>
-  <si>
-    <t>ДЗ 1 % от максимума</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
@@ -85,8 +93,159 @@
       <name val="Helvetica"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -101,12 +260,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
+        <fgColor theme="3" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -129,19 +474,258 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -151,24 +735,68 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Запятая" xfId="1" builtinId="3"/>
+    <cellStyle name="Денежный" xfId="2" builtinId="4"/>
+    <cellStyle name="Процент" xfId="3" builtinId="5"/>
+    <cellStyle name="Запятая [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Денежный [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Гиперссылка" xfId="6" builtinId="8"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="7" builtinId="9"/>
+    <cellStyle name="Примечание" xfId="8" builtinId="10"/>
+    <cellStyle name="Предупреждающий текст" xfId="9" builtinId="11"/>
+    <cellStyle name="Заголовок" xfId="10" builtinId="15"/>
+    <cellStyle name="Пояснительный текст" xfId="11" builtinId="53"/>
+    <cellStyle name="Заголовок 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Заголовок 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Заголовок 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Заголовок 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Ввод" xfId="16" builtinId="20"/>
+    <cellStyle name="Вывод" xfId="17" builtinId="21"/>
+    <cellStyle name="Вычисление" xfId="18" builtinId="22"/>
+    <cellStyle name="Проверить ячейку" xfId="19" builtinId="23"/>
+    <cellStyle name="Связанная ячейка" xfId="20" builtinId="24"/>
+    <cellStyle name="Итого" xfId="21" builtinId="25"/>
+    <cellStyle name="Хороший" xfId="22" builtinId="26"/>
+    <cellStyle name="Плохой" xfId="23" builtinId="27"/>
+    <cellStyle name="Нейтральный" xfId="24" builtinId="28"/>
+    <cellStyle name="Акцент1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% — Акцент1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% — Акцент1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% — Акцент1" xfId="28" builtinId="32"/>
+    <cellStyle name="Акцент2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% — Акцент2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% — Акцент2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% — Акцент2" xfId="32" builtinId="36"/>
+    <cellStyle name="Акцент3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% — Акцент3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% — Акцент3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% — Акцент3" xfId="36" builtinId="40"/>
+    <cellStyle name="Акцент4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% — Акцент4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% — Акцент4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% — Акцент4" xfId="40" builtinId="44"/>
+    <cellStyle name="Акцент5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% — Акцент5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% — Акцент5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% — Акцент5" xfId="44" builtinId="48"/>
+    <cellStyle name="Акцент6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% — Акцент6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% — Акцент6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% — Акцент6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -182,24 +810,15 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Host Control  2" hidden="1">
-          <a:extLst>
-            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s1026"/>
-            </a:ext>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{172D92DD-F4AA-4749-B217-5BA7E23DD054}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Host Control  2" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2651760" y="182880"/>
-          <a:ext cx="609600" cy="182880"/>
+          <a:off x="2430780" y="182880"/>
+          <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -221,24 +840,15 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Host Control  3" hidden="1">
-          <a:extLst>
-            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s1027"/>
-            </a:ext>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17EF5AC1-7168-473A-B5B7-B34CB211E8BB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Host Control  3" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2651760" y="365760"/>
-          <a:ext cx="609600" cy="182880"/>
+          <a:off x="2430780" y="375285"/>
+          <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -260,24 +870,15 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Host Control  4" hidden="1">
-          <a:extLst>
-            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s1028"/>
-            </a:ext>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B8A1857-654D-48ED-8513-5A2C3EBB263D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Host Control  4" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2651760" y="365760"/>
-          <a:ext cx="609600" cy="182880"/>
+          <a:off x="2430780" y="375285"/>
+          <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -299,24 +900,15 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Host Control  5" hidden="1">
-          <a:extLst>
-            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s1029"/>
-            </a:ext>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB2F66B0-C2D0-49AA-95BD-CAEBBD286F0F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Host Control  5" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2651760" y="548640"/>
-          <a:ext cx="609600" cy="182880"/>
+          <a:off x="2430780" y="567690"/>
+          <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -338,24 +930,15 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Host Control  6" hidden="1">
-          <a:extLst>
-            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s1030"/>
-            </a:ext>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF3CAF8D-83A3-4B83-8987-7E963A8A397F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Host Control  6" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2651760" y="548640"/>
-          <a:ext cx="609600" cy="182880"/>
+          <a:off x="2430780" y="567690"/>
+          <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -377,24 +960,15 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Host Control  7" hidden="1">
-          <a:extLst>
-            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s1031"/>
-            </a:ext>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{428567E8-8174-4D22-9BD8-F0D532149EDA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Host Control  7" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2651760" y="731520"/>
-          <a:ext cx="609600" cy="190500"/>
+          <a:off x="2430780" y="760095"/>
+          <a:ext cx="609600" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -416,24 +990,15 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Host Control  8" hidden="1">
-          <a:extLst>
-            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s1032"/>
-            </a:ext>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96441716-C6AB-48BA-8738-3CF4C8BAB9C3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Host Control  8" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2651760" y="731520"/>
-          <a:ext cx="609600" cy="190500"/>
+          <a:off x="2430780" y="760095"/>
+          <a:ext cx="609600" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -455,24 +1020,15 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Host Control  9" hidden="1">
-          <a:extLst>
-            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s1033"/>
-            </a:ext>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0582DDFC-C3B7-4B42-B704-DAEC04A30445}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Host Control  9" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2651760" y="914400"/>
-          <a:ext cx="609600" cy="182880"/>
+          <a:off x="2430780" y="760095"/>
+          <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -494,24 +1050,15 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Host Control  10" hidden="1">
-          <a:extLst>
-            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s1034"/>
-            </a:ext>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C7072BA-7C14-4ED2-A03E-F15D4255CBB0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Host Control  10" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2651760" y="914400"/>
-          <a:ext cx="609600" cy="182880"/>
+          <a:off x="2430780" y="760095"/>
+          <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -533,24 +1080,15 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Host Control  11" hidden="1">
-          <a:extLst>
-            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s1035"/>
-            </a:ext>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D7D11D0-88C1-4773-BFBB-DFAFB63789FA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Host Control  11" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2651760" y="1097280"/>
-          <a:ext cx="609600" cy="182880"/>
+          <a:off x="2430780" y="952500"/>
+          <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -572,24 +1110,15 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Host Control  12" hidden="1">
-          <a:extLst>
-            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s1036"/>
-            </a:ext>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA13B312-21EE-4B9C-BCD5-17910F3FA6AB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Host Control  12" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2651760" y="1097280"/>
-          <a:ext cx="609600" cy="182880"/>
+          <a:off x="2430780" y="952500"/>
+          <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -611,24 +1140,15 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Host Control  13" hidden="1">
-          <a:extLst>
-            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s1037"/>
-            </a:ext>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50ED2E01-6FD9-498C-AAAF-DDFFCDB1511C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Host Control  13" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2651760" y="1280160"/>
-          <a:ext cx="609600" cy="182880"/>
+          <a:off x="2430780" y="1144905"/>
+          <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -650,24 +1170,15 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Host Control  14" hidden="1">
-          <a:extLst>
-            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s1038"/>
-            </a:ext>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0389CBB-4C35-409C-A0A7-CC02C776D6E7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Host Control  14" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2651760" y="1280160"/>
-          <a:ext cx="609600" cy="182880"/>
+          <a:off x="2430780" y="1144905"/>
+          <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -689,24 +1200,15 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Host Control  15" hidden="1">
-          <a:extLst>
-            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s1039"/>
-            </a:ext>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C778C03-4FDA-4ECD-8BA7-F875106105AA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Host Control  15" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2651760" y="1463040"/>
-          <a:ext cx="609600" cy="182880"/>
+          <a:off x="2430780" y="1337310"/>
+          <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -728,24 +1230,15 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="Host Control  16" hidden="1">
-          <a:extLst>
-            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s1040"/>
-            </a:ext>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7FEC004-592C-4DFB-B5D9-E0B756706EF4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Host Control  16" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2651760" y="1463040"/>
-          <a:ext cx="609600" cy="182880"/>
+          <a:off x="2430780" y="1337310"/>
+          <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -767,23 +1260,17 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Host Control  3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62272C83-042D-49BF-B09A-78F48B94D30E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Host Control  3"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2651760" y="365760"/>
-          <a:ext cx="609600" cy="182880"/>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2430780" y="375285"/>
+          <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -824,23 +1311,17 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="Host Control  4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D45F91C-A32A-4704-8150-C36F0A4D3D07}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Host Control  4"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2651760" y="365760"/>
-          <a:ext cx="609600" cy="182880"/>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2430780" y="375285"/>
+          <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -881,23 +1362,17 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="Host Control  5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D0AB6FD-B1F8-409D-8D39-2B38A13C7737}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Host Control  5"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2651760" y="548640"/>
-          <a:ext cx="609600" cy="182880"/>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2430780" y="567690"/>
+          <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -938,23 +1413,17 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="Host Control  6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9914E491-A928-43C8-86C9-AB6AC53DE85A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Host Control  6"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2651760" y="548640"/>
-          <a:ext cx="609600" cy="182880"/>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2430780" y="567690"/>
+          <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -995,23 +1464,17 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="Host Control  7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F78E0757-8022-45B4-AC47-CF82DE8830A3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Host Control  7"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2651760" y="731520"/>
-          <a:ext cx="609600" cy="190500"/>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2430780" y="760095"/>
+          <a:ext cx="609600" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1052,23 +1515,17 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="Host Control  8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C08FDACA-C447-4522-9C83-238D8058C526}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Host Control  8"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2651760" y="731520"/>
-          <a:ext cx="609600" cy="190500"/>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2430780" y="760095"/>
+          <a:ext cx="609600" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1109,23 +1566,17 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="Host Control  9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7097EA34-514A-480D-864E-D3CD748239A4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Host Control  9"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2651760" y="914400"/>
-          <a:ext cx="609600" cy="182880"/>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2430780" y="760095"/>
+          <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1166,23 +1617,17 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="Host Control  10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{937D672A-8AEA-4770-AE03-D08E5865BF17}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Host Control  10"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2651760" y="914400"/>
-          <a:ext cx="609600" cy="182880"/>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2430780" y="760095"/>
+          <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1223,23 +1668,17 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="Host Control  11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A85202BD-B107-411F-886C-125727CE098B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Host Control  11"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2651760" y="1097280"/>
-          <a:ext cx="609600" cy="182880"/>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2430780" y="952500"/>
+          <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1280,23 +1719,17 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="Host Control  12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B2B258A-729C-450A-8316-060D5B1259C9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Host Control  12"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2651760" y="1097280"/>
-          <a:ext cx="609600" cy="182880"/>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2430780" y="952500"/>
+          <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1337,23 +1770,17 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="Host Control  13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CB7F16F-AC0C-4666-B1C6-8CE70575C42E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Host Control  13"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2651760" y="1280160"/>
-          <a:ext cx="609600" cy="182880"/>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2430780" y="1144905"/>
+          <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1394,23 +1821,17 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="Host Control  14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DA2BE80-EADC-441A-AF52-542B7CA27E05}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Host Control  14"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2651760" y="1280160"/>
-          <a:ext cx="609600" cy="182880"/>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2430780" y="1144905"/>
+          <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1451,23 +1872,17 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="Host Control  15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CD7D5CE-0DA3-4805-969A-3A39D1F954EF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Host Control  15"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2651760" y="1463040"/>
-          <a:ext cx="609600" cy="182880"/>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2430780" y="1337310"/>
+          <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1508,23 +1923,17 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="Host Control  16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC5577E0-9942-4485-BC95-D03B242F7445}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="Host Control  16"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2651760" y="1463040"/>
-          <a:ext cx="609600" cy="182880"/>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2430780" y="1337310"/>
+          <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1598,7 +2007,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1631,26 +2040,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1683,23 +2075,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1841,57 +2216,56 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE58FD4-1700-4E0B-A6AC-057BF15C523A}">
-  <dimension ref="A1:D9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.4444444444444" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="4" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
+    <row r="2" ht="15.15" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="1">
+      <c r="D2" s="1"/>
+      <c r="E2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" thickBot="1">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
+    <row r="3" ht="15.15" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="B3" s="1">
         <v>100</v>
@@ -1899,23 +2273,25 @@
       <c r="C3" s="1">
         <v>100</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="1"/>
+      <c r="E3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1">
-      <c r="A4" s="4" t="s">
-        <v>3</v>
+    <row r="4" ht="15.15" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="1">
-        <v>2</v>
+      <c r="D4" s="1"/>
+      <c r="E4">
+        <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" thickBot="1">
-      <c r="A5" s="4" t="s">
-        <v>4</v>
+    <row r="5" ht="15.15" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="B5" s="1">
         <v>100</v>
@@ -1923,13 +2299,14 @@
       <c r="C5" s="1">
         <v>100</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="1"/>
+      <c r="E5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" thickBot="1">
-      <c r="A6" s="4" t="s">
-        <v>5</v>
+    <row r="6" ht="15.15" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="B6" s="1">
         <v>100</v>
@@ -1937,13 +2314,14 @@
       <c r="C6" s="1">
         <v>100</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="1"/>
+      <c r="E6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" thickBot="1">
-      <c r="A7" s="4" t="s">
-        <v>6</v>
+    <row r="7" ht="15.15" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="B7" s="1">
         <v>100</v>
@@ -1951,34 +2329,38 @@
       <c r="C7" s="1">
         <v>100</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="1"/>
+      <c r="E7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" thickBot="1">
-      <c r="A8" s="4" t="s">
-        <v>7</v>
+    <row r="8" ht="15.15" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="1">
+      <c r="D8" s="1"/>
+      <c r="E8">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" thickBot="1">
-      <c r="A9" s="5" t="s">
-        <v>8</v>
+    <row r="9" ht="15.15" spans="1:5">
+      <c r="A9" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="B9" s="1">
         <v>60</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="1">
+      <c r="D9" s="1"/>
+      <c r="E9">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/Classes_2025.xlsx
+++ b/data/Classes_2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180"/>
+    <workbookView windowWidth="22188" windowHeight="8735"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -27,21 +27,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>ДЗ 1 % от максимума</t>
+    <t>ДЗ_1</t>
   </si>
   <si>
-    <t>ДЗ 2 % от максимума</t>
+    <t>Д_2</t>
   </si>
   <si>
-    <t>Варианты для ДЗ_3</t>
+    <t>ДЗ_3</t>
   </si>
   <si>
-    <t>Варианты для ДЗ_4</t>
+    <t>ДЗ_4</t>
+  </si>
+  <si>
+    <t>Варианты для ДЗ_5</t>
   </si>
   <si>
     <t>Василькова Софья Владимировна</t>
@@ -817,7 +820,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="182880"/>
+          <a:off x="2430780" y="192405"/>
           <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -847,7 +850,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="375285"/>
+          <a:off x="2430780" y="384810"/>
           <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -877,7 +880,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="375285"/>
+          <a:off x="2430780" y="384810"/>
           <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -907,7 +910,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="567690"/>
+          <a:off x="2430780" y="577215"/>
           <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -937,7 +940,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="567690"/>
+          <a:off x="2430780" y="577215"/>
           <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -967,7 +970,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="760095"/>
+          <a:off x="2430780" y="769620"/>
           <a:ext cx="609600" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -997,7 +1000,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="760095"/>
+          <a:off x="2430780" y="769620"/>
           <a:ext cx="609600" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1027,7 +1030,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="760095"/>
+          <a:off x="2430780" y="769620"/>
           <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1057,7 +1060,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="760095"/>
+          <a:off x="2430780" y="769620"/>
           <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1087,7 +1090,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="952500"/>
+          <a:off x="2430780" y="962025"/>
           <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1117,7 +1120,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="952500"/>
+          <a:off x="2430780" y="962025"/>
           <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1147,7 +1150,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="1144905"/>
+          <a:off x="2430780" y="1154430"/>
           <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1177,7 +1180,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="1144905"/>
+          <a:off x="2430780" y="1154430"/>
           <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1207,7 +1210,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="1337310"/>
+          <a:off x="2430780" y="1346835"/>
           <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1237,7 +1240,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="1337310"/>
+          <a:off x="2430780" y="1346835"/>
           <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1269,7 +1272,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="375285"/>
+          <a:off x="2430780" y="384810"/>
           <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1320,7 +1323,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="375285"/>
+          <a:off x="2430780" y="384810"/>
           <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1371,7 +1374,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="567690"/>
+          <a:off x="2430780" y="577215"/>
           <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1422,7 +1425,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="567690"/>
+          <a:off x="2430780" y="577215"/>
           <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1473,7 +1476,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="760095"/>
+          <a:off x="2430780" y="769620"/>
           <a:ext cx="609600" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1524,7 +1527,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="760095"/>
+          <a:off x="2430780" y="769620"/>
           <a:ext cx="609600" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1575,7 +1578,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="760095"/>
+          <a:off x="2430780" y="769620"/>
           <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1626,7 +1629,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="760095"/>
+          <a:off x="2430780" y="769620"/>
           <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1677,7 +1680,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="952500"/>
+          <a:off x="2430780" y="962025"/>
           <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1728,7 +1731,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="952500"/>
+          <a:off x="2430780" y="962025"/>
           <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1779,7 +1782,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="1144905"/>
+          <a:off x="2430780" y="1154430"/>
           <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1830,7 +1833,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="1144905"/>
+          <a:off x="2430780" y="1154430"/>
           <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1881,7 +1884,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="1337310"/>
+          <a:off x="2430780" y="1346835"/>
           <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1932,7 +1935,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="1337310"/>
+          <a:off x="2430780" y="1346835"/>
           <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2222,20 +2225,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="35.4444444444444" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="4" width="18" customWidth="1"/>
+    <col min="6" max="6" width="19.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" ht="15.15" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2251,21 +2255,24 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" ht="15.15" spans="1:5">
+    <row r="2" ht="15.15" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2">
+      <c r="F2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="15.15" spans="1:5">
+    <row r="3" ht="15.15" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1">
         <v>100</v>
@@ -2275,23 +2282,26 @@
       </c>
       <c r="D3" s="1"/>
       <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="15.15" spans="1:5">
+    <row r="4" ht="15.15" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4">
+      <c r="F4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="15.15" spans="1:5">
+    <row r="5" ht="15.15" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1">
         <v>100</v>
@@ -2301,12 +2311,15 @@
       </c>
       <c r="D5" s="1"/>
       <c r="E5">
+        <v>50</v>
+      </c>
+      <c r="F5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" ht="15.15" spans="1:5">
+    <row r="6" ht="15.15" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1">
         <v>100</v>
@@ -2316,12 +2329,15 @@
       </c>
       <c r="D6" s="1"/>
       <c r="E6">
+        <v>50</v>
+      </c>
+      <c r="F6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" ht="15.15" spans="1:5">
+    <row r="7" ht="15.15" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1">
         <v>100</v>
@@ -2330,31 +2346,31 @@
         <v>100</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7">
+      <c r="F7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" ht="15.15" spans="1:5">
+    <row r="8" ht="15.15" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8">
+      <c r="F8">
         <v>3</v>
       </c>
     </row>
-    <row r="9" ht="15.15" spans="1:5">
+    <row r="9" ht="15.15" spans="1:6">
       <c r="A9" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1">
         <v>60</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9">
+      <c r="F9">
         <v>3</v>
       </c>
     </row>

--- a/data/Classes_2025.xlsx
+++ b/data/Classes_2025.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Text\Lectures\Statistica\Mat_Met_Psychology\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1833B25D-5B66-4A24-8DE7-93D247D708D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="8735"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Name</t>
   </si>
@@ -42,9 +46,6 @@
   </si>
   <si>
     <t>ДЗ_4</t>
-  </si>
-  <si>
-    <t>Варианты для ДЗ_5</t>
   </si>
   <si>
     <t>Василькова Софья Владимировна</t>
@@ -70,19 +71,21 @@
   <si>
     <t>Толкачев Данила Владимирович</t>
   </si>
+  <si>
+    <t>Варианты для ДЗ_6</t>
+  </si>
+  <si>
+    <t>ДЗ_5</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="dd\.mm\.yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,159 +99,8 @@
       <name val="Helvetica"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -263,198 +115,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="3" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -477,258 +143,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -738,68 +162,24 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Запятая" xfId="1" builtinId="3"/>
-    <cellStyle name="Денежный" xfId="2" builtinId="4"/>
-    <cellStyle name="Процент" xfId="3" builtinId="5"/>
-    <cellStyle name="Запятая [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Денежный [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Гиперссылка" xfId="6" builtinId="8"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="7" builtinId="9"/>
-    <cellStyle name="Примечание" xfId="8" builtinId="10"/>
-    <cellStyle name="Предупреждающий текст" xfId="9" builtinId="11"/>
-    <cellStyle name="Заголовок" xfId="10" builtinId="15"/>
-    <cellStyle name="Пояснительный текст" xfId="11" builtinId="53"/>
-    <cellStyle name="Заголовок 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Заголовок 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Заголовок 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Заголовок 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Ввод" xfId="16" builtinId="20"/>
-    <cellStyle name="Вывод" xfId="17" builtinId="21"/>
-    <cellStyle name="Вычисление" xfId="18" builtinId="22"/>
-    <cellStyle name="Проверить ячейку" xfId="19" builtinId="23"/>
-    <cellStyle name="Связанная ячейка" xfId="20" builtinId="24"/>
-    <cellStyle name="Итого" xfId="21" builtinId="25"/>
-    <cellStyle name="Хороший" xfId="22" builtinId="26"/>
-    <cellStyle name="Плохой" xfId="23" builtinId="27"/>
-    <cellStyle name="Нейтральный" xfId="24" builtinId="28"/>
-    <cellStyle name="Акцент1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% — Акцент1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% — Акцент1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% — Акцент1" xfId="28" builtinId="32"/>
-    <cellStyle name="Акцент2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% — Акцент2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% — Акцент2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% — Акцент2" xfId="32" builtinId="36"/>
-    <cellStyle name="Акцент3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% — Акцент3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% — Акцент3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% — Акцент3" xfId="36" builtinId="40"/>
-    <cellStyle name="Акцент4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% — Акцент4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% — Акцент4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% — Акцент4" xfId="40" builtinId="44"/>
-    <cellStyle name="Акцент5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% — Акцент5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% — Акцент5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% — Акцент5" xfId="44" builtinId="48"/>
-    <cellStyle name="Акцент6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% — Акцент6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% — Акцент6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% — Акцент6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -813,9 +193,15 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Host Control  2" hidden="1"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Host Control  2" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -843,9 +229,15 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Host Control  3" hidden="1"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Host Control  3" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -873,9 +265,15 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Host Control  4" hidden="1"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Host Control  4" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -903,9 +301,15 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Host Control  5" hidden="1"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Host Control  5" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -933,9 +337,15 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Host Control  6" hidden="1"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Host Control  6" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -963,9 +373,15 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Host Control  7" hidden="1"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Host Control  7" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -993,9 +409,15 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Host Control  8" hidden="1"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Host Control  8" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1023,9 +445,15 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Host Control  9" hidden="1"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Host Control  9" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1053,9 +481,15 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Host Control  10" hidden="1"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Host Control  10" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1083,9 +517,15 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Host Control  11" hidden="1"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Host Control  11" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1113,9 +553,15 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Host Control  12" hidden="1"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Host Control  12" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1143,9 +589,15 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Host Control  13" hidden="1"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Host Control  13" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1173,9 +625,15 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Host Control  14" hidden="1"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Host Control  14" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1203,9 +661,15 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Host Control  15" hidden="1"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Host Control  15" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1233,9 +697,15 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="Host Control  16" hidden="1"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Host Control  16" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1263,9 +733,15 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Host Control  3"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Host Control  3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -1314,9 +790,15 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="Host Control  4"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Host Control  4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -1365,9 +847,15 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="Host Control  5"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Host Control  5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -1416,9 +904,15 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="Host Control  6"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Host Control  6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -1467,9 +961,15 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="Host Control  7"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Host Control  7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -1518,9 +1018,15 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="Host Control  8"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Host Control  8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -1569,9 +1075,15 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="Host Control  9"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Host Control  9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -1620,9 +1132,15 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="Host Control  10"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Host Control  10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -1671,9 +1189,15 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="Host Control  11"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Host Control  11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -1722,9 +1246,15 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="Host Control  12"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Host Control  12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -1773,9 +1303,15 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="Host Control  13"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Host Control  13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -1824,9 +1360,15 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="Host Control  14"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Host Control  14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -1875,9 +1417,15 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="Host Control  15"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Host Control  15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -1926,9 +1474,15 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="Host Control  16"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="Host Control  16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -2219,27 +1773,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="35.4444444444444" customWidth="1"/>
+    <col min="1" max="1" width="35.44140625" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="4" width="18" customWidth="1"/>
-    <col min="6" max="6" width="19.5555555555556" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.15" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2256,23 +1810,29 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="2" ht="15.15" spans="1:6">
-      <c r="A2" s="3" t="s">
-        <v>6</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="15.15" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1">
         <v>100</v>
@@ -2284,24 +1844,24 @@
       <c r="E3">
         <v>100</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="15.15" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="F4">
+      <c r="G4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="15.15" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1">
         <v>100</v>
@@ -2313,13 +1873,13 @@
       <c r="E5">
         <v>50</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" ht="15.15" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1">
         <v>100</v>
@@ -2332,12 +1892,15 @@
         <v>50</v>
       </c>
       <c r="F6">
+        <v>100</v>
+      </c>
+      <c r="G6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" ht="15.15" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1">
         <v>100</v>
@@ -2346,37 +1909,36 @@
         <v>100</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="F7">
+      <c r="G7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" ht="15.15" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="F8">
+      <c r="G8">
         <v>3</v>
       </c>
     </row>
-    <row r="9" ht="15.15" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1">
         <v>60</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="F9">
+      <c r="G9">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/Classes_2025.xlsx
+++ b/data/Classes_2025.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Text\Lectures\Statistica\Mat_Met_Psychology\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1833B25D-5B66-4A24-8DE7-93D247D708D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="22188" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -24,6 +18,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Name</t>
   </si>
@@ -46,6 +42,15 @@
   </si>
   <si>
     <t>ДЗ_4</t>
+  </si>
+  <si>
+    <t>ДЗ_5</t>
+  </si>
+  <si>
+    <t>ДЗ_6</t>
+  </si>
+  <si>
+    <t>Варианты для ДЗ_7</t>
   </si>
   <si>
     <t>Василькова Софья Владимировна</t>
@@ -71,21 +76,19 @@
   <si>
     <t>Толкачев Данила Владимирович</t>
   </si>
-  <si>
-    <t>Варианты для ДЗ_6</t>
-  </si>
-  <si>
-    <t>ДЗ_5</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="dd\.mm\.yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,8 +102,159 @@
       <name val="Helvetica"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -115,12 +269,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79995117038483843"/>
+        <fgColor theme="3" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -143,16 +483,258 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -162,24 +744,68 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Запятая" xfId="1" builtinId="3"/>
+    <cellStyle name="Денежный" xfId="2" builtinId="4"/>
+    <cellStyle name="Процент" xfId="3" builtinId="5"/>
+    <cellStyle name="Запятая [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Денежный [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Гиперссылка" xfId="6" builtinId="8"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="7" builtinId="9"/>
+    <cellStyle name="Примечание" xfId="8" builtinId="10"/>
+    <cellStyle name="Предупреждающий текст" xfId="9" builtinId="11"/>
+    <cellStyle name="Заголовок" xfId="10" builtinId="15"/>
+    <cellStyle name="Пояснительный текст" xfId="11" builtinId="53"/>
+    <cellStyle name="Заголовок 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Заголовок 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Заголовок 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Заголовок 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Ввод" xfId="16" builtinId="20"/>
+    <cellStyle name="Вывод" xfId="17" builtinId="21"/>
+    <cellStyle name="Вычисление" xfId="18" builtinId="22"/>
+    <cellStyle name="Проверить ячейку" xfId="19" builtinId="23"/>
+    <cellStyle name="Связанная ячейка" xfId="20" builtinId="24"/>
+    <cellStyle name="Итого" xfId="21" builtinId="25"/>
+    <cellStyle name="Хороший" xfId="22" builtinId="26"/>
+    <cellStyle name="Плохой" xfId="23" builtinId="27"/>
+    <cellStyle name="Нейтральный" xfId="24" builtinId="28"/>
+    <cellStyle name="Акцент1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% — Акцент1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% — Акцент1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% — Акцент1" xfId="28" builtinId="32"/>
+    <cellStyle name="Акцент2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% — Акцент2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% — Акцент2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% — Акцент2" xfId="32" builtinId="36"/>
+    <cellStyle name="Акцент3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% — Акцент3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% — Акцент3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% — Акцент3" xfId="36" builtinId="40"/>
+    <cellStyle name="Акцент4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% — Акцент4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% — Акцент4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% — Акцент4" xfId="40" builtinId="44"/>
+    <cellStyle name="Акцент5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% — Акцент5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% — Акцент5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% — Акцент5" xfId="44" builtinId="48"/>
+    <cellStyle name="Акцент6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% — Акцент6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% — Акцент6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% — Акцент6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -188,20 +814,14 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Host Control  2" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Host Control  2" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -224,20 +844,14 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Host Control  3" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Host Control  3" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -260,20 +874,14 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Host Control  4" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Host Control  4" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -296,20 +904,14 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Host Control  5" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Host Control  5" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -332,20 +934,14 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Host Control  6" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Host Control  6" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -368,20 +964,14 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Host Control  7" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Host Control  7" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -404,20 +994,14 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Host Control  8" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Host Control  8" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -440,20 +1024,14 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Host Control  9" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Host Control  9" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -476,20 +1054,14 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Host Control  10" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Host Control  10" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -512,20 +1084,14 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Host Control  11" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Host Control  11" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -548,20 +1114,14 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Host Control  12" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Host Control  12" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -584,20 +1144,14 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Host Control  13" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Host Control  13" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -620,20 +1174,14 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Host Control  14" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Host Control  14" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -656,20 +1204,14 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Host Control  15" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Host Control  15" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -692,20 +1234,14 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="Host Control  16" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Host Control  16" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -728,20 +1264,14 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Host Control  3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Host Control  3"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -785,20 +1315,14 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="Host Control  4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Host Control  4"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -842,20 +1366,14 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="Host Control  5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Host Control  5"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -899,20 +1417,14 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="Host Control  6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Host Control  6"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -956,20 +1468,14 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="Host Control  7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Host Control  7"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -1013,20 +1519,14 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="Host Control  8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Host Control  8"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -1070,20 +1570,14 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="Host Control  9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Host Control  9"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -1127,20 +1621,14 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="Host Control  10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Host Control  10"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -1184,20 +1672,14 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="Host Control  11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Host Control  11"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -1241,20 +1723,14 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="Host Control  12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Host Control  12"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -1298,20 +1774,14 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="Host Control  13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Host Control  13"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -1355,20 +1825,14 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="Host Control  14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Host Control  14"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -1412,20 +1876,14 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="Host Control  15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Host Control  15"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -1469,20 +1927,14 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="Host Control  16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="Host Control  16"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -1773,27 +2225,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="35.44140625" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="4" width="18" customWidth="1"/>
-    <col min="6" max="6" width="19.5546875" customWidth="1"/>
+    <col min="1" max="1" width="35.4444444444444" customWidth="1"/>
+    <col min="2" max="2" width="6" customWidth="1"/>
+    <col min="3" max="3" width="5" customWidth="1"/>
+    <col min="4" max="4" width="6" customWidth="1"/>
+    <col min="6" max="6" width="6" customWidth="1"/>
+    <col min="8" max="8" width="19.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" ht="15.15" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1810,15 +2264,18 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" ht="15.15" spans="1:8">
       <c r="A2" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1826,13 +2283,13 @@
       <c r="F2">
         <v>100</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" ht="15.15" spans="1:8">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1">
         <v>100</v>
@@ -1844,24 +2301,27 @@
       <c r="E3">
         <v>100</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" ht="15.15" spans="1:8">
       <c r="A4" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="G4">
+        <v>100</v>
+      </c>
+      <c r="H4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" ht="15.15" spans="1:8">
       <c r="A5" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1">
         <v>100</v>
@@ -1874,12 +2334,15 @@
         <v>50</v>
       </c>
       <c r="G5">
+        <v>100</v>
+      </c>
+      <c r="H5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" ht="15.15" spans="1:8">
       <c r="A6" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1">
         <v>100</v>
@@ -1895,12 +2358,15 @@
         <v>100</v>
       </c>
       <c r="G6">
+        <v>100</v>
+      </c>
+      <c r="H6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" ht="15.15" spans="1:8">
       <c r="A7" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1">
         <v>100</v>
@@ -1909,36 +2375,37 @@
         <v>100</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="G7">
+      <c r="H7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" ht="15.15" spans="1:8">
       <c r="A8" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="G8">
+      <c r="H8">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" ht="15.15" spans="1:8">
       <c r="A9" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1">
         <v>60</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="G9">
+      <c r="H9">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/Classes_2025.xlsx
+++ b/data/Classes_2025.xlsx
@@ -817,7 +817,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -856,7 +856,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="384810"/>
+          <a:off x="2430780" y="375285"/>
           <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -886,7 +886,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="384810"/>
+          <a:off x="2430780" y="375285"/>
           <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -916,7 +916,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="577215"/>
+          <a:off x="2430780" y="567690"/>
           <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -946,7 +946,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="577215"/>
+          <a:off x="2430780" y="567690"/>
           <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -976,7 +976,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="769620"/>
+          <a:off x="2430780" y="760095"/>
           <a:ext cx="609600" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1006,7 +1006,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="769620"/>
+          <a:off x="2430780" y="760095"/>
           <a:ext cx="609600" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1036,7 +1036,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="769620"/>
+          <a:off x="2430780" y="760095"/>
           <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1066,7 +1066,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="769620"/>
+          <a:off x="2430780" y="760095"/>
           <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1096,7 +1096,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="962025"/>
+          <a:off x="2430780" y="952500"/>
           <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1126,7 +1126,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="962025"/>
+          <a:off x="2430780" y="952500"/>
           <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1156,7 +1156,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="1154430"/>
+          <a:off x="2430780" y="1144905"/>
           <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1186,7 +1186,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="1154430"/>
+          <a:off x="2430780" y="1144905"/>
           <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1216,7 +1216,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="1346835"/>
+          <a:off x="2430780" y="1337310"/>
           <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1246,7 +1246,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="1346835"/>
+          <a:off x="2430780" y="1337310"/>
           <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1278,7 +1278,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="384810"/>
+          <a:off x="2430780" y="375285"/>
           <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1329,7 +1329,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="384810"/>
+          <a:off x="2430780" y="375285"/>
           <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1380,7 +1380,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="577215"/>
+          <a:off x="2430780" y="567690"/>
           <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1431,7 +1431,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="577215"/>
+          <a:off x="2430780" y="567690"/>
           <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1482,7 +1482,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="769620"/>
+          <a:off x="2430780" y="760095"/>
           <a:ext cx="609600" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1533,7 +1533,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="769620"/>
+          <a:off x="2430780" y="760095"/>
           <a:ext cx="609600" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1584,7 +1584,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="769620"/>
+          <a:off x="2430780" y="760095"/>
           <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1635,7 +1635,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="769620"/>
+          <a:off x="2430780" y="760095"/>
           <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1686,7 +1686,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="962025"/>
+          <a:off x="2430780" y="952500"/>
           <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1737,7 +1737,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="962025"/>
+          <a:off x="2430780" y="952500"/>
           <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1788,7 +1788,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="1154430"/>
+          <a:off x="2430780" y="1144905"/>
           <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1839,7 +1839,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="1154430"/>
+          <a:off x="2430780" y="1144905"/>
           <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1890,7 +1890,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="1346835"/>
+          <a:off x="2430780" y="1337310"/>
           <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1941,7 +1941,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="1346835"/>
+          <a:off x="2430780" y="1337310"/>
           <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2234,7 +2234,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -2273,7 +2273,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="15.15" spans="1:8">
+    <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -2281,6 +2281,9 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2">
         <v>100</v>
       </c>
       <c r="H2">

--- a/data/Classes_2025.xlsx
+++ b/data/Classes_2025.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Text\Lectures\Statistica\Mat_Met_Psychology\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA53D16-603D-47CC-B314-998259FF25C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Name</t>
   </si>
@@ -48,9 +52,6 @@
   </si>
   <si>
     <t>ДЗ_6</t>
-  </si>
-  <si>
-    <t>Варианты для ДЗ_7</t>
   </si>
   <si>
     <t>Василькова Софья Владимировна</t>
@@ -76,19 +77,21 @@
   <si>
     <t>Толкачев Данила Владимирович</t>
   </si>
+  <si>
+    <t>ДЗ_7</t>
+  </si>
+  <si>
+    <t>Варианты для ДЗ_8</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="dd\.mm\.yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,158 +106,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="8"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -269,198 +127,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="3" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -483,258 +155,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -744,68 +174,24 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Запятая" xfId="1" builtinId="3"/>
-    <cellStyle name="Денежный" xfId="2" builtinId="4"/>
-    <cellStyle name="Процент" xfId="3" builtinId="5"/>
-    <cellStyle name="Запятая [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Денежный [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Гиперссылка" xfId="6" builtinId="8"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="7" builtinId="9"/>
-    <cellStyle name="Примечание" xfId="8" builtinId="10"/>
-    <cellStyle name="Предупреждающий текст" xfId="9" builtinId="11"/>
-    <cellStyle name="Заголовок" xfId="10" builtinId="15"/>
-    <cellStyle name="Пояснительный текст" xfId="11" builtinId="53"/>
-    <cellStyle name="Заголовок 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Заголовок 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Заголовок 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Заголовок 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Ввод" xfId="16" builtinId="20"/>
-    <cellStyle name="Вывод" xfId="17" builtinId="21"/>
-    <cellStyle name="Вычисление" xfId="18" builtinId="22"/>
-    <cellStyle name="Проверить ячейку" xfId="19" builtinId="23"/>
-    <cellStyle name="Связанная ячейка" xfId="20" builtinId="24"/>
-    <cellStyle name="Итого" xfId="21" builtinId="25"/>
-    <cellStyle name="Хороший" xfId="22" builtinId="26"/>
-    <cellStyle name="Плохой" xfId="23" builtinId="27"/>
-    <cellStyle name="Нейтральный" xfId="24" builtinId="28"/>
-    <cellStyle name="Акцент1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% — Акцент1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% — Акцент1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% — Акцент1" xfId="28" builtinId="32"/>
-    <cellStyle name="Акцент2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% — Акцент2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% — Акцент2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% — Акцент2" xfId="32" builtinId="36"/>
-    <cellStyle name="Акцент3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% — Акцент3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% — Акцент3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% — Акцент3" xfId="36" builtinId="40"/>
-    <cellStyle name="Акцент4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% — Акцент4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% — Акцент4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% — Акцент4" xfId="40" builtinId="44"/>
-    <cellStyle name="Акцент5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% — Акцент5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% — Акцент5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% — Акцент5" xfId="44" builtinId="48"/>
-    <cellStyle name="Акцент6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% — Акцент6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% — Акцент6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% — Акцент6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -819,9 +205,15 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Host Control  2" hidden="1"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Host Control  2" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -849,9 +241,15 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Host Control  3" hidden="1"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Host Control  3" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -879,9 +277,15 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Host Control  4" hidden="1"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Host Control  4" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -909,9 +313,15 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Host Control  5" hidden="1"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Host Control  5" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -939,9 +349,15 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Host Control  6" hidden="1"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Host Control  6" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -969,9 +385,15 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Host Control  7" hidden="1"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Host Control  7" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -999,9 +421,15 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Host Control  8" hidden="1"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Host Control  8" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1029,9 +457,15 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Host Control  9" hidden="1"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Host Control  9" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1059,9 +493,15 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Host Control  10" hidden="1"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Host Control  10" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1089,9 +529,15 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Host Control  11" hidden="1"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Host Control  11" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1119,9 +565,15 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Host Control  12" hidden="1"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Host Control  12" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1149,9 +601,15 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Host Control  13" hidden="1"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Host Control  13" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1179,9 +637,15 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Host Control  14" hidden="1"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Host Control  14" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1209,9 +673,15 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Host Control  15" hidden="1"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Host Control  15" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1239,9 +709,15 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="Host Control  16" hidden="1"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Host Control  16" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1269,9 +745,15 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Host Control  3"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Host Control  3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -1320,9 +802,15 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="Host Control  4"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Host Control  4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -1371,9 +859,15 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="Host Control  5"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Host Control  5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -1422,9 +916,15 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="Host Control  6"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Host Control  6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -1473,9 +973,15 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="Host Control  7"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Host Control  7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -1524,9 +1030,15 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="Host Control  8"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Host Control  8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -1575,9 +1087,15 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="Host Control  9"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Host Control  9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -1626,9 +1144,15 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="Host Control  10"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Host Control  10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -1677,9 +1201,15 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="Host Control  11"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Host Control  11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -1728,9 +1258,15 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="Host Control  12"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Host Control  12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -1779,9 +1315,15 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="Host Control  13"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Host Control  13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -1830,9 +1372,15 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="Host Control  14"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Host Control  14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -1881,9 +1429,15 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="Host Control  15"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Host Control  15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -1932,9 +1486,15 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="Host Control  16"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="Host Control  16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -2225,29 +1785,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="35.4444444444444" customWidth="1"/>
+    <col min="1" max="1" width="35.44140625" customWidth="1"/>
     <col min="2" max="2" width="6" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
     <col min="4" max="4" width="6" customWidth="1"/>
     <col min="6" max="6" width="6" customWidth="1"/>
-    <col min="8" max="8" width="19.5555555555556" customWidth="1"/>
+    <col min="9" max="9" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.15" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2270,12 +1830,15 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="3" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2287,12 +1850,15 @@
         <v>100</v>
       </c>
       <c r="H2">
+        <v>100</v>
+      </c>
+      <c r="I2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="15.15" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>100</v>
@@ -2304,13 +1870,13 @@
       <c r="E3">
         <v>100</v>
       </c>
-      <c r="H3">
-        <v>1</v>
+      <c r="I3">
+        <v>2</v>
       </c>
     </row>
-    <row r="4" ht="15.15" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2319,12 +1885,15 @@
         <v>100</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
       </c>
     </row>
-    <row r="5" ht="15.15" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1">
         <v>100</v>
@@ -2339,13 +1908,13 @@
       <c r="G5">
         <v>100</v>
       </c>
-      <c r="H5">
-        <v>2</v>
+      <c r="I5">
+        <v>1</v>
       </c>
     </row>
-    <row r="6" ht="15.15" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1">
         <v>100</v>
@@ -2364,12 +1933,15 @@
         <v>100</v>
       </c>
       <c r="H6">
+        <v>100</v>
+      </c>
+      <c r="I6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" ht="15.15" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1">
         <v>100</v>
@@ -2378,37 +1950,37 @@
         <v>100</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="H7">
+      <c r="I7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" ht="15.15" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="H8">
-        <v>3</v>
+      <c r="I8">
+        <v>1</v>
       </c>
     </row>
-    <row r="9" ht="15.15" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1">
         <v>60</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="H9">
-        <v>3</v>
+      <c r="I9">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/Classes_2025.xlsx
+++ b/data/Classes_2025.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Text\Lectures\Statistica\Mat_Met_Psychology\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA53D16-603D-47CC-B314-998259FF25C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="22188" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -24,6 +18,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Name</t>
   </si>
@@ -52,6 +48,15 @@
   </si>
   <si>
     <t>ДЗ_6</t>
+  </si>
+  <si>
+    <t>ДЗ_7</t>
+  </si>
+  <si>
+    <t>ДЗ_8</t>
+  </si>
+  <si>
+    <t>Варианты для ДЗ_9</t>
   </si>
   <si>
     <t>Василькова Софья Владимировна</t>
@@ -77,21 +82,19 @@
   <si>
     <t>Толкачев Данила Владимирович</t>
   </si>
-  <si>
-    <t>ДЗ_7</t>
-  </si>
-  <si>
-    <t>Варианты для ДЗ_8</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="dd\.mm\.yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,13 +109,158 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="204"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -127,12 +275,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79992065187536243"/>
+        <fgColor theme="3" tint="0.799920651875362"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -155,16 +489,258 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -174,24 +750,68 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Запятая" xfId="1" builtinId="3"/>
+    <cellStyle name="Денежный" xfId="2" builtinId="4"/>
+    <cellStyle name="Процент" xfId="3" builtinId="5"/>
+    <cellStyle name="Запятая [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Денежный [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Гиперссылка" xfId="6" builtinId="8"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="7" builtinId="9"/>
+    <cellStyle name="Примечание" xfId="8" builtinId="10"/>
+    <cellStyle name="Предупреждающий текст" xfId="9" builtinId="11"/>
+    <cellStyle name="Заголовок" xfId="10" builtinId="15"/>
+    <cellStyle name="Пояснительный текст" xfId="11" builtinId="53"/>
+    <cellStyle name="Заголовок 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Заголовок 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Заголовок 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Заголовок 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Ввод" xfId="16" builtinId="20"/>
+    <cellStyle name="Вывод" xfId="17" builtinId="21"/>
+    <cellStyle name="Вычисление" xfId="18" builtinId="22"/>
+    <cellStyle name="Проверить ячейку" xfId="19" builtinId="23"/>
+    <cellStyle name="Связанная ячейка" xfId="20" builtinId="24"/>
+    <cellStyle name="Итого" xfId="21" builtinId="25"/>
+    <cellStyle name="Хороший" xfId="22" builtinId="26"/>
+    <cellStyle name="Плохой" xfId="23" builtinId="27"/>
+    <cellStyle name="Нейтральный" xfId="24" builtinId="28"/>
+    <cellStyle name="Акцент1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% — Акцент1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% — Акцент1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% — Акцент1" xfId="28" builtinId="32"/>
+    <cellStyle name="Акцент2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% — Акцент2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% — Акцент2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% — Акцент2" xfId="32" builtinId="36"/>
+    <cellStyle name="Акцент3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% — Акцент3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% — Акцент3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% — Акцент3" xfId="36" builtinId="40"/>
+    <cellStyle name="Акцент4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% — Акцент4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% — Акцент4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% — Акцент4" xfId="40" builtinId="44"/>
+    <cellStyle name="Акцент5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% — Акцент5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% — Акцент5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% — Акцент5" xfId="44" builtinId="48"/>
+    <cellStyle name="Акцент6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% — Акцент6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% — Акцент6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% — Акцент6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -205,21 +825,15 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Host Control  2" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Host Control  2" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="192405"/>
-          <a:ext cx="609600" cy="192405"/>
+          <a:off x="2430780" y="182880"/>
+          <a:ext cx="609600" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -241,15 +855,9 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Host Control  3" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Host Control  3" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -277,15 +885,9 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Host Control  4" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Host Control  4" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -313,15 +915,9 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Host Control  5" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Host Control  5" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -349,15 +945,9 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Host Control  6" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Host Control  6" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -385,15 +975,9 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Host Control  7" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Host Control  7" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -421,15 +1005,9 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Host Control  8" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Host Control  8" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -457,15 +1035,9 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Host Control  9" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Host Control  9" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -493,15 +1065,9 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Host Control  10" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Host Control  10" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -529,15 +1095,9 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Host Control  11" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Host Control  11" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -565,15 +1125,9 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Host Control  12" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Host Control  12" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -601,15 +1155,9 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Host Control  13" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Host Control  13" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -637,15 +1185,9 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Host Control  14" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Host Control  14" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -673,15 +1215,9 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Host Control  15" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Host Control  15" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -709,15 +1245,9 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="Host Control  16" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Host Control  16" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -745,15 +1275,9 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Host Control  3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Host Control  3"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -802,15 +1326,9 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="Host Control  4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Host Control  4"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -859,15 +1377,9 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="Host Control  5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Host Control  5"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -916,15 +1428,9 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="Host Control  6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Host Control  6"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -973,15 +1479,9 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="Host Control  7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Host Control  7"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -1030,15 +1530,9 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="Host Control  8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Host Control  8"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -1087,15 +1581,9 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="Host Control  9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Host Control  9"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -1144,15 +1632,9 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="Host Control  10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Host Control  10"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -1201,15 +1683,9 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="Host Control  11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Host Control  11"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -1258,15 +1734,9 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="Host Control  12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Host Control  12"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -1315,15 +1785,9 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="Host Control  13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Host Control  13"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -1372,15 +1836,9 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="Host Control  14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Host Control  14"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -1429,15 +1887,9 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="Host Control  15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Host Control  15"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -1486,15 +1938,9 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="Host Control  16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="Host Control  16"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -1785,29 +2231,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="35.44140625" customWidth="1"/>
+    <col min="1" max="1" width="35.4444444444444" customWidth="1"/>
     <col min="2" max="2" width="6" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
     <col min="4" max="4" width="6" customWidth="1"/>
     <col min="6" max="6" width="6" customWidth="1"/>
-    <col min="9" max="9" width="19.5546875" customWidth="1"/>
+    <col min="10" max="10" width="19.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1830,15 +2276,18 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" ht="15.15" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1853,12 +2302,15 @@
         <v>100</v>
       </c>
       <c r="I2">
+        <v>100</v>
+      </c>
+      <c r="J2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" ht="15.15" spans="1:10">
       <c r="A3" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1">
         <v>100</v>
@@ -1871,12 +2323,15 @@
         <v>100</v>
       </c>
       <c r="I3">
+        <v>100</v>
+      </c>
+      <c r="J3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" ht="15.15" spans="1:10">
       <c r="A4" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1888,12 +2343,15 @@
         <v>100</v>
       </c>
       <c r="I4">
+        <v>100</v>
+      </c>
+      <c r="J4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" ht="15.15" spans="1:10">
       <c r="A5" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1">
         <v>100</v>
@@ -1908,13 +2366,13 @@
       <c r="G5">
         <v>100</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" ht="15.15" spans="1:10">
       <c r="A6" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1">
         <v>100</v>
@@ -1936,12 +2394,15 @@
         <v>100</v>
       </c>
       <c r="I6">
+        <v>100</v>
+      </c>
+      <c r="J6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" ht="15.15" spans="1:10">
       <c r="A7" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1">
         <v>100</v>
@@ -1950,37 +2411,37 @@
         <v>100</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="I7">
+      <c r="J7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" ht="15.15" spans="1:10">
       <c r="A8" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="I8">
+      <c r="J8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" ht="15.15" spans="1:10">
       <c r="A9" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1">
         <v>60</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="I9">
+      <c r="J9">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/Classes_2025.xlsx
+++ b/data/Classes_2025.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Name</t>
   </si>
@@ -56,7 +56,10 @@
     <t>ДЗ_8</t>
   </si>
   <si>
-    <t>Варианты для ДЗ_9</t>
+    <t>ДЗ_9</t>
+  </si>
+  <si>
+    <t>Итоговая оценка к экзамену</t>
   </si>
   <si>
     <t>Василькова Софья Владимировна</t>
@@ -87,12 +90,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="176" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="180" formatCode="dd\.mm\.yyyy"/>
+    <numFmt numFmtId="181" formatCode="0_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -735,7 +739,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -749,6 +753,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -832,7 +837,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="182880"/>
+          <a:off x="2430780" y="192405"/>
           <a:ext cx="609600" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -862,7 +867,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="375285"/>
+          <a:off x="2430780" y="384810"/>
           <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -892,7 +897,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="375285"/>
+          <a:off x="2430780" y="384810"/>
           <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -922,7 +927,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="567690"/>
+          <a:off x="2430780" y="577215"/>
           <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -952,7 +957,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="567690"/>
+          <a:off x="2430780" y="577215"/>
           <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -982,7 +987,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="760095"/>
+          <a:off x="2430780" y="769620"/>
           <a:ext cx="609600" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1012,7 +1017,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="760095"/>
+          <a:off x="2430780" y="769620"/>
           <a:ext cx="609600" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1042,7 +1047,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="760095"/>
+          <a:off x="2430780" y="769620"/>
           <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1072,7 +1077,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="760095"/>
+          <a:off x="2430780" y="769620"/>
           <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1102,7 +1107,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="952500"/>
+          <a:off x="2430780" y="962025"/>
           <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1132,7 +1137,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="952500"/>
+          <a:off x="2430780" y="962025"/>
           <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1162,7 +1167,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="1144905"/>
+          <a:off x="2430780" y="1154430"/>
           <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1192,7 +1197,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="1144905"/>
+          <a:off x="2430780" y="1154430"/>
           <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1222,7 +1227,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="1337310"/>
+          <a:off x="2430780" y="1346835"/>
           <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1252,7 +1257,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="1337310"/>
+          <a:off x="2430780" y="1346835"/>
           <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1284,7 +1289,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="375285"/>
+          <a:off x="2430780" y="384810"/>
           <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1335,7 +1340,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="375285"/>
+          <a:off x="2430780" y="384810"/>
           <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1386,7 +1391,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="567690"/>
+          <a:off x="2430780" y="577215"/>
           <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1437,7 +1442,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="567690"/>
+          <a:off x="2430780" y="577215"/>
           <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1488,7 +1493,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="760095"/>
+          <a:off x="2430780" y="769620"/>
           <a:ext cx="609600" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1539,7 +1544,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="760095"/>
+          <a:off x="2430780" y="769620"/>
           <a:ext cx="609600" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1590,7 +1595,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="760095"/>
+          <a:off x="2430780" y="769620"/>
           <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1641,7 +1646,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="760095"/>
+          <a:off x="2430780" y="769620"/>
           <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1692,7 +1697,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="952500"/>
+          <a:off x="2430780" y="962025"/>
           <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1743,7 +1748,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="952500"/>
+          <a:off x="2430780" y="962025"/>
           <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1794,7 +1799,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="1144905"/>
+          <a:off x="2430780" y="1154430"/>
           <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1845,7 +1850,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="1144905"/>
+          <a:off x="2430780" y="1154430"/>
           <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1896,7 +1901,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="1337310"/>
+          <a:off x="2430780" y="1346835"/>
           <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1947,7 +1952,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="1337310"/>
+          <a:off x="2430780" y="1346835"/>
           <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2237,10 +2242,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2251,9 +2256,10 @@
     <col min="4" max="4" width="6" customWidth="1"/>
     <col min="6" max="6" width="6" customWidth="1"/>
     <col min="10" max="10" width="19.5555555555556" customWidth="1"/>
+    <col min="11" max="11" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" ht="15.15" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2284,10 +2290,13 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" ht="15.15" spans="1:10">
+    <row r="2" ht="15.15" spans="1:11">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2304,13 +2313,15 @@
       <c r="I2">
         <v>100</v>
       </c>
-      <c r="J2">
-        <v>1</v>
+      <c r="J2"/>
+      <c r="K2" s="5">
+        <f>SUM(B2:J2)/900*100</f>
+        <v>44.4444444444444</v>
       </c>
     </row>
-    <row r="3" ht="15.15" spans="1:10">
+    <row r="3" ht="15.15" spans="1:11">
       <c r="A3" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1">
         <v>100</v>
@@ -2325,13 +2336,15 @@
       <c r="I3">
         <v>100</v>
       </c>
-      <c r="J3">
-        <v>2</v>
+      <c r="J3"/>
+      <c r="K3" s="5">
+        <f t="shared" ref="K3:K9" si="0">SUM(B3:J3)/900*100</f>
+        <v>44.4444444444444</v>
       </c>
     </row>
-    <row r="4" ht="15.15" spans="1:10">
+    <row r="4" ht="15.15" spans="1:11">
       <c r="A4" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2346,12 +2359,16 @@
         <v>100</v>
       </c>
       <c r="J4">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="K4" s="5">
+        <f t="shared" si="0"/>
+        <v>44.4444444444444</v>
       </c>
     </row>
-    <row r="5" ht="15.15" spans="1:10">
+    <row r="5" ht="15.15" spans="1:11">
       <c r="A5" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1">
         <v>100</v>
@@ -2366,13 +2383,14 @@
       <c r="G5">
         <v>100</v>
       </c>
-      <c r="J5">
-        <v>1</v>
+      <c r="K5" s="5">
+        <f t="shared" si="0"/>
+        <v>38.8888888888889</v>
       </c>
     </row>
-    <row r="6" ht="15.15" spans="1:10">
+    <row r="6" ht="15.15" spans="1:11">
       <c r="A6" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1">
         <v>100</v>
@@ -2397,12 +2415,16 @@
         <v>100</v>
       </c>
       <c r="J6">
-        <v>2</v>
+        <v>100</v>
+      </c>
+      <c r="K6" s="5">
+        <f t="shared" si="0"/>
+        <v>83.3333333333333</v>
       </c>
     </row>
-    <row r="7" ht="15.15" spans="1:10">
+    <row r="7" ht="15.15" spans="1:11">
       <c r="A7" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1">
         <v>100</v>
@@ -2411,32 +2433,35 @@
         <v>100</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="J7">
-        <v>3</v>
+      <c r="K7" s="5">
+        <f t="shared" si="0"/>
+        <v>22.2222222222222</v>
       </c>
     </row>
-    <row r="8" ht="15.15" spans="1:10">
+    <row r="8" ht="15.15" spans="1:11">
       <c r="A8" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="J8">
-        <v>1</v>
+      <c r="K8" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="9" ht="15.15" spans="1:10">
+    <row r="9" ht="15.15" spans="1:11">
       <c r="A9" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1">
         <v>60</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="J9">
-        <v>2</v>
+      <c r="K9" s="5">
+        <f t="shared" si="0"/>
+        <v>6.66666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/data/Classes_2025.xlsx
+++ b/data/Classes_2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180"/>
+    <workbookView windowWidth="22188" windowHeight="9120"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>Name</t>
   </si>
@@ -59,16 +59,34 @@
     <t>ДЗ_9</t>
   </si>
   <si>
-    <t>Итоговая оценка к экзамену</t>
+    <t>Итоговая оценка к экзамену за ДЗ</t>
+  </si>
+  <si>
+    <t>Проект</t>
+  </si>
+  <si>
+    <t>Тест</t>
+  </si>
+  <si>
+    <t>Итог проценты от максимума</t>
+  </si>
+  <si>
+    <t>Итог оценка</t>
   </si>
   <si>
     <t>Василькова Софья Владимировна</t>
+  </si>
+  <si>
+    <t>Хорошо</t>
   </si>
   <si>
     <t>Демиденко Елизавета Романовна</t>
   </si>
   <si>
     <t>Колесникова Анастасия Алексеевна</t>
+  </si>
+  <si>
+    <t>Отлично</t>
   </si>
   <si>
     <t>Малина Лада Николаевна</t>
@@ -80,10 +98,16 @@
     <t>Низовцева Милана Владимировна</t>
   </si>
   <si>
+    <t>Неудовлетворительно</t>
+  </si>
+  <si>
     <t>Паулюкайтис Максим Гинтарасович</t>
   </si>
   <si>
     <t>Толкачев Данила Владимирович</t>
+  </si>
+  <si>
+    <t>Удовлетворительно</t>
   </si>
 </sst>
 </file>
@@ -828,7 +852,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -838,7 +862,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2430780" y="192405"/>
-          <a:ext cx="609600" cy="201930"/>
+          <a:ext cx="609600" cy="211455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -918,7 +942,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -928,7 +952,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2430780" y="577215"/>
-          <a:ext cx="609600" cy="192405"/>
+          <a:ext cx="609600" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -948,7 +972,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -958,7 +982,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2430780" y="577215"/>
-          <a:ext cx="609600" cy="192405"/>
+          <a:ext cx="609600" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -978,7 +1002,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>17145</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -988,7 +1012,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2430780" y="769620"/>
-          <a:ext cx="609600" cy="200025"/>
+          <a:ext cx="609600" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1008,7 +1032,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>17145</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1018,7 +1042,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2430780" y="769620"/>
-          <a:ext cx="609600" cy="200025"/>
+          <a:ext cx="609600" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1038,7 +1062,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1048,7 +1072,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2430780" y="769620"/>
-          <a:ext cx="609600" cy="192405"/>
+          <a:ext cx="609600" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1068,7 +1092,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1078,7 +1102,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2430780" y="769620"/>
-          <a:ext cx="609600" cy="192405"/>
+          <a:ext cx="609600" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1098,7 +1122,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1108,7 +1132,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2430780" y="962025"/>
-          <a:ext cx="609600" cy="192405"/>
+          <a:ext cx="609600" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1128,7 +1152,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1138,7 +1162,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2430780" y="962025"/>
-          <a:ext cx="609600" cy="192405"/>
+          <a:ext cx="609600" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1218,7 +1242,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1228,7 +1252,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2430780" y="1346835"/>
-          <a:ext cx="609600" cy="192405"/>
+          <a:ext cx="609600" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1248,7 +1272,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1258,7 +1282,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2430780" y="1346835"/>
-          <a:ext cx="609600" cy="192405"/>
+          <a:ext cx="609600" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1380,7 +1404,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1392,7 +1416,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2430780" y="577215"/>
-          <a:ext cx="609600" cy="192405"/>
+          <a:ext cx="609600" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1431,7 +1455,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1443,7 +1467,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2430780" y="577215"/>
-          <a:ext cx="609600" cy="192405"/>
+          <a:ext cx="609600" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1482,7 +1506,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>17145</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1494,7 +1518,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2430780" y="769620"/>
-          <a:ext cx="609600" cy="200025"/>
+          <a:ext cx="609600" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1533,7 +1557,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>17145</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1545,7 +1569,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2430780" y="769620"/>
-          <a:ext cx="609600" cy="200025"/>
+          <a:ext cx="609600" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1584,7 +1608,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1596,7 +1620,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2430780" y="769620"/>
-          <a:ext cx="609600" cy="192405"/>
+          <a:ext cx="609600" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1635,7 +1659,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1647,7 +1671,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2430780" y="769620"/>
-          <a:ext cx="609600" cy="192405"/>
+          <a:ext cx="609600" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1686,7 +1710,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1698,7 +1722,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2430780" y="962025"/>
-          <a:ext cx="609600" cy="192405"/>
+          <a:ext cx="609600" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1737,7 +1761,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1749,7 +1773,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2430780" y="962025"/>
-          <a:ext cx="609600" cy="192405"/>
+          <a:ext cx="609600" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1890,7 +1914,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1902,7 +1926,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2430780" y="1346835"/>
-          <a:ext cx="609600" cy="192405"/>
+          <a:ext cx="609600" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1941,7 +1965,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1953,7 +1977,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2430780" y="1346835"/>
-          <a:ext cx="609600" cy="192405"/>
+          <a:ext cx="609600" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2242,10 +2266,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2257,9 +2281,11 @@
     <col min="6" max="6" width="6" customWidth="1"/>
     <col min="10" max="10" width="19.5555555555556" customWidth="1"/>
     <col min="11" max="11" width="28" customWidth="1"/>
+    <col min="14" max="14" width="29.1111111111111" customWidth="1"/>
+    <col min="15" max="15" width="22.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.15" spans="1:11">
+    <row r="1" ht="15.15" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2293,10 +2319,22 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" ht="15.15" spans="1:11">
+    <row r="2" ht="15.15" spans="1:15">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2313,15 +2351,28 @@
       <c r="I2">
         <v>100</v>
       </c>
-      <c r="J2"/>
       <c r="K2" s="5">
         <f>SUM(B2:J2)/900*100</f>
         <v>44.4444444444444</v>
       </c>
+      <c r="L2">
+        <v>100</v>
+      </c>
+      <c r="M2">
+        <f>10/16*100</f>
+        <v>62.5</v>
+      </c>
+      <c r="N2" s="5">
+        <f>(K2+L2+M2)/300*100</f>
+        <v>68.9814814814815</v>
+      </c>
+      <c r="O2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" ht="15.15" spans="1:11">
+    <row r="3" ht="15.15" spans="1:15">
       <c r="A3" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1">
         <v>100</v>
@@ -2336,15 +2387,28 @@
       <c r="I3">
         <v>100</v>
       </c>
-      <c r="J3"/>
       <c r="K3" s="5">
         <f t="shared" ref="K3:K9" si="0">SUM(B3:J3)/900*100</f>
         <v>44.4444444444444</v>
       </c>
+      <c r="L3">
+        <v>100</v>
+      </c>
+      <c r="M3">
+        <f>8/16*100</f>
+        <v>50</v>
+      </c>
+      <c r="N3" s="5">
+        <f t="shared" ref="N3:N9" si="1">(K3+L3+M3)/300*100</f>
+        <v>64.8148148148148</v>
+      </c>
+      <c r="O3" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="4" ht="15.15" spans="1:11">
+    <row r="4" ht="15.15" spans="1:15">
       <c r="A4" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2365,10 +2429,24 @@
         <f t="shared" si="0"/>
         <v>44.4444444444444</v>
       </c>
+      <c r="L4">
+        <v>100</v>
+      </c>
+      <c r="M4">
+        <f>11/16*100</f>
+        <v>68.75</v>
+      </c>
+      <c r="N4" s="5">
+        <f t="shared" si="1"/>
+        <v>71.0648148148148</v>
+      </c>
+      <c r="O4" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="5" ht="15.15" spans="1:11">
+    <row r="5" ht="15.15" spans="1:15">
       <c r="A5" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1">
         <v>100</v>
@@ -2387,10 +2465,24 @@
         <f t="shared" si="0"/>
         <v>38.8888888888889</v>
       </c>
+      <c r="L5">
+        <v>100</v>
+      </c>
+      <c r="M5">
+        <f>10/16*100</f>
+        <v>62.5</v>
+      </c>
+      <c r="N5" s="5">
+        <f t="shared" si="1"/>
+        <v>67.1296296296296</v>
+      </c>
+      <c r="O5" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="6" ht="15.15" spans="1:11">
+    <row r="6" ht="15.15" spans="1:15">
       <c r="A6" s="3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1">
         <v>100</v>
@@ -2421,10 +2513,24 @@
         <f t="shared" si="0"/>
         <v>83.3333333333333</v>
       </c>
+      <c r="L6">
+        <v>100</v>
+      </c>
+      <c r="M6">
+        <f>10/16*100</f>
+        <v>62.5</v>
+      </c>
+      <c r="N6" s="5">
+        <f t="shared" si="1"/>
+        <v>81.9444444444444</v>
+      </c>
+      <c r="O6" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="7" ht="15.15" spans="1:11">
+    <row r="7" ht="15.15" spans="1:15">
       <c r="A7" s="3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1">
         <v>100</v>
@@ -2437,10 +2543,17 @@
         <f t="shared" si="0"/>
         <v>22.2222222222222</v>
       </c>
+      <c r="N7" s="5">
+        <f t="shared" si="1"/>
+        <v>7.4074074074074</v>
+      </c>
+      <c r="O7" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="8" ht="15.15" spans="1:11">
+    <row r="8" spans="1:14">
       <c r="A8" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -2449,10 +2562,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="N8" s="5"/>
     </row>
-    <row r="9" ht="15.15" spans="1:11">
+    <row r="9" ht="15.15" spans="1:15">
       <c r="A9" s="4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B9" s="1">
         <v>60</v>
@@ -2462,6 +2576,20 @@
       <c r="K9" s="5">
         <f t="shared" si="0"/>
         <v>6.66666666666667</v>
+      </c>
+      <c r="L9">
+        <v>30</v>
+      </c>
+      <c r="M9">
+        <f>11/16*100</f>
+        <v>68.75</v>
+      </c>
+      <c r="N9" s="5">
+        <f t="shared" si="1"/>
+        <v>35.1388888888889</v>
+      </c>
+      <c r="O9" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/data/Classes_2025.xlsx
+++ b/data/Classes_2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9120"/>
+    <workbookView windowWidth="22188" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>Name</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>Итог оценка</t>
+  </si>
+  <si>
+    <t>Итог 10 баллов</t>
   </si>
   <si>
     <t>Василькова Софья Владимировна</t>
@@ -882,7 +885,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -912,7 +915,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -942,7 +945,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -951,7 +954,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="577215"/>
+          <a:off x="2430780" y="567690"/>
           <a:ext cx="609600" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -972,7 +975,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -981,7 +984,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="577215"/>
+          <a:off x="2430780" y="567690"/>
           <a:ext cx="609600" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1002,7 +1005,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>17145</xdr:rowOff>
+      <xdr:rowOff>26670</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1011,7 +1014,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="769620"/>
+          <a:off x="2430780" y="750570"/>
           <a:ext cx="609600" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1032,7 +1035,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>17145</xdr:rowOff>
+      <xdr:rowOff>26670</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1041,7 +1044,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="769620"/>
+          <a:off x="2430780" y="750570"/>
           <a:ext cx="609600" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1062,7 +1065,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1071,7 +1074,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="769620"/>
+          <a:off x="2430780" y="750570"/>
           <a:ext cx="609600" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1092,7 +1095,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1101,7 +1104,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="769620"/>
+          <a:off x="2430780" y="750570"/>
           <a:ext cx="609600" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1122,7 +1125,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1131,7 +1134,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="962025"/>
+          <a:off x="2430780" y="933450"/>
           <a:ext cx="609600" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1152,7 +1155,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1161,7 +1164,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="962025"/>
+          <a:off x="2430780" y="933450"/>
           <a:ext cx="609600" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1182,7 +1185,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1191,7 +1194,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="1154430"/>
+          <a:off x="2430780" y="1116330"/>
           <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1212,7 +1215,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1221,7 +1224,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="1154430"/>
+          <a:off x="2430780" y="1116330"/>
           <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1242,7 +1245,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1251,8 +1254,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="1346835"/>
-          <a:ext cx="609600" cy="201930"/>
+          <a:off x="2430780" y="1299210"/>
+          <a:ext cx="609600" cy="211455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1272,7 +1275,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1281,8 +1284,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="1346835"/>
-          <a:ext cx="609600" cy="201930"/>
+          <a:off x="2430780" y="1299210"/>
+          <a:ext cx="609600" cy="211455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1302,7 +1305,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1353,7 +1356,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1404,7 +1407,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1415,7 +1418,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="577215"/>
+          <a:off x="2430780" y="567690"/>
           <a:ext cx="609600" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1455,7 +1458,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1466,7 +1469,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="577215"/>
+          <a:off x="2430780" y="567690"/>
           <a:ext cx="609600" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1506,7 +1509,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>17145</xdr:rowOff>
+      <xdr:rowOff>26670</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1517,7 +1520,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="769620"/>
+          <a:off x="2430780" y="750570"/>
           <a:ext cx="609600" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1557,7 +1560,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>17145</xdr:rowOff>
+      <xdr:rowOff>26670</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1568,7 +1571,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="769620"/>
+          <a:off x="2430780" y="750570"/>
           <a:ext cx="609600" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1608,7 +1611,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1619,7 +1622,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="769620"/>
+          <a:off x="2430780" y="750570"/>
           <a:ext cx="609600" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1659,7 +1662,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1670,7 +1673,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="769620"/>
+          <a:off x="2430780" y="750570"/>
           <a:ext cx="609600" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1710,7 +1713,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1721,7 +1724,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="962025"/>
+          <a:off x="2430780" y="933450"/>
           <a:ext cx="609600" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1761,7 +1764,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1772,7 +1775,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="962025"/>
+          <a:off x="2430780" y="933450"/>
           <a:ext cx="609600" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1812,7 +1815,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1823,7 +1826,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="1154430"/>
+          <a:off x="2430780" y="1116330"/>
           <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1863,7 +1866,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1874,7 +1877,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="1154430"/>
+          <a:off x="2430780" y="1116330"/>
           <a:ext cx="609600" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1914,7 +1917,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1925,8 +1928,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="1346835"/>
-          <a:ext cx="609600" cy="201930"/>
+          <a:off x="2430780" y="1299210"/>
+          <a:ext cx="609600" cy="211455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1965,7 +1968,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1976,8 +1979,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="1346835"/>
-          <a:ext cx="609600" cy="201930"/>
+          <a:off x="2430780" y="1299210"/>
+          <a:ext cx="609600" cy="211455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2266,10 +2269,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2285,7 +2288,7 @@
     <col min="15" max="15" width="22.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.15" spans="1:15">
+    <row r="1" ht="15.15" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2331,10 +2334,13 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" ht="15.15" spans="1:15">
+    <row r="2" ht="15.15" spans="1:16">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2367,12 +2373,15 @@
         <v>68.9814814814815</v>
       </c>
       <c r="O2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="P2">
+        <v>8</v>
       </c>
     </row>
-    <row r="3" ht="15.15" spans="1:15">
+    <row r="3" spans="1:16">
       <c r="A3" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1">
         <v>100</v>
@@ -2403,12 +2412,15 @@
         <v>64.8148148148148</v>
       </c>
       <c r="O3" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="P3">
+        <v>7</v>
       </c>
     </row>
-    <row r="4" ht="15.15" spans="1:15">
+    <row r="4" spans="1:16">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2441,12 +2453,15 @@
         <v>71.0648148148148</v>
       </c>
       <c r="O4" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="P4">
+        <v>9</v>
       </c>
     </row>
-    <row r="5" ht="15.15" spans="1:15">
+    <row r="5" spans="1:16">
       <c r="A5" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1">
         <v>100</v>
@@ -2477,12 +2492,15 @@
         <v>67.1296296296296</v>
       </c>
       <c r="O5" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="P5">
+        <v>7</v>
       </c>
     </row>
-    <row r="6" ht="15.15" spans="1:15">
+    <row r="6" spans="1:16">
       <c r="A6" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" s="1">
         <v>100</v>
@@ -2525,12 +2543,15 @@
         <v>81.9444444444444</v>
       </c>
       <c r="O6" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="P6">
+        <v>9</v>
       </c>
     </row>
-    <row r="7" ht="15.15" spans="1:15">
+    <row r="7" spans="1:16">
       <c r="A7" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" s="1">
         <v>100</v>
@@ -2548,12 +2569,15 @@
         <v>7.4074074074074</v>
       </c>
       <c r="O7" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="P7">
+        <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:16">
       <c r="A8" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -2563,10 +2587,13 @@
         <v>0</v>
       </c>
       <c r="N8" s="5"/>
+      <c r="P8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" ht="15.15" spans="1:15">
+    <row r="9" spans="1:16">
       <c r="A9" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B9" s="1">
         <v>60</v>
@@ -2589,7 +2616,10 @@
         <v>35.1388888888889</v>
       </c>
       <c r="O9" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="P9">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/data/Classes_2025.xlsx
+++ b/data/Classes_2025.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180"/>
+    <workbookView windowWidth="21996" windowHeight="8507"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -27,90 +27,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>ДЗ_1</t>
+    <t>HW_1</t>
   </si>
   <si>
-    <t>Д_2</t>
+    <t>Авакян Кристина Зауровна</t>
   </si>
   <si>
-    <t>ДЗ_3</t>
+    <t>Вариант 1</t>
   </si>
   <si>
-    <t>ДЗ_4</t>
+    <t>Васина Анна Дмитриевна</t>
   </si>
   <si>
-    <t>ДЗ_5</t>
+    <t>Вариант 2</t>
   </si>
   <si>
-    <t>ДЗ_6</t>
+    <t>Дубинина Анна Сергеевна</t>
   </si>
   <si>
-    <t>ДЗ_7</t>
+    <t>Егорова Татьяна Андреевна</t>
   </si>
   <si>
-    <t>ДЗ_8</t>
+    <t>Емельянова Екатерина Викторовна</t>
   </si>
   <si>
-    <t>ДЗ_9</t>
+    <t>Ковалева Александра Борисовна</t>
   </si>
   <si>
-    <t>Итоговая оценка к экзамену за ДЗ</t>
+    <t>Кузнецов Никита Сергеевич</t>
   </si>
   <si>
-    <t>Проект</t>
+    <t>Куликова Светлана Сергеевна</t>
   </si>
   <si>
-    <t>Тест</t>
+    <t>Панкратова Ксения Артемовна</t>
   </si>
   <si>
-    <t>Итог проценты от максимума</t>
+    <t>Сарнэт Виктория Павловна</t>
   </si>
   <si>
-    <t>Итог оценка</t>
+    <t>Синицкая Юлия Сергеевна (Захарова)</t>
   </si>
   <si>
-    <t>Итог 10 баллов</t>
+    <t>Харламова Мария Андреевна</t>
   </si>
   <si>
-    <t>Василькова Софья Владимировна</t>
+    <t>Цуранова Елизавета Алексеевна</t>
   </si>
   <si>
-    <t>Хорошо</t>
-  </si>
-  <si>
-    <t>Демиденко Елизавета Романовна</t>
-  </si>
-  <si>
-    <t>Колесникова Анастасия Алексеевна</t>
-  </si>
-  <si>
-    <t>Отлично</t>
-  </si>
-  <si>
-    <t>Малина Лада Николаевна</t>
-  </si>
-  <si>
-    <t>Мирошниченко Сандра Алексеевна</t>
-  </si>
-  <si>
-    <t>Низовцева Милана Владимировна</t>
-  </si>
-  <si>
-    <t>Неудовлетворительно</t>
-  </si>
-  <si>
-    <t>Паулюкайтис Максим Гинтарасович</t>
-  </si>
-  <si>
-    <t>Толкачев Данила Владимирович</t>
-  </si>
-  <si>
-    <t>Удовлетворительно</t>
+    <t>Чернышова Александра Алексеевна</t>
   </si>
 </sst>
 </file>
@@ -137,7 +107,7 @@
       <sz val="10.5"/>
       <color rgb="FF003E49"/>
       <name val="Helvetica"/>
-      <charset val="134"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="11"/>
@@ -306,7 +276,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.799920651875362"/>
+        <fgColor rgb="FFBBBBBB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -766,7 +736,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -775,12 +745,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -842,18 +813,122 @@
 </styleSheet>
 </file>
 
+<file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{00000000-0000-0000-0000-000000000000}" r:id="rId1" ax:persistence="persistStreamInit"/>
+</file>
+
+<file path=xl/activeX/activeX10.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{00000000-0000-0000-0000-000000000000}" r:id="rId1" ax:persistence="persistStreamInit"/>
+</file>
+
+<file path=xl/activeX/activeX11.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{00000000-0000-0000-0000-000000000000}" r:id="rId1" ax:persistence="persistStreamInit"/>
+</file>
+
+<file path=xl/activeX/activeX12.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{00000000-0000-0000-0000-000000000000}" r:id="rId1" ax:persistence="persistStreamInit"/>
+</file>
+
+<file path=xl/activeX/activeX13.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{00000000-0000-0000-0000-000000000000}" r:id="rId1" ax:persistence="persistStreamInit"/>
+</file>
+
+<file path=xl/activeX/activeX14.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{00000000-0000-0000-0000-000000000000}" r:id="rId1" ax:persistence="persistStreamInit"/>
+</file>
+
+<file path=xl/activeX/activeX15.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{00000000-0000-0000-0000-000000000000}" r:id="rId1" ax:persistence="persistStreamInit"/>
+</file>
+
+<file path=xl/activeX/activeX16.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{00000000-0000-0000-0000-000000000000}" r:id="rId1" ax:persistence="persistStreamInit"/>
+</file>
+
+<file path=xl/activeX/activeX17.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{00000000-0000-0000-0000-000000000000}" r:id="rId1" ax:persistence="persistStreamInit"/>
+</file>
+
+<file path=xl/activeX/activeX18.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{00000000-0000-0000-0000-000000000000}" r:id="rId1" ax:persistence="persistStreamInit"/>
+</file>
+
+<file path=xl/activeX/activeX19.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{00000000-0000-0000-0000-000000000000}" r:id="rId1" ax:persistence="persistStreamInit"/>
+</file>
+
+<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{00000000-0000-0000-0000-000000000000}" r:id="rId1" ax:persistence="persistStreamInit"/>
+</file>
+
+<file path=xl/activeX/activeX20.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{00000000-0000-0000-0000-000000000000}" r:id="rId1" ax:persistence="persistStreamInit"/>
+</file>
+
+<file path=xl/activeX/activeX21.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{00000000-0000-0000-0000-000000000000}" r:id="rId1" ax:persistence="persistStreamInit"/>
+</file>
+
+<file path=xl/activeX/activeX22.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{00000000-0000-0000-0000-000000000000}" r:id="rId1" ax:persistence="persistStreamInit"/>
+</file>
+
+<file path=xl/activeX/activeX23.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{00000000-0000-0000-0000-000000000000}" r:id="rId1" ax:persistence="persistStreamInit"/>
+</file>
+
+<file path=xl/activeX/activeX24.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{00000000-0000-0000-0000-000000000000}" r:id="rId1" ax:persistence="persistStreamInit"/>
+</file>
+
+<file path=xl/activeX/activeX25.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{00000000-0000-0000-0000-000000000000}" r:id="rId1" ax:persistence="persistStreamInit"/>
+</file>
+
+<file path=xl/activeX/activeX26.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{00000000-0000-0000-0000-000000000000}" r:id="rId1" ax:persistence="persistStreamInit"/>
+</file>
+
+<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{00000000-0000-0000-0000-000000000000}" r:id="rId1" ax:persistence="persistStreamInit"/>
+</file>
+
+<file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{00000000-0000-0000-0000-000000000000}" r:id="rId1" ax:persistence="persistStreamInit"/>
+</file>
+
+<file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{00000000-0000-0000-0000-000000000000}" r:id="rId1" ax:persistence="persistStreamInit"/>
+</file>
+
+<file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{00000000-0000-0000-0000-000000000000}" r:id="rId1" ax:persistence="persistStreamInit"/>
+</file>
+
+<file path=xl/activeX/activeX7.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{00000000-0000-0000-0000-000000000000}" r:id="rId1" ax:persistence="persistStreamInit"/>
+</file>
+
+<file path=xl/activeX/activeX8.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{00000000-0000-0000-0000-000000000000}" r:id="rId1" ax:persistence="persistStreamInit"/>
+</file>
+
+<file path=xl/activeX/activeX9.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{00000000-0000-0000-0000-000000000000}" r:id="rId1" ax:persistence="persistStreamInit"/>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
@@ -864,7 +939,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="192405"/>
+          <a:off x="0" y="192405"/>
           <a:ext cx="609600" cy="211455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -876,14 +951,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -894,67 +969,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="384810"/>
-          <a:ext cx="609600" cy="192405"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Host Control  4" hidden="1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2430780" y="384810"/>
-          <a:ext cx="609600" cy="192405"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Host Control  5" hidden="1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2430780" y="567690"/>
+          <a:off x="0" y="384810"/>
           <a:ext cx="609600" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -966,25 +981,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Host Control  6" hidden="1"/>
+        <xdr:cNvPr id="4" name="Host Control  4" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="567690"/>
+          <a:off x="0" y="384810"/>
           <a:ext cx="609600" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -996,26 +1011,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>26670</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Host Control  7" hidden="1"/>
+        <xdr:cNvPr id="5" name="Host Control  5" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="750570"/>
-          <a:ext cx="609600" cy="209550"/>
+          <a:off x="0" y="384810"/>
+          <a:ext cx="609600" cy="211455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1026,26 +1041,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>26670</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Host Control  8" hidden="1"/>
+        <xdr:cNvPr id="6" name="Host Control  6" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="750570"/>
-          <a:ext cx="609600" cy="209550"/>
+          <a:off x="0" y="384810"/>
+          <a:ext cx="609600" cy="211455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1056,15 +1071,75 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Host Control  7" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="577215"/>
+          <a:ext cx="609600" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Host Control  8" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="577215"/>
+          <a:ext cx="609600" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -1074,7 +1149,127 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="750570"/>
+          <a:off x="0" y="577215"/>
+          <a:ext cx="609600" cy="211455"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Host Control  10" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="577215"/>
+          <a:ext cx="609600" cy="211455"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Host Control  11" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="577215"/>
+          <a:ext cx="609600" cy="211455"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Host Control  12" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="577215"/>
+          <a:ext cx="609600" cy="211455"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Host Control  13" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="769620"/>
           <a:ext cx="609600" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1086,25 +1281,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Host Control  10" hidden="1"/>
+        <xdr:cNvPr id="14" name="Host Control  14" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="750570"/>
+          <a:off x="0" y="769620"/>
           <a:ext cx="609600" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1116,26 +1311,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Host Control  11" hidden="1"/>
+        <xdr:cNvPr id="15" name="Host Control  15" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="933450"/>
-          <a:ext cx="609600" cy="201930"/>
+          <a:off x="0" y="769620"/>
+          <a:ext cx="609600" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1146,26 +1341,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Host Control  12" hidden="1"/>
+        <xdr:cNvPr id="16" name="Host Control  16" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="933450"/>
-          <a:ext cx="609600" cy="201930"/>
+          <a:off x="0" y="769620"/>
+          <a:ext cx="609600" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1176,134 +1371,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Host Control  13" hidden="1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2430780" y="1116330"/>
-          <a:ext cx="609600" cy="192405"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Host Control  14" hidden="1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2430780" y="1116330"/>
-          <a:ext cx="609600" cy="192405"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Host Control  15" hidden="1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2430780" y="1299210"/>
-          <a:ext cx="609600" cy="211455"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="Host Control  16" hidden="1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2430780" y="1299210"/>
-          <a:ext cx="609600" cy="211455"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -1316,109 +1391,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="384810"/>
-          <a:ext cx="609600" cy="192405"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:noFill/>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="Host Control  4"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2430780" y="384810"/>
-          <a:ext cx="609600" cy="192405"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:noFill/>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="Host Control  5"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2430780" y="567690"/>
+          <a:off x="0" y="384810"/>
           <a:ext cx="609600" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1449,27 +1422,27 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="Host Control  6"/>
+        <xdr:cNvPr id="18" name="Host Control  4"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="567690"/>
+          <a:off x="0" y="384810"/>
           <a:ext cx="609600" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1500,28 +1473,28 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>26670</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="Host Control  7"/>
+        <xdr:cNvPr id="19" name="Host Control  5"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="750570"/>
-          <a:ext cx="609600" cy="209550"/>
+          <a:off x="0" y="384810"/>
+          <a:ext cx="609600" cy="211455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1551,28 +1524,28 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>26670</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="Host Control  8"/>
+        <xdr:cNvPr id="20" name="Host Control  6"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="750570"/>
-          <a:ext cx="609600" cy="209550"/>
+          <a:off x="0" y="384810"/>
+          <a:ext cx="609600" cy="211455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1602,15 +1575,117 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Host Control  7"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="577215"/>
+          <a:ext cx="609600" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:noFill/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Host Control  8"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="577215"/>
+          <a:ext cx="609600" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:noFill/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -1622,7 +1697,211 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="750570"/>
+          <a:off x="0" y="577215"/>
+          <a:ext cx="609600" cy="211455"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:noFill/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Host Control  10"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="577215"/>
+          <a:ext cx="609600" cy="211455"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:noFill/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Host Control  11"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="577215"/>
+          <a:ext cx="609600" cy="211455"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:noFill/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Host Control  12"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="577215"/>
+          <a:ext cx="609600" cy="211455"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:noFill/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Host Control  13"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="769620"/>
           <a:ext cx="609600" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1653,27 +1932,27 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="Host Control  10"/>
+        <xdr:cNvPr id="28" name="Host Control  14"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="750570"/>
+          <a:off x="0" y="769620"/>
           <a:ext cx="609600" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1704,28 +1983,28 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="Host Control  11"/>
+        <xdr:cNvPr id="29" name="Host Control  15"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="933450"/>
-          <a:ext cx="609600" cy="201930"/>
+          <a:off x="0" y="769620"/>
+          <a:ext cx="609600" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1755,28 +2034,28 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="Host Control  12"/>
+        <xdr:cNvPr id="30" name="Host Control  16"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="933450"/>
-          <a:ext cx="609600" cy="201930"/>
+          <a:off x="0" y="769620"/>
+          <a:ext cx="609600" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1804,210 +2083,1072 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="Host Control  13"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2430780" y="1116330"/>
-          <a:ext cx="609600" cy="192405"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:noFill/>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="Host Control  14"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2430780" y="1116330"/>
-          <a:ext cx="609600" cy="192405"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:noFill/>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="Host Control  15"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2430780" y="1299210"/>
-          <a:ext cx="609600" cy="211455"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:noFill/>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="Host Control  16"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2430780" y="1299210"/>
-          <a:ext cx="609600" cy="211455"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:noFill/>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>411480</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1053" name="Host Control  29" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1053"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2430780" y="192405"/>
+              <a:ext cx="411480" cy="192405"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>342900</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1054" name="Host Control  30" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1054"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2430780" y="192405"/>
+              <a:ext cx="342900" cy="192405"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>411480</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1055" name="Host Control  31" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1055"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2430780" y="384810"/>
+              <a:ext cx="411480" cy="192405"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>342900</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1056" name="Host Control  32" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1056"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2430780" y="384810"/>
+              <a:ext cx="342900" cy="192405"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>411480</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1057" name="Host Control  33" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1057"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2430780" y="577215"/>
+              <a:ext cx="411480" cy="192405"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>342900</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1058" name="Host Control  34" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1058"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2430780" y="577215"/>
+              <a:ext cx="342900" cy="192405"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>411480</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1059" name="Host Control  35" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1059"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2430780" y="769620"/>
+              <a:ext cx="411480" cy="192405"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>342900</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1060" name="Host Control  36" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1060"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2430780" y="769620"/>
+              <a:ext cx="342900" cy="192405"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>411480</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1061" name="Host Control  37" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1061"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2430780" y="962025"/>
+              <a:ext cx="411480" cy="192405"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>342900</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1062" name="Host Control  38" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1062"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2430780" y="962025"/>
+              <a:ext cx="342900" cy="192405"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>411480</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1063" name="Host Control  39" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1063"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2430780" y="1154430"/>
+              <a:ext cx="411480" cy="192405"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>342900</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1064" name="Host Control  40" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1064"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2430780" y="1154430"/>
+              <a:ext cx="342900" cy="192405"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>411480</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1065" name="Host Control  41" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1065"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2430780" y="1346835"/>
+              <a:ext cx="411480" cy="192405"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>342900</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1066" name="Host Control  42" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1066"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2430780" y="1346835"/>
+              <a:ext cx="342900" cy="192405"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>411480</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1067" name="Host Control  43" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1067"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2430780" y="1539240"/>
+              <a:ext cx="411480" cy="192405"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>342900</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1068" name="Host Control  44" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1068"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2430780" y="1539240"/>
+              <a:ext cx="342900" cy="192405"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>411480</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1069" name="Host Control  45" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1069"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2430780" y="1731645"/>
+              <a:ext cx="411480" cy="192405"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>342900</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1070" name="Host Control  46" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1070"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2430780" y="1731645"/>
+              <a:ext cx="342900" cy="192405"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>411480</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1071" name="Host Control  47" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1071"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2430780" y="1924050"/>
+              <a:ext cx="411480" cy="192405"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>342900</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1072" name="Host Control  48" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1072"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2430780" y="1924050"/>
+              <a:ext cx="342900" cy="192405"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>411480</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>192405</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1073" name="Host Control  49" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1073"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2430780" y="2116455"/>
+              <a:ext cx="411480" cy="192405"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>342900</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>192405</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1074" name="Host Control  50" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1074"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2430780" y="2116455"/>
+              <a:ext cx="342900" cy="192405"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>411480</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1075" name="Host Control  51" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1075"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2430780" y="2476500"/>
+              <a:ext cx="411480" cy="192405"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>342900</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1076" name="Host Control  52" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1076"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2430780" y="2476500"/>
+              <a:ext cx="342900" cy="192405"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>411480</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1077" name="Host Control  53" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1077"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2430780" y="2668905"/>
+              <a:ext cx="411480" cy="192405"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>342900</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1078" name="Host Control  54" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1078"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2430780" y="2668905"/>
+              <a:ext cx="342900" cy="192405"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -2269,362 +3410,825 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="35.4444444444444" customWidth="1"/>
-    <col min="2" max="2" width="6" customWidth="1"/>
-    <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="6" customWidth="1"/>
-    <col min="6" max="6" width="6" customWidth="1"/>
-    <col min="10" max="10" width="19.5555555555556" customWidth="1"/>
-    <col min="11" max="11" width="28" customWidth="1"/>
-    <col min="14" max="14" width="29.1111111111111" customWidth="1"/>
-    <col min="15" max="15" width="22.2222222222222" customWidth="1"/>
+    <col min="5" max="5" width="19.5555555555556" customWidth="1"/>
+    <col min="6" max="6" width="28" customWidth="1"/>
+    <col min="9" max="9" width="29.1111111111111" customWidth="1"/>
+    <col min="10" max="10" width="22.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.15" spans="1:16">
+    <row r="1" ht="15.15" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" ht="15.15" spans="1:9">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="F2" s="4"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" ht="15.15" spans="1:9">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3" s="4"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" ht="15.15" spans="1:9">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4" s="4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" ht="15.15" spans="1:9">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" ht="15.15" spans="1:2">
+      <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" ht="15.15" spans="1:2">
+      <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" ht="15.15" spans="1:2">
+      <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" ht="15.15" spans="1:2">
+      <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" ht="15.15" spans="1:2">
+      <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" ht="15.15" spans="1:2">
+      <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" ht="28.35" spans="1:2">
+      <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" ht="15.15" spans="1:2">
+      <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" ht="15.15" spans="1:16">
-      <c r="A2" s="3" t="s">
+    <row r="14" ht="15.15" spans="1:2">
+      <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="F2">
-        <v>100</v>
+      <c r="B14" t="s">
+        <v>3</v>
       </c>
-      <c r="G2">
-        <v>100</v>
-      </c>
-      <c r="H2">
-        <v>100</v>
-      </c>
-      <c r="I2">
-        <v>100</v>
-      </c>
-      <c r="K2" s="5">
-        <f>SUM(B2:J2)/900*100</f>
-        <v>44.4444444444444</v>
-      </c>
-      <c r="L2">
-        <v>100</v>
-      </c>
-      <c r="M2">
-        <f>10/16*100</f>
-        <v>62.5</v>
-      </c>
-      <c r="N2" s="5">
-        <f>(K2+L2+M2)/300*100</f>
-        <v>68.9814814814815</v>
-      </c>
-      <c r="O2" t="s">
+    </row>
+    <row r="15" ht="15.15" spans="1:2">
+      <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="P2">
-        <v>8</v>
+      <c r="B15" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="1">
-        <v>100</v>
-      </c>
-      <c r="C3" s="1">
-        <v>100</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3">
-        <v>100</v>
-      </c>
-      <c r="I3">
-        <v>100</v>
-      </c>
-      <c r="K3" s="5">
-        <f t="shared" ref="K3:K9" si="0">SUM(B3:J3)/900*100</f>
-        <v>44.4444444444444</v>
-      </c>
-      <c r="L3">
-        <v>100</v>
-      </c>
-      <c r="M3">
-        <f>8/16*100</f>
-        <v>50</v>
-      </c>
-      <c r="N3" s="5">
-        <f t="shared" ref="N3:N9" si="1">(K3+L3+M3)/300*100</f>
-        <v>64.8148148148148</v>
-      </c>
-      <c r="O3" t="s">
-        <v>17</v>
-      </c>
-      <c r="P3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="G4">
-        <v>100</v>
-      </c>
-      <c r="H4">
-        <v>100</v>
-      </c>
-      <c r="I4">
-        <v>100</v>
-      </c>
-      <c r="J4">
-        <v>100</v>
-      </c>
-      <c r="K4" s="5">
-        <f t="shared" si="0"/>
-        <v>44.4444444444444</v>
-      </c>
-      <c r="L4">
-        <v>100</v>
-      </c>
-      <c r="M4">
-        <f>11/16*100</f>
-        <v>68.75</v>
-      </c>
-      <c r="N4" s="5">
-        <f t="shared" si="1"/>
-        <v>71.0648148148148</v>
-      </c>
-      <c r="O4" t="s">
-        <v>20</v>
-      </c>
-      <c r="P4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="1">
-        <v>100</v>
-      </c>
-      <c r="C5" s="1">
-        <v>100</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5">
-        <v>50</v>
-      </c>
-      <c r="G5">
-        <v>100</v>
-      </c>
-      <c r="K5" s="5">
-        <f t="shared" si="0"/>
-        <v>38.8888888888889</v>
-      </c>
-      <c r="L5">
-        <v>100</v>
-      </c>
-      <c r="M5">
-        <f>10/16*100</f>
-        <v>62.5</v>
-      </c>
-      <c r="N5" s="5">
-        <f t="shared" si="1"/>
-        <v>67.1296296296296</v>
-      </c>
-      <c r="O5" t="s">
-        <v>17</v>
-      </c>
-      <c r="P5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="1">
-        <v>100</v>
-      </c>
-      <c r="C6" s="1">
-        <v>100</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6">
-        <v>50</v>
-      </c>
-      <c r="F6">
-        <v>100</v>
-      </c>
-      <c r="G6">
-        <v>100</v>
-      </c>
-      <c r="H6">
-        <v>100</v>
-      </c>
-      <c r="I6">
-        <v>100</v>
-      </c>
-      <c r="J6">
-        <v>100</v>
-      </c>
-      <c r="K6" s="5">
-        <f t="shared" si="0"/>
-        <v>83.3333333333333</v>
-      </c>
-      <c r="L6">
-        <v>100</v>
-      </c>
-      <c r="M6">
-        <f>10/16*100</f>
-        <v>62.5</v>
-      </c>
-      <c r="N6" s="5">
-        <f t="shared" si="1"/>
-        <v>81.9444444444444</v>
-      </c>
-      <c r="O6" t="s">
-        <v>20</v>
-      </c>
-      <c r="P6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="1">
-        <v>100</v>
-      </c>
-      <c r="C7" s="1">
-        <v>100</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="K7" s="5">
-        <f t="shared" si="0"/>
-        <v>22.2222222222222</v>
-      </c>
-      <c r="N7" s="5">
-        <f t="shared" si="1"/>
-        <v>7.4074074074074</v>
-      </c>
-      <c r="O7" t="s">
-        <v>24</v>
-      </c>
-      <c r="P7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="K8" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N8" s="5"/>
-      <c r="P8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="1">
-        <v>60</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="K9" s="5">
-        <f t="shared" si="0"/>
-        <v>6.66666666666667</v>
-      </c>
-      <c r="L9">
-        <v>30</v>
-      </c>
-      <c r="M9">
-        <f>11/16*100</f>
-        <v>68.75</v>
-      </c>
-      <c r="N9" s="5">
-        <f t="shared" si="1"/>
-        <v>35.1388888888889</v>
-      </c>
-      <c r="O9" t="s">
-        <v>27</v>
-      </c>
-      <c r="P9">
-        <v>3</v>
-      </c>
+    <row r="16" ht="15.15" spans="1:1">
+      <c r="A16" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1053" r:id="rId3">
+          <controlPr defaultSize="0">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>411480</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1053" r:id="rId3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1054" r:id="rId4">
+          <controlPr defaultSize="0">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>342900</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1054" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1055" r:id="rId5">
+          <controlPr defaultSize="0">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>411480</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1055" r:id="rId5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1056" r:id="rId6">
+          <controlPr defaultSize="0">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>342900</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1056" r:id="rId6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1057" r:id="rId7">
+          <controlPr defaultSize="0">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>411480</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1057" r:id="rId7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1058" r:id="rId8">
+          <controlPr defaultSize="0">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>342900</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1058" r:id="rId8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1059" r:id="rId9">
+          <controlPr defaultSize="0">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>411480</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1059" r:id="rId9"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1060" r:id="rId10">
+          <controlPr defaultSize="0">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>342900</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1060" r:id="rId10"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1061" r:id="rId11">
+          <controlPr defaultSize="0">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>411480</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1061" r:id="rId11"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1062" r:id="rId12">
+          <controlPr defaultSize="0">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>342900</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1062" r:id="rId12"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1063" r:id="rId13">
+          <controlPr defaultSize="0">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>411480</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1063" r:id="rId13"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1064" r:id="rId14">
+          <controlPr defaultSize="0">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>342900</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1064" r:id="rId14"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1065" r:id="rId15">
+          <controlPr defaultSize="0">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>411480</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1065" r:id="rId15"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1066" r:id="rId16">
+          <controlPr defaultSize="0">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>342900</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1066" r:id="rId16"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1067" r:id="rId17">
+          <controlPr defaultSize="0">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>411480</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1067" r:id="rId17"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1068" r:id="rId18">
+          <controlPr defaultSize="0">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>342900</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1068" r:id="rId18"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1069" r:id="rId19">
+          <controlPr defaultSize="0">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>411480</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1069" r:id="rId19"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1070" r:id="rId20">
+          <controlPr defaultSize="0">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>342900</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1070" r:id="rId20"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1071" r:id="rId21">
+          <controlPr defaultSize="0">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>411480</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1071" r:id="rId21"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1072" r:id="rId22">
+          <controlPr defaultSize="0">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>342900</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1072" r:id="rId22"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1073" r:id="rId23">
+          <controlPr defaultSize="0">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>411480</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>192405</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1073" r:id="rId23"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1074" r:id="rId24">
+          <controlPr defaultSize="0">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>342900</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>192405</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1074" r:id="rId24"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1075" r:id="rId25">
+          <controlPr defaultSize="0">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>411480</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1075" r:id="rId25"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1076" r:id="rId26">
+          <controlPr defaultSize="0">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>342900</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1076" r:id="rId26"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1077" r:id="rId27">
+          <controlPr defaultSize="0">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>411480</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1077" r:id="rId27"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1078" r:id="rId28">
+          <controlPr defaultSize="0">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>342900</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1078" r:id="rId28"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
 </worksheet>
 </file>
--- a/data/Classes_2025.xlsx
+++ b/data/Classes_2025.xlsx
@@ -4,11 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21996" windowHeight="8507"/>
+    <workbookView windowWidth="21996" windowHeight="9167"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$B$15</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -3413,12 +3416,13 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="35.4444444444444" customWidth="1"/>
+    <col min="2" max="2" width="10.2222222222222" customWidth="1"/>
     <col min="5" max="5" width="19.5555555555556" customWidth="1"/>
     <col min="6" max="6" width="28" customWidth="1"/>
     <col min="9" max="9" width="29.1111111111111" customWidth="1"/>
@@ -3443,11 +3447,7 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2"/>
-      <c r="D2"/>
       <c r="F2" s="4"/>
-      <c r="G2"/>
-      <c r="H2"/>
       <c r="I2" s="4"/>
     </row>
     <row r="3" ht="15.15" spans="1:9">
@@ -3457,12 +3457,7 @@
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
       <c r="F3" s="4"/>
-      <c r="G3"/>
-      <c r="H3"/>
       <c r="I3" s="4"/>
     </row>
     <row r="4" ht="15.15" spans="1:9">
@@ -3472,12 +3467,7 @@
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
       <c r="F4" s="4"/>
-      <c r="G4"/>
-      <c r="H4"/>
       <c r="I4" s="4"/>
     </row>
     <row r="5" ht="15.15" spans="1:9">
@@ -3574,6 +3564,9 @@
       <c r="A16" s="6"/>
     </row>
   </sheetData>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:B15" etc:filterBottomFollowUsedRange="0">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
   <drawing r:id="rId1"/>

--- a/data/Classes_2025.xlsx
+++ b/data/Classes_2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21996" windowHeight="9167"/>
+    <workbookView windowWidth="21996" windowHeight="9227"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -30,12 +30,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
   <si>
     <t>Name</t>
   </si>
   <si>
     <t>HW_1</t>
+  </si>
+  <si>
+    <t>HW_2</t>
   </si>
   <si>
     <t>Авакян Кристина Зауровна</t>
@@ -51,6 +54,9 @@
   </si>
   <si>
     <t>Дубинина Анна Сергеевна</t>
+  </si>
+  <si>
+    <t>Вариант 3</t>
   </si>
   <si>
     <t>Егорова Татьяна Андреевна</t>
@@ -3416,7 +3422,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -3436,128 +3442,156 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
     <row r="2" ht="15.15" spans="1:9">
       <c r="A2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
+      <c r="B2"/>
+      <c r="C2" t="s">
+        <v>4</v>
       </c>
       <c r="F2" s="4"/>
       <c r="I2" s="4"/>
     </row>
     <row r="3" ht="15.15" spans="1:9">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
       </c>
       <c r="F3" s="4"/>
       <c r="I3" s="4"/>
     </row>
     <row r="4" ht="15.15" spans="1:9">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
+      <c r="B4"/>
+      <c r="C4" t="s">
+        <v>8</v>
       </c>
       <c r="F4" s="4"/>
       <c r="I4" s="4"/>
     </row>
     <row r="5" ht="15.15" spans="1:9">
       <c r="A5" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
+      <c r="B5"/>
+      <c r="C5" t="s">
+        <v>4</v>
       </c>
       <c r="F5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" ht="15.15" spans="1:2">
+    <row r="6" ht="15.15" spans="1:3">
       <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" ht="15.15" spans="1:3">
+      <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>100</v>
+      </c>
+      <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
-        <v>3</v>
+    </row>
+    <row r="8" ht="15.15" spans="1:3">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="7" ht="15.15" spans="1:2">
-      <c r="A7" s="3" t="s">
-        <v>9</v>
+    <row r="9" ht="15.15" spans="1:3">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
       </c>
-      <c r="B7" t="s">
-        <v>5</v>
+      <c r="B9">
+        <v>100</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="8" ht="15.15" spans="1:2">
-      <c r="A8" s="3" t="s">
-        <v>10</v>
+    <row r="10" ht="15.15" spans="1:3">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
       </c>
-      <c r="B8" t="s">
-        <v>3</v>
+      <c r="B10"/>
+      <c r="C10" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="9" ht="15.15" spans="1:2">
-      <c r="A9" s="3" t="s">
-        <v>11</v>
+    <row r="11" ht="15.15" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
       </c>
-      <c r="B9" t="s">
-        <v>5</v>
+      <c r="B11"/>
+      <c r="C11" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="10" ht="15.15" spans="1:2">
-      <c r="A10" s="3" t="s">
-        <v>12</v>
+    <row r="12" ht="28.35" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>16</v>
       </c>
-      <c r="B10" t="s">
-        <v>3</v>
+      <c r="B12"/>
+      <c r="C12" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="11" ht="15.15" spans="1:2">
-      <c r="A11" s="3" t="s">
-        <v>13</v>
+    <row r="13" ht="15.15" spans="1:3">
+      <c r="A13" s="3" t="s">
+        <v>17</v>
       </c>
-      <c r="B11" t="s">
-        <v>5</v>
+      <c r="B13"/>
+      <c r="C13" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="12" ht="28.35" spans="1:2">
-      <c r="A12" s="3" t="s">
-        <v>14</v>
+    <row r="14" ht="15.15" spans="1:3">
+      <c r="A14" s="3" t="s">
+        <v>18</v>
       </c>
-      <c r="B12" t="s">
-        <v>3</v>
+      <c r="B14">
+        <v>100</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="13" ht="15.15" spans="1:2">
-      <c r="A13" s="3" t="s">
-        <v>15</v>
+    <row r="15" ht="15.15" spans="1:3">
+      <c r="A15" s="5" t="s">
+        <v>19</v>
       </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" ht="15.15" spans="1:2">
-      <c r="A14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" ht="15.15" spans="1:2">
-      <c r="A15" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" t="s">
-        <v>5</v>
+      <c r="B15"/>
+      <c r="C15" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="16" ht="15.15" spans="1:1">

--- a/data/Classes_2025.xlsx
+++ b/data/Classes_2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21996" windowHeight="9227"/>
+    <workbookView windowWidth="22188" windowHeight="9324"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
   <si>
     <t>Name</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t>HW_2</t>
+  </si>
+  <si>
+    <t>HW_3</t>
   </si>
   <si>
     <t>Авакян Кристина Зауровна</t>
@@ -969,7 +972,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -999,7 +1002,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1029,7 +1032,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1059,7 +1062,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1098,7 +1101,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="577215"/>
+          <a:off x="0" y="567690"/>
           <a:ext cx="609600" cy="219075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1128,7 +1131,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="577215"/>
+          <a:off x="0" y="567690"/>
           <a:ext cx="609600" cy="219075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1158,7 +1161,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="577215"/>
+          <a:off x="0" y="567690"/>
           <a:ext cx="609600" cy="211455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1188,7 +1191,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="577215"/>
+          <a:off x="0" y="567690"/>
           <a:ext cx="609600" cy="211455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1218,7 +1221,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="577215"/>
+          <a:off x="0" y="567690"/>
           <a:ext cx="609600" cy="211455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1248,7 +1251,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="577215"/>
+          <a:off x="0" y="567690"/>
           <a:ext cx="609600" cy="211455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1269,7 +1272,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1278,8 +1281,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="769620"/>
-          <a:ext cx="609600" cy="201930"/>
+          <a:off x="0" y="760095"/>
+          <a:ext cx="609600" cy="211455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1299,7 +1302,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1308,8 +1311,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="769620"/>
-          <a:ext cx="609600" cy="201930"/>
+          <a:off x="0" y="760095"/>
+          <a:ext cx="609600" cy="211455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1329,7 +1332,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1338,8 +1341,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="769620"/>
-          <a:ext cx="609600" cy="220980"/>
+          <a:off x="0" y="760095"/>
+          <a:ext cx="609600" cy="230505"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1359,7 +1362,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1368,8 +1371,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="769620"/>
-          <a:ext cx="609600" cy="220980"/>
+          <a:off x="0" y="760095"/>
+          <a:ext cx="609600" cy="230505"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1389,7 +1392,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1440,7 +1443,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1491,7 +1494,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1542,7 +1545,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1604,7 +1607,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="577215"/>
+          <a:off x="0" y="567690"/>
           <a:ext cx="609600" cy="219075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1655,7 +1658,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="577215"/>
+          <a:off x="0" y="567690"/>
           <a:ext cx="609600" cy="219075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1706,7 +1709,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="577215"/>
+          <a:off x="0" y="567690"/>
           <a:ext cx="609600" cy="211455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1757,7 +1760,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="577215"/>
+          <a:off x="0" y="567690"/>
           <a:ext cx="609600" cy="211455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1808,7 +1811,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="577215"/>
+          <a:off x="0" y="567690"/>
           <a:ext cx="609600" cy="211455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1859,7 +1862,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="577215"/>
+          <a:off x="0" y="567690"/>
           <a:ext cx="609600" cy="211455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1899,7 +1902,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1910,8 +1913,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="769620"/>
-          <a:ext cx="609600" cy="201930"/>
+          <a:off x="0" y="760095"/>
+          <a:ext cx="609600" cy="211455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1950,7 +1953,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1961,8 +1964,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="769620"/>
-          <a:ext cx="609600" cy="201930"/>
+          <a:off x="0" y="760095"/>
+          <a:ext cx="609600" cy="211455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2001,7 +2004,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2012,8 +2015,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="769620"/>
-          <a:ext cx="609600" cy="220980"/>
+          <a:off x="0" y="760095"/>
+          <a:ext cx="609600" cy="230505"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2052,7 +2055,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2063,8 +2066,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="769620"/>
-          <a:ext cx="609600" cy="220980"/>
+          <a:off x="0" y="760095"/>
+          <a:ext cx="609600" cy="230505"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2187,7 +2190,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>411480</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
           <xdr:nvSpPr>
@@ -2228,7 +2231,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>342900</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
           <xdr:nvSpPr>
@@ -2284,7 +2287,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2430780" y="577215"/>
+              <a:off x="2430780" y="567690"/>
               <a:ext cx="411480" cy="192405"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2325,7 +2328,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2430780" y="577215"/>
+              <a:off x="2430780" y="567690"/>
               <a:ext cx="342900" cy="192405"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2351,7 +2354,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>411480</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
           <xdr:nvSpPr>
@@ -2366,8 +2369,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2430780" y="769620"/>
-              <a:ext cx="411480" cy="192405"/>
+              <a:off x="2430780" y="760095"/>
+              <a:ext cx="411480" cy="201930"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2392,7 +2395,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>342900</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
           <xdr:nvSpPr>
@@ -2407,8 +2410,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2430780" y="769620"/>
-              <a:ext cx="342900" cy="192405"/>
+              <a:off x="2430780" y="760095"/>
+              <a:ext cx="342900" cy="201930"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2433,7 +2436,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>411480</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
           <xdr:nvSpPr>
@@ -2448,8 +2451,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2430780" y="962025"/>
-              <a:ext cx="411480" cy="192405"/>
+              <a:off x="2430780" y="952500"/>
+              <a:ext cx="411480" cy="201930"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2474,7 +2477,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>342900</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
           <xdr:nvSpPr>
@@ -2489,8 +2492,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2430780" y="962025"/>
-              <a:ext cx="342900" cy="192405"/>
+              <a:off x="2430780" y="952500"/>
+              <a:ext cx="342900" cy="201930"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2515,7 +2518,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>411480</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
           <xdr:nvSpPr>
@@ -2530,8 +2533,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2430780" y="1154430"/>
-              <a:ext cx="411480" cy="192405"/>
+              <a:off x="2430780" y="1144905"/>
+              <a:ext cx="411480" cy="201930"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2556,7 +2559,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>342900</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
           <xdr:nvSpPr>
@@ -2571,8 +2574,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2430780" y="1154430"/>
-              <a:ext cx="342900" cy="192405"/>
+              <a:off x="2430780" y="1144905"/>
+              <a:ext cx="342900" cy="201930"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2597,7 +2600,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>411480</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
           <xdr:nvSpPr>
@@ -2612,8 +2615,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2430780" y="1346835"/>
-              <a:ext cx="411480" cy="192405"/>
+              <a:off x="2430780" y="1337310"/>
+              <a:ext cx="411480" cy="201930"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2638,7 +2641,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>342900</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
           <xdr:nvSpPr>
@@ -2653,8 +2656,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2430780" y="1346835"/>
-              <a:ext cx="342900" cy="192405"/>
+              <a:off x="2430780" y="1337310"/>
+              <a:ext cx="342900" cy="201930"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2679,7 +2682,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>411480</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
           <xdr:nvSpPr>
@@ -2694,8 +2697,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2430780" y="1539240"/>
-              <a:ext cx="411480" cy="192405"/>
+              <a:off x="2430780" y="1529715"/>
+              <a:ext cx="411480" cy="201930"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2720,7 +2723,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>342900</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
           <xdr:nvSpPr>
@@ -2735,8 +2738,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2430780" y="1539240"/>
-              <a:ext cx="342900" cy="192405"/>
+              <a:off x="2430780" y="1529715"/>
+              <a:ext cx="342900" cy="201930"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2761,7 +2764,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>411480</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
           <xdr:nvSpPr>
@@ -2776,8 +2779,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2430780" y="1731645"/>
-              <a:ext cx="411480" cy="192405"/>
+              <a:off x="2430780" y="1722120"/>
+              <a:ext cx="411480" cy="201930"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2802,7 +2805,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>342900</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
           <xdr:nvSpPr>
@@ -2817,8 +2820,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2430780" y="1731645"/>
-              <a:ext cx="342900" cy="192405"/>
+              <a:off x="2430780" y="1722120"/>
+              <a:ext cx="342900" cy="201930"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2843,7 +2846,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>411480</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
           <xdr:nvSpPr>
@@ -2858,8 +2861,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2430780" y="1924050"/>
-              <a:ext cx="411480" cy="192405"/>
+              <a:off x="2430780" y="1914525"/>
+              <a:ext cx="411480" cy="201930"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2884,7 +2887,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>342900</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
           <xdr:nvSpPr>
@@ -2899,8 +2902,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2430780" y="1924050"/>
-              <a:ext cx="342900" cy="192405"/>
+              <a:off x="2430780" y="1914525"/>
+              <a:ext cx="342900" cy="201930"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2940,7 +2943,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2430780" y="2116455"/>
+              <a:off x="2430780" y="2106930"/>
               <a:ext cx="411480" cy="192405"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2981,7 +2984,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2430780" y="2116455"/>
+              <a:off x="2430780" y="2106930"/>
               <a:ext cx="342900" cy="192405"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3022,7 +3025,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2430780" y="2476500"/>
+              <a:off x="2430780" y="2466975"/>
               <a:ext cx="411480" cy="192405"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3063,7 +3066,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2430780" y="2476500"/>
+              <a:off x="2430780" y="2466975"/>
               <a:ext cx="342900" cy="192405"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3089,7 +3092,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>411480</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
           <xdr:nvSpPr>
@@ -3104,8 +3107,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2430780" y="2668905"/>
-              <a:ext cx="411480" cy="192405"/>
+              <a:off x="2430780" y="2659380"/>
+              <a:ext cx="411480" cy="201930"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3130,7 +3133,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>342900</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
           <xdr:nvSpPr>
@@ -3145,8 +3148,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2430780" y="2668905"/>
-              <a:ext cx="342900" cy="192405"/>
+              <a:off x="2430780" y="2659380"/>
+              <a:ext cx="342900" cy="201930"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3422,7 +3425,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -3445,153 +3448,167 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E1" s="2"/>
     </row>
     <row r="2" ht="15.15" spans="1:9">
       <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2"/>
-      <c r="C2" t="s">
         <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
       </c>
       <c r="F2" s="4"/>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" ht="15.15" spans="1:9">
+    <row r="3" spans="1:9">
       <c r="A3" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>100</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
+      <c r="C3">
+        <f>90+10</f>
+        <v>100</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
       </c>
       <c r="F3" s="4"/>
       <c r="I3" s="4"/>
     </row>
     <row r="4" ht="15.15" spans="1:9">
       <c r="A4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4"/>
-      <c r="C4" t="s">
         <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
       </c>
       <c r="F4" s="4"/>
       <c r="I4" s="4"/>
     </row>
     <row r="5" ht="15.15" spans="1:9">
       <c r="A5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5"/>
-      <c r="C5" t="s">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
       </c>
       <c r="F5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" ht="15.15" spans="1:3">
+    <row r="6" ht="15.15" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>100</v>
       </c>
-      <c r="C6" t="s">
-        <v>6</v>
+      <c r="C6">
+        <v>90</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="7" ht="15.15" spans="1:3">
+    <row r="7" ht="15.15" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>100</v>
       </c>
-      <c r="C7" t="s">
-        <v>8</v>
+      <c r="C7">
+        <v>130</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="8" ht="15.15" spans="1:3">
+    <row r="8" ht="15.15" spans="1:4">
       <c r="A8" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>100</v>
       </c>
-      <c r="C8" t="s">
-        <v>4</v>
+      <c r="C8">
+        <v>100</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="9" ht="15.15" spans="1:3">
+    <row r="9" ht="15.15" spans="1:4">
       <c r="A9" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
         <v>100</v>
       </c>
-      <c r="C9" t="s">
-        <v>6</v>
+      <c r="C9">
+        <v>130</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="10" ht="15.15" spans="1:3">
+    <row r="10" ht="15.15" spans="1:4">
       <c r="A10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10"/>
-      <c r="C10" t="s">
-        <v>8</v>
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="11" ht="15.15" spans="1:3">
+    <row r="11" ht="15.15" spans="1:4">
       <c r="A11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11"/>
-      <c r="C11" t="s">
-        <v>4</v>
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="12" ht="28.35" spans="1:3">
+    <row r="12" ht="28.35" spans="1:4">
       <c r="A12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12"/>
-      <c r="C12" t="s">
-        <v>6</v>
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="13" ht="15.15" spans="1:3">
+    <row r="13" ht="15.15" spans="1:4">
       <c r="A13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13"/>
-      <c r="C13" t="s">
-        <v>8</v>
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="14" ht="15.15" spans="1:3">
+    <row r="14" ht="15.15" spans="1:4">
       <c r="A14" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
         <v>100</v>
       </c>
-      <c r="C14" t="s">
-        <v>4</v>
+      <c r="C14">
+        <f>100+10</f>
+        <v>110</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="15" ht="15.15" spans="1:3">
+    <row r="15" ht="15.15" spans="1:4">
       <c r="A15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15"/>
-      <c r="C15" t="s">
-        <v>6</v>
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="16" ht="15.15" spans="1:1">
@@ -3671,7 +3688,7 @@
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>411480</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -3696,7 +3713,7 @@
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>342900</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -3771,7 +3788,7 @@
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>411480</xdr:colOff>
                 <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -3796,7 +3813,7 @@
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>342900</xdr:colOff>
                 <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -3821,7 +3838,7 @@
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>411480</xdr:colOff>
                 <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -3846,7 +3863,7 @@
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>342900</xdr:colOff>
                 <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -3871,7 +3888,7 @@
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>411480</xdr:colOff>
                 <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -3896,7 +3913,7 @@
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>342900</xdr:colOff>
                 <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -3921,7 +3938,7 @@
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>411480</xdr:colOff>
                 <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -3946,7 +3963,7 @@
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>342900</xdr:colOff>
                 <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -3971,7 +3988,7 @@
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>411480</xdr:colOff>
                 <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -3996,7 +4013,7 @@
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>342900</xdr:colOff>
                 <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -4021,7 +4038,7 @@
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>411480</xdr:colOff>
                 <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -4046,7 +4063,7 @@
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>342900</xdr:colOff>
                 <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -4071,7 +4088,7 @@
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>411480</xdr:colOff>
                 <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -4096,7 +4113,7 @@
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>342900</xdr:colOff>
                 <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -4221,7 +4238,7 @@
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>411480</xdr:colOff>
                 <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -4246,7 +4263,7 @@
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>342900</xdr:colOff>
                 <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>

--- a/data/Classes_2025.xlsx
+++ b/data/Classes_2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9324"/>
+    <workbookView windowWidth="22188" windowHeight="9264"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
   <si>
     <t>Name</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>HW_3</t>
+  </si>
+  <si>
+    <t>HW_4</t>
   </si>
   <si>
     <t>Авакян Кристина Зауровна</t>
@@ -982,7 +985,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="384810"/>
-          <a:ext cx="609600" cy="201930"/>
+          <a:ext cx="609600" cy="211455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1007,36 +1010,6 @@
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="Host Control  4" hidden="1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="384810"/>
-          <a:ext cx="609600" cy="201930"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Host Control  5" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1066,12 +1039,132 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Host Control  5" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="384810"/>
+          <a:ext cx="609600" cy="220980"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="Host Control  6" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="384810"/>
+          <a:ext cx="609600" cy="220980"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Host Control  7" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="577215"/>
+          <a:ext cx="609600" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Host Control  8" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="577215"/>
+          <a:ext cx="609600" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Host Control  9" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="577215"/>
           <a:ext cx="609600" cy="211455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1092,76 +1185,16 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>26670</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Host Control  7" hidden="1"/>
+        <xdr:cNvPr id="10" name="Host Control  10" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="567690"/>
-          <a:ext cx="609600" cy="219075"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>26670</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Host Control  8" hidden="1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="567690"/>
-          <a:ext cx="609600" cy="219075"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Host Control  9" hidden="1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="567690"/>
+          <a:off x="0" y="577215"/>
           <a:ext cx="609600" cy="211455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1186,12 +1219,12 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Host Control  10" hidden="1"/>
+        <xdr:cNvPr id="11" name="Host Control  11" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="567690"/>
+          <a:off x="0" y="577215"/>
           <a:ext cx="609600" cy="211455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1216,12 +1249,12 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Host Control  11" hidden="1"/>
+        <xdr:cNvPr id="12" name="Host Control  12" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="567690"/>
+          <a:off x="0" y="577215"/>
           <a:ext cx="609600" cy="211455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1235,23 +1268,23 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Host Control  12" hidden="1"/>
+        <xdr:cNvPr id="13" name="Host Control  13" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="567690"/>
+          <a:off x="0" y="769620"/>
           <a:ext cx="609600" cy="211455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1276,12 +1309,12 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Host Control  13" hidden="1"/>
+        <xdr:cNvPr id="14" name="Host Control  14" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="760095"/>
+          <a:off x="0" y="769620"/>
           <a:ext cx="609600" cy="211455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1302,36 +1335,6 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Host Control  14" hidden="1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="760095"/>
-          <a:ext cx="609600" cy="211455"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>5</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -1341,7 +1344,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="760095"/>
+          <a:off x="0" y="769620"/>
           <a:ext cx="609600" cy="230505"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1371,7 +1374,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="760095"/>
+          <a:off x="0" y="769620"/>
           <a:ext cx="609600" cy="230505"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1397,108 +1400,6 @@
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="17" name="Host Control  3"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="384810"/>
-          <a:ext cx="609600" cy="201930"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:noFill/>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="Host Control  4"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="384810"/>
-          <a:ext cx="609600" cy="201930"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:noFill/>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="Host Control  5"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -1545,11 +1446,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="Host Control  6"/>
+        <xdr:cNvPr id="18" name="Host Control  4"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -1589,6 +1490,108 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Host Control  5"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="384810"/>
+          <a:ext cx="609600" cy="220980"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:noFill/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Host Control  6"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="384810"/>
+          <a:ext cx="609600" cy="220980"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:noFill/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -1607,7 +1610,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="567690"/>
+          <a:off x="0" y="577215"/>
           <a:ext cx="609600" cy="219075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1658,7 +1661,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="567690"/>
+          <a:off x="0" y="577215"/>
           <a:ext cx="609600" cy="219075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1709,7 +1712,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="567690"/>
+          <a:off x="0" y="577215"/>
           <a:ext cx="609600" cy="211455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1760,7 +1763,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="567690"/>
+          <a:off x="0" y="577215"/>
           <a:ext cx="609600" cy="211455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1811,7 +1814,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="567690"/>
+          <a:off x="0" y="577215"/>
           <a:ext cx="609600" cy="211455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1862,7 +1865,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="567690"/>
+          <a:off x="0" y="577215"/>
           <a:ext cx="609600" cy="211455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1913,7 +1916,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="760095"/>
+          <a:off x="0" y="769620"/>
           <a:ext cx="609600" cy="211455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1964,7 +1967,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="760095"/>
+          <a:off x="0" y="769620"/>
           <a:ext cx="609600" cy="211455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2015,7 +2018,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="760095"/>
+          <a:off x="0" y="769620"/>
           <a:ext cx="609600" cy="230505"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2066,7 +2069,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="760095"/>
+          <a:off x="0" y="769620"/>
           <a:ext cx="609600" cy="230505"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2206,7 +2209,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="2430780" y="384810"/>
-              <a:ext cx="411480" cy="192405"/>
+              <a:ext cx="411480" cy="201930"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2247,7 +2250,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="2430780" y="384810"/>
-              <a:ext cx="342900" cy="192405"/>
+              <a:ext cx="342900" cy="201930"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2287,7 +2290,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2430780" y="567690"/>
+              <a:off x="2430780" y="577215"/>
               <a:ext cx="411480" cy="192405"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2328,7 +2331,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2430780" y="567690"/>
+              <a:off x="2430780" y="577215"/>
               <a:ext cx="342900" cy="192405"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2369,7 +2372,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2430780" y="760095"/>
+              <a:off x="2430780" y="769620"/>
               <a:ext cx="411480" cy="201930"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2410,7 +2413,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2430780" y="760095"/>
+              <a:off x="2430780" y="769620"/>
               <a:ext cx="342900" cy="201930"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2451,7 +2454,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2430780" y="952500"/>
+              <a:off x="2430780" y="962025"/>
               <a:ext cx="411480" cy="201930"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2492,7 +2495,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2430780" y="952500"/>
+              <a:off x="2430780" y="962025"/>
               <a:ext cx="342900" cy="201930"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2533,7 +2536,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2430780" y="1144905"/>
+              <a:off x="2430780" y="1154430"/>
               <a:ext cx="411480" cy="201930"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2574,7 +2577,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2430780" y="1144905"/>
+              <a:off x="2430780" y="1154430"/>
               <a:ext cx="342900" cy="201930"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2615,7 +2618,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2430780" y="1337310"/>
+              <a:off x="2430780" y="1346835"/>
               <a:ext cx="411480" cy="201930"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2656,7 +2659,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2430780" y="1337310"/>
+              <a:off x="2430780" y="1346835"/>
               <a:ext cx="342900" cy="201930"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2697,7 +2700,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2430780" y="1529715"/>
+              <a:off x="2430780" y="1539240"/>
               <a:ext cx="411480" cy="201930"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2738,7 +2741,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2430780" y="1529715"/>
+              <a:off x="2430780" y="1539240"/>
               <a:ext cx="342900" cy="201930"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2779,7 +2782,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2430780" y="1722120"/>
+              <a:off x="2430780" y="1731645"/>
               <a:ext cx="411480" cy="201930"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2820,7 +2823,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2430780" y="1722120"/>
+              <a:off x="2430780" y="1731645"/>
               <a:ext cx="342900" cy="201930"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2861,7 +2864,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2430780" y="1914525"/>
+              <a:off x="2430780" y="1924050"/>
               <a:ext cx="411480" cy="201930"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2902,7 +2905,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2430780" y="1914525"/>
+              <a:off x="2430780" y="1924050"/>
               <a:ext cx="342900" cy="201930"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2943,7 +2946,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2430780" y="2106930"/>
+              <a:off x="2430780" y="2116455"/>
               <a:ext cx="411480" cy="192405"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2984,7 +2987,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2430780" y="2106930"/>
+              <a:off x="2430780" y="2116455"/>
               <a:ext cx="342900" cy="192405"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3025,7 +3028,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2430780" y="2466975"/>
+              <a:off x="2430780" y="2476500"/>
               <a:ext cx="411480" cy="192405"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3066,7 +3069,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2430780" y="2466975"/>
+              <a:off x="2430780" y="2476500"/>
               <a:ext cx="342900" cy="192405"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3107,7 +3110,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2430780" y="2659380"/>
+              <a:off x="2430780" y="2668905"/>
               <a:ext cx="411480" cy="201930"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3148,7 +3151,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2430780" y="2659380"/>
+              <a:off x="2430780" y="2668905"/>
               <a:ext cx="342900" cy="201930"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3425,7 +3428,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -3451,21 +3454,23 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2"/>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" ht="15.15" spans="1:9">
       <c r="A2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
         <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
       </c>
       <c r="F2" s="4"/>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" ht="15.15" spans="1:9">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>100</v>
@@ -3474,35 +3479,38 @@
         <f>90+10</f>
         <v>100</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
+      <c r="D3">
+        <v>120</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
       </c>
       <c r="F3" s="4"/>
       <c r="I3" s="4"/>
     </row>
     <row r="4" ht="15.15" spans="1:9">
       <c r="A4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
         <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
       </c>
       <c r="F4" s="4"/>
       <c r="I4" s="4"/>
     </row>
     <row r="5" ht="15.15" spans="1:9">
       <c r="A5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
       </c>
       <c r="F5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" ht="15.15" spans="1:4">
+    <row r="6" ht="15.15" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>100</v>
@@ -3510,13 +3518,16 @@
       <c r="C6">
         <v>90</v>
       </c>
-      <c r="D6" t="s">
-        <v>7</v>
+      <c r="D6">
+        <v>60</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="7" ht="15.15" spans="1:4">
+    <row r="7" ht="15.15" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>100</v>
@@ -3524,13 +3535,16 @@
       <c r="C7">
         <v>130</v>
       </c>
-      <c r="D7" t="s">
-        <v>9</v>
+      <c r="D7">
+        <v>130</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="8" ht="15.15" spans="1:4">
+    <row r="8" ht="15.15" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>100</v>
@@ -3538,13 +3552,16 @@
       <c r="C8">
         <v>100</v>
       </c>
-      <c r="D8" t="s">
-        <v>5</v>
+      <c r="D8">
+        <v>130</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="9" ht="15.15" spans="1:4">
+    <row r="9" ht="15.15" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>100</v>
@@ -3552,45 +3569,48 @@
       <c r="C9">
         <v>130</v>
       </c>
-      <c r="D9" t="s">
-        <v>7</v>
+      <c r="D9">
+        <v>130</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="10" ht="15.15" spans="1:4">
+    <row r="10" ht="15.15" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="11" ht="15.15" spans="1:4">
+    <row r="11" ht="15.15" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" t="s">
-        <v>5</v>
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="12" ht="28.35" spans="1:4">
+    <row r="12" ht="28.35" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" t="s">
-        <v>7</v>
+        <v>18</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="13" ht="15.15" spans="1:4">
+    <row r="13" ht="15.15" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
+        <v>19</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="14" ht="15.15" spans="1:4">
+    <row r="14" ht="15.15" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14">
         <v>100</v>
@@ -3599,16 +3619,16 @@
         <f>100+10</f>
         <v>110</v>
       </c>
-      <c r="D14" t="s">
-        <v>5</v>
+      <c r="E14" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="15" ht="15.15" spans="1:4">
+    <row r="15" ht="15.15" spans="1:5">
       <c r="A15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" t="s">
-        <v>7</v>
+        <v>21</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="16" ht="15.15" spans="1:1">

--- a/data/Classes_2025.xlsx
+++ b/data/Classes_2025.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24334"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Text\Lectures\Statistica\Mat_Met_Psychology\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E157C624-1E7D-4A48-ACC6-8B498DC11905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="22188" windowHeight="9324"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -27,10 +21,9 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
-    </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -52,6 +45,12 @@
   </si>
   <si>
     <t>HW_4</t>
+  </si>
+  <si>
+    <t>HW_5</t>
+  </si>
+  <si>
+    <t>HW_6</t>
   </si>
   <si>
     <t>Авакян Кристина Зауровна</t>
@@ -95,22 +94,20 @@
   <si>
     <t>Чернышова Александра Алексеевна</t>
   </si>
-  <si>
-    <t>HW_5</t>
-  </si>
-  <si>
-    <t>HW_6</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
-    <numFmt numFmtId="165" formatCode="0_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="dd\.mm\.yyyy"/>
+    <numFmt numFmtId="181" formatCode="0_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,13 +122,158 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="204"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -150,8 +292,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -174,45 +502,331 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Запятая" xfId="1" builtinId="3"/>
+    <cellStyle name="Денежный" xfId="2" builtinId="4"/>
+    <cellStyle name="Процент" xfId="3" builtinId="5"/>
+    <cellStyle name="Запятая [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Денежный [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Гиперссылка" xfId="6" builtinId="8"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="7" builtinId="9"/>
+    <cellStyle name="Примечание" xfId="8" builtinId="10"/>
+    <cellStyle name="Предупреждающий текст" xfId="9" builtinId="11"/>
+    <cellStyle name="Заголовок" xfId="10" builtinId="15"/>
+    <cellStyle name="Пояснительный текст" xfId="11" builtinId="53"/>
+    <cellStyle name="Заголовок 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Заголовок 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Заголовок 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Заголовок 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Ввод" xfId="16" builtinId="20"/>
+    <cellStyle name="Вывод" xfId="17" builtinId="21"/>
+    <cellStyle name="Вычисление" xfId="18" builtinId="22"/>
+    <cellStyle name="Проверить ячейку" xfId="19" builtinId="23"/>
+    <cellStyle name="Связанная ячейка" xfId="20" builtinId="24"/>
+    <cellStyle name="Итого" xfId="21" builtinId="25"/>
+    <cellStyle name="Хороший" xfId="22" builtinId="26"/>
+    <cellStyle name="Плохой" xfId="23" builtinId="27"/>
+    <cellStyle name="Нейтральный" xfId="24" builtinId="28"/>
+    <cellStyle name="Акцент1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% — Акцент1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% — Акцент1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% — Акцент1" xfId="28" builtinId="32"/>
+    <cellStyle name="Акцент2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% — Акцент2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% — Акцент2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% — Акцент2" xfId="32" builtinId="36"/>
+    <cellStyle name="Акцент3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% — Акцент3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% — Акцент3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% — Акцент3" xfId="36" builtinId="40"/>
+    <cellStyle name="Акцент4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% — Акцент4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% — Акцент4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% — Акцент4" xfId="40" builtinId="44"/>
+    <cellStyle name="Акцент5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% — Акцент5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% — Акцент5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% — Акцент5" xfId="44" builtinId="48"/>
+    <cellStyle name="Акцент6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% — Акцент6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% — Акцент6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% — Акцент6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -226,15 +840,9 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Host Control  2" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Host Control  2" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -262,15 +870,9 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Host Control  3" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Host Control  3" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -298,15 +900,9 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Host Control  4" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Host Control  4" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -334,15 +930,9 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Host Control  5" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Host Control  5" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -370,15 +960,9 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Host Control  6" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Host Control  6" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -406,15 +990,9 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>26670</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Host Control  7" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Host Control  7" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -442,15 +1020,9 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>26670</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Host Control  8" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Host Control  8" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -478,15 +1050,9 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Host Control  9" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Host Control  9" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -514,15 +1080,9 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Host Control  10" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Host Control  10" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -550,15 +1110,9 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Host Control  11" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Host Control  11" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -586,15 +1140,9 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Host Control  12" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Host Control  12" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -622,15 +1170,9 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Host Control  13" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Host Control  13" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -658,15 +1200,9 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Host Control  14" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Host Control  14" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -694,15 +1230,9 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Host Control  15" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Host Control  15" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -730,15 +1260,9 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="Host Control  16" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Host Control  16" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -766,15 +1290,9 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Host Control  3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Host Control  3"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -823,15 +1341,9 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="Host Control  4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Host Control  4"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -880,15 +1392,9 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="Host Control  5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Host Control  5"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -937,15 +1443,9 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="Host Control  6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Host Control  6"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -994,15 +1494,9 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>26670</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="Host Control  7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Host Control  7"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -1051,15 +1545,9 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>26670</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="Host Control  8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Host Control  8"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -1108,15 +1596,9 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="Host Control  9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Host Control  9"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -1165,15 +1647,9 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="Host Control  10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Host Control  10"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -1222,15 +1698,9 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="Host Control  11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Host Control  11"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -1279,15 +1749,9 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="Host Control  12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Host Control  12"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -1336,15 +1800,9 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="Host Control  13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Host Control  13"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -1393,15 +1851,9 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="Host Control  14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Host Control  14"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -1450,15 +1902,9 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="Host Control  15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Host Control  15"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -1507,15 +1953,9 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="Host Control  16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="Host Control  16"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -1564,23 +2004,14 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1053" name="Host Control  29" hidden="1">
-          <a:extLst>
-            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s1053"/>
-            </a:ext>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1053" name="Host Control  29" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="192405"/>
+          <a:off x="2429510" y="192405"/>
           <a:ext cx="411480" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1603,23 +2034,14 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1054" name="Host Control  30" hidden="1">
-          <a:extLst>
-            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s1054"/>
-            </a:ext>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1054" name="Host Control  30" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="192405"/>
+          <a:off x="2429510" y="192405"/>
           <a:ext cx="342900" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1642,23 +2064,14 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1055" name="Host Control  31" hidden="1">
-          <a:extLst>
-            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s1055"/>
-            </a:ext>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1055" name="Host Control  31" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="384810"/>
+          <a:off x="2429510" y="384810"/>
           <a:ext cx="411480" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1681,23 +2094,14 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1056" name="Host Control  32" hidden="1">
-          <a:extLst>
-            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s1056"/>
-            </a:ext>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1056" name="Host Control  32" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="384810"/>
+          <a:off x="2429510" y="384810"/>
           <a:ext cx="342900" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1720,23 +2124,14 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1057" name="Host Control  33" hidden="1">
-          <a:extLst>
-            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s1057"/>
-            </a:ext>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1057" name="Host Control  33" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="577215"/>
+          <a:off x="2429510" y="577215"/>
           <a:ext cx="411480" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1759,23 +2154,14 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1058" name="Host Control  34" hidden="1">
-          <a:extLst>
-            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s1058"/>
-            </a:ext>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1058" name="Host Control  34" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="577215"/>
+          <a:off x="2429510" y="577215"/>
           <a:ext cx="342900" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1798,23 +2184,14 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1059" name="Host Control  35" hidden="1">
-          <a:extLst>
-            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s1059"/>
-            </a:ext>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1059" name="Host Control  35" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="769620"/>
+          <a:off x="2429510" y="769620"/>
           <a:ext cx="411480" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1837,23 +2214,14 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1060" name="Host Control  36" hidden="1">
-          <a:extLst>
-            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s1060"/>
-            </a:ext>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1060" name="Host Control  36" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="769620"/>
+          <a:off x="2429510" y="769620"/>
           <a:ext cx="342900" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1874,25 +2242,16 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>411480</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1061" name="Host Control  37" hidden="1">
-          <a:extLst>
-            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s1061"/>
-            </a:ext>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1061" name="Host Control  37" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="962025"/>
+          <a:off x="2429510" y="962025"/>
           <a:ext cx="411480" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1913,25 +2272,16 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1062" name="Host Control  38" hidden="1">
-          <a:extLst>
-            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s1062"/>
-            </a:ext>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1062" name="Host Control  38" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="962025"/>
+          <a:off x="2429510" y="962025"/>
           <a:ext cx="342900" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1954,23 +2304,14 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1063" name="Host Control  39" hidden="1">
-          <a:extLst>
-            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s1063"/>
-            </a:ext>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1063" name="Host Control  39" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="1154430"/>
+          <a:off x="2429510" y="1144905"/>
           <a:ext cx="411480" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1993,23 +2334,14 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1064" name="Host Control  40" hidden="1">
-          <a:extLst>
-            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s1064"/>
-            </a:ext>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1064" name="Host Control  40" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="1154430"/>
+          <a:off x="2429510" y="1144905"/>
           <a:ext cx="342900" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2032,23 +2364,14 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1065" name="Host Control  41" hidden="1">
-          <a:extLst>
-            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s1065"/>
-            </a:ext>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1065" name="Host Control  41" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="1346835"/>
+          <a:off x="2429510" y="1337310"/>
           <a:ext cx="411480" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2071,23 +2394,14 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1066" name="Host Control  42" hidden="1">
-          <a:extLst>
-            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s1066"/>
-            </a:ext>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1066" name="Host Control  42" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="1346835"/>
+          <a:off x="2429510" y="1337310"/>
           <a:ext cx="342900" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2108,25 +2422,16 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>411480</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1067" name="Host Control  43" hidden="1">
-          <a:extLst>
-            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s1067"/>
-            </a:ext>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1067" name="Host Control  43" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="1539240"/>
+          <a:off x="2429510" y="1529715"/>
           <a:ext cx="411480" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2147,25 +2452,16 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1068" name="Host Control  44" hidden="1">
-          <a:extLst>
-            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s1068"/>
-            </a:ext>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1068" name="Host Control  44" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="1539240"/>
+          <a:off x="2429510" y="1529715"/>
           <a:ext cx="342900" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2188,23 +2484,14 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1069" name="Host Control  45" hidden="1">
-          <a:extLst>
-            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s1069"/>
-            </a:ext>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1069" name="Host Control  45" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="1731645"/>
+          <a:off x="2429510" y="1712595"/>
           <a:ext cx="411480" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2227,23 +2514,14 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1070" name="Host Control  46" hidden="1">
-          <a:extLst>
-            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s1070"/>
-            </a:ext>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1070" name="Host Control  46" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="1731645"/>
+          <a:off x="2429510" y="1712595"/>
           <a:ext cx="342900" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2266,23 +2544,14 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1071" name="Host Control  47" hidden="1">
-          <a:extLst>
-            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s1071"/>
-            </a:ext>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1071" name="Host Control  47" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="1924050"/>
+          <a:off x="2429510" y="1905000"/>
           <a:ext cx="411480" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2305,23 +2574,14 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1072" name="Host Control  48" hidden="1">
-          <a:extLst>
-            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s1072"/>
-            </a:ext>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1072" name="Host Control  48" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="1924050"/>
+          <a:off x="2429510" y="1905000"/>
           <a:ext cx="342900" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2344,23 +2604,14 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>192405</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1073" name="Host Control  49" hidden="1">
-          <a:extLst>
-            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s1073"/>
-            </a:ext>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1073" name="Host Control  49" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="2116455"/>
+          <a:off x="2429510" y="2097405"/>
           <a:ext cx="411480" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2383,23 +2634,14 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>192405</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1074" name="Host Control  50" hidden="1">
-          <a:extLst>
-            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s1074"/>
-            </a:ext>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1074" name="Host Control  50" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="2116455"/>
+          <a:off x="2429510" y="2097405"/>
           <a:ext cx="342900" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2422,23 +2664,14 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1075" name="Host Control  51" hidden="1">
-          <a:extLst>
-            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s1075"/>
-            </a:ext>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1075" name="Host Control  51" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="2476500"/>
+          <a:off x="2429510" y="2457450"/>
           <a:ext cx="411480" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2461,23 +2694,14 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1076" name="Host Control  52" hidden="1">
-          <a:extLst>
-            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s1076"/>
-            </a:ext>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1076" name="Host Control  52" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="2476500"/>
+          <a:off x="2429510" y="2457450"/>
           <a:ext cx="342900" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2500,23 +2724,14 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1077" name="Host Control  53" hidden="1">
-          <a:extLst>
-            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s1077"/>
-            </a:ext>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1077" name="Host Control  53" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="2668905"/>
+          <a:off x="2429510" y="2649855"/>
           <a:ext cx="411480" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2539,23 +2754,14 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1078" name="Host Control  54" hidden="1">
-          <a:extLst>
-            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s1078"/>
-            </a:ext>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1078" name="Host Control  54" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="2668905"/>
+          <a:off x="2429510" y="2649855"/>
           <a:ext cx="342900" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2578,23 +2784,17 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="Host Control  30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="Host Control  30"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2362200" y="190500"/>
-          <a:ext cx="428625" cy="190500"/>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2429510" y="192405"/>
+          <a:ext cx="428625" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2635,23 +2835,17 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="Host Control  31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="Host Control  31"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2362200" y="381000"/>
-          <a:ext cx="504825" cy="200025"/>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2429510" y="384810"/>
+          <a:ext cx="504825" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2692,23 +2886,17 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="Host Control  32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="Host Control  32"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2362200" y="381000"/>
-          <a:ext cx="428625" cy="200025"/>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2429510" y="384810"/>
+          <a:ext cx="428625" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2749,23 +2937,17 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="Host Control  33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="Host Control  33"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2362200" y="571500"/>
-          <a:ext cx="504825" cy="190500"/>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2429510" y="577215"/>
+          <a:ext cx="504825" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2806,23 +2988,17 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="Host Control  34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="Host Control  34"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2362200" y="571500"/>
-          <a:ext cx="428625" cy="190500"/>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2429510" y="577215"/>
+          <a:ext cx="428625" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2863,23 +3039,17 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="Host Control  35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="Host Control  35"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2362200" y="762000"/>
-          <a:ext cx="504825" cy="200025"/>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2429510" y="769620"/>
+          <a:ext cx="504825" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2920,23 +3090,17 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="Host Control  36">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="Host Control  36"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2362200" y="762000"/>
-          <a:ext cx="428625" cy="200025"/>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2429510" y="769620"/>
+          <a:ext cx="428625" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2975,25 +3139,19 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="Host Control  37">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="Host Control  37"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2362200" y="952500"/>
-          <a:ext cx="504825" cy="361950"/>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2429510" y="962025"/>
+          <a:ext cx="504825" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3032,25 +3190,19 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="Host Control  38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="Host Control  38"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2362200" y="952500"/>
-          <a:ext cx="428625" cy="361950"/>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2429510" y="962025"/>
+          <a:ext cx="428625" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3091,23 +3243,17 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="Host Control  39">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="Host Control  39"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2362200" y="1304925"/>
-          <a:ext cx="504825" cy="200025"/>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2429510" y="1144905"/>
+          <a:ext cx="504825" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3148,23 +3294,17 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="Host Control  40">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="Host Control  40"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2362200" y="1304925"/>
-          <a:ext cx="428625" cy="200025"/>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2429510" y="1144905"/>
+          <a:ext cx="428625" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3205,23 +3345,17 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="Host Control  41">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="Host Control  41"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2362200" y="1495425"/>
-          <a:ext cx="504825" cy="200025"/>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2429510" y="1337310"/>
+          <a:ext cx="504825" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3262,23 +3396,17 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="Host Control  42">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="Host Control  42"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2362200" y="1495425"/>
-          <a:ext cx="428625" cy="200025"/>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2429510" y="1337310"/>
+          <a:ext cx="428625" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3317,25 +3445,19 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="Host Control  43">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="Host Control  43"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2362200" y="1685925"/>
-          <a:ext cx="504825" cy="200025"/>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2429510" y="1529715"/>
+          <a:ext cx="504825" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3374,25 +3496,19 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="Host Control  44">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="Host Control  44"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2362200" y="1685925"/>
-          <a:ext cx="428625" cy="200025"/>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2429510" y="1529715"/>
+          <a:ext cx="428625" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3433,23 +3549,17 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="Host Control  45">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="Host Control  45"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2362200" y="1876425"/>
-          <a:ext cx="504825" cy="200025"/>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2429510" y="1712595"/>
+          <a:ext cx="504825" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3490,23 +3600,17 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="Host Control  46">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="Host Control  46"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2362200" y="1876425"/>
-          <a:ext cx="428625" cy="200025"/>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2429510" y="1712595"/>
+          <a:ext cx="428625" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3547,23 +3651,17 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="Host Control  47">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="Host Control  47"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2362200" y="2066925"/>
-          <a:ext cx="504825" cy="200025"/>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2429510" y="1905000"/>
+          <a:ext cx="504825" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3604,23 +3702,17 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="Host Control  48">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="Host Control  48"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2362200" y="2066925"/>
-          <a:ext cx="428625" cy="200025"/>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2429510" y="1905000"/>
+          <a:ext cx="428625" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3661,22 +3753,16 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="Host Control  49">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="Host Control  49"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2362200" y="2257425"/>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2429510" y="2097405"/>
           <a:ext cx="504825" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3718,22 +3804,16 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="Host Control  50">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="Host Control  50"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2362200" y="2257425"/>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2429510" y="2097405"/>
           <a:ext cx="428625" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3775,23 +3855,17 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="Host Control  51">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="Host Control  51"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2362200" y="2609850"/>
-          <a:ext cx="504825" cy="190500"/>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2429510" y="2457450"/>
+          <a:ext cx="504825" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3832,23 +3906,17 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="Host Control  52">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="Host Control  52"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2362200" y="2609850"/>
-          <a:ext cx="428625" cy="190500"/>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2429510" y="2457450"/>
+          <a:ext cx="428625" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3889,23 +3957,17 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="55" name="Host Control  53">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="Host Control  53"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2362200" y="2800350"/>
-          <a:ext cx="504825" cy="200025"/>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2429510" y="2649855"/>
+          <a:ext cx="504825" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3946,23 +4008,17 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="Host Control  54">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="Host Control  54"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2362200" y="2800350"/>
-          <a:ext cx="428625" cy="200025"/>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2429510" y="2649855"/>
+          <a:ext cx="428625" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4245,30 +4301,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" customWidth="1"/>
-    <col min="2" max="2" width="30.5703125" customWidth="1"/>
+    <col min="1" max="1" width="35.4259259259259" customWidth="1"/>
+    <col min="2" max="2" width="30.5740740740741" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19.5740740740741" customWidth="1"/>
     <col min="6" max="6" width="28" customWidth="1"/>
-    <col min="9" max="9" width="29.140625" customWidth="1"/>
-    <col min="10" max="10" width="22.28515625" customWidth="1"/>
+    <col min="9" max="9" width="29.1388888888889" customWidth="1"/>
+    <col min="10" max="10" width="22.287037037037" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" ht="15.15" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4285,16 +4341,16 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" ht="15.15" spans="1:9">
       <c r="A2" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -4305,12 +4361,20 @@
       <c r="D2">
         <v>100</v>
       </c>
-      <c r="F2" s="4"/>
+      <c r="E2">
+        <v>90</v>
+      </c>
+      <c r="F2" s="4">
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
+      </c>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" ht="15.15" spans="1:9">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>100</v>
@@ -4330,23 +4394,23 @@
       </c>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" ht="15.15" spans="1:9">
       <c r="A4" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F4" s="4"/>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" ht="15.15" spans="1:9">
       <c r="A5" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9" ht="27.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>100</v>
@@ -4360,10 +4424,13 @@
       <c r="E6">
         <v>100</v>
       </c>
+      <c r="F6">
+        <v>90</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" ht="15.15" spans="1:7">
       <c r="A7" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>100</v>
@@ -4374,10 +4441,19 @@
       <c r="D7">
         <v>130</v>
       </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+      <c r="G7">
+        <v>100</v>
+      </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" ht="15.15" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>100</v>
@@ -4392,9 +4468,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
         <v>100</v>
@@ -4408,15 +4484,18 @@
       <c r="F9">
         <v>100</v>
       </c>
+      <c r="G9">
+        <v>100</v>
+      </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" ht="15.15" spans="1:1">
       <c r="A10" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" ht="15.15" spans="1:7">
       <c r="A11" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
         <v>100</v>
@@ -4437,19 +4516,19 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="27.75" x14ac:dyDescent="0.25">
+    <row r="12" ht="28.35" spans="1:1">
       <c r="A12" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" ht="15.15" spans="1:1">
       <c r="A13" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" ht="15.15" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
         <v>100</v>
@@ -4459,18 +4538,20 @@
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" ht="15.15" spans="1:1">
       <c r="A15" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" ht="15.15" spans="1:1">
       <c r="A16" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B15" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:B15" etc:filterBottomFollowUsedRange="0">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/Classes_2025.xlsx
+++ b/data/Classes_2025.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Name</t>
   </si>
@@ -53,10 +53,19 @@
     <t>HW_6</t>
   </si>
   <si>
+    <t>HW_7</t>
+  </si>
+  <si>
     <t>Авакян Кристина Зауровна</t>
   </si>
   <si>
+    <t>Вариант 1</t>
+  </si>
+  <si>
     <t>Васина Анна Дмитриевна</t>
+  </si>
+  <si>
+    <t>Вариант 2</t>
   </si>
   <si>
     <t>Дубинина Анна Сергеевна</t>
@@ -68,19 +77,34 @@
     <t>Емельянова Екатерина Викторовна</t>
   </si>
   <si>
+    <t>Вариант 3</t>
+  </si>
+  <si>
     <t>Ковалева Александра Борисовна</t>
+  </si>
+  <si>
+    <t>Вариант 4</t>
   </si>
   <si>
     <t>Кузнецов Никита Сергеевич</t>
   </si>
   <si>
+    <t>Вариант 5</t>
+  </si>
+  <si>
     <t>Куликова Светлана Сергеевна</t>
+  </si>
+  <si>
+    <t>Вариант 6</t>
   </si>
   <si>
     <t>Панкратова Ксения Артемовна</t>
   </si>
   <si>
     <t>Сарнэт Виктория Павловна</t>
+  </si>
+  <si>
+    <t>Вариант 7</t>
   </si>
   <si>
     <t>Синицкая Юлия Сергеевна (Захарова)</t>
@@ -90,6 +114,9 @@
   </si>
   <si>
     <t>Цуранова Елизавета Алексеевна</t>
+  </si>
+  <si>
+    <t>Вариант 8</t>
   </si>
   <si>
     <t>Чернышова Александра Алексеевна</t>
@@ -988,7 +1015,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>26670</xdr:rowOff>
+      <xdr:rowOff>36195</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1018,7 +1045,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>26670</xdr:rowOff>
+      <xdr:rowOff>36195</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1048,7 +1075,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1078,7 +1105,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1108,7 +1135,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1138,7 +1165,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1177,7 +1204,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="769620"/>
+          <a:off x="0" y="760095"/>
           <a:ext cx="609600" cy="211455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1207,7 +1234,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="769620"/>
+          <a:off x="0" y="760095"/>
           <a:ext cx="609600" cy="211455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1237,7 +1264,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="769620"/>
+          <a:off x="0" y="760095"/>
           <a:ext cx="609600" cy="230505"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1267,7 +1294,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="769620"/>
+          <a:off x="0" y="760095"/>
           <a:ext cx="609600" cy="230505"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1492,7 +1519,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>26670</xdr:rowOff>
+      <xdr:rowOff>36195</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1543,7 +1570,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>26670</xdr:rowOff>
+      <xdr:rowOff>36195</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1594,7 +1621,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1645,7 +1672,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1696,7 +1723,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1747,7 +1774,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1809,7 +1836,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="769620"/>
+          <a:off x="0" y="760095"/>
           <a:ext cx="609600" cy="211455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1860,7 +1887,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="769620"/>
+          <a:off x="0" y="760095"/>
           <a:ext cx="609600" cy="211455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1911,7 +1938,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="769620"/>
+          <a:off x="0" y="760095"/>
           <a:ext cx="609600" cy="230505"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1962,7 +1989,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="769620"/>
+          <a:off x="0" y="760095"/>
           <a:ext cx="609600" cy="230505"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2122,7 +2149,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>411480</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2152,7 +2179,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2191,7 +2218,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2429510" y="769620"/>
+          <a:off x="2429510" y="760095"/>
           <a:ext cx="411480" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2221,7 +2248,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2429510" y="769620"/>
+          <a:off x="2429510" y="760095"/>
           <a:ext cx="342900" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2251,8 +2278,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2429510" y="962025"/>
-          <a:ext cx="411480" cy="201930"/>
+          <a:off x="2429510" y="952500"/>
+          <a:ext cx="411480" cy="211455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2281,8 +2308,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2429510" y="962025"/>
-          <a:ext cx="342900" cy="201930"/>
+          <a:off x="2429510" y="952500"/>
+          <a:ext cx="342900" cy="211455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2432,7 +2459,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2429510" y="1529715"/>
-          <a:ext cx="411480" cy="201930"/>
+          <a:ext cx="411480" cy="211455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2462,7 +2489,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2429510" y="1529715"/>
-          <a:ext cx="342900" cy="201930"/>
+          <a:ext cx="342900" cy="211455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2491,7 +2518,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2429510" y="1712595"/>
+          <a:off x="2429510" y="1722120"/>
           <a:ext cx="411480" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2521,7 +2548,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2429510" y="1712595"/>
+          <a:off x="2429510" y="1722120"/>
           <a:ext cx="342900" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2551,7 +2578,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2429510" y="1905000"/>
+          <a:off x="2429510" y="1914525"/>
           <a:ext cx="411480" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2581,7 +2608,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2429510" y="1905000"/>
+          <a:off x="2429510" y="1914525"/>
           <a:ext cx="342900" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2611,7 +2638,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2429510" y="2097405"/>
+          <a:off x="2429510" y="2106930"/>
           <a:ext cx="411480" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2641,7 +2668,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2429510" y="2097405"/>
+          <a:off x="2429510" y="2106930"/>
           <a:ext cx="342900" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2671,7 +2698,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2429510" y="2457450"/>
+          <a:off x="2429510" y="2466975"/>
           <a:ext cx="411480" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2701,7 +2728,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2429510" y="2457450"/>
+          <a:off x="2429510" y="2466975"/>
           <a:ext cx="342900" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2722,7 +2749,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>411480</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2731,7 +2758,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2429510" y="2649855"/>
+          <a:off x="2429510" y="2659380"/>
           <a:ext cx="411480" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2752,7 +2779,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2761,7 +2788,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2429510" y="2649855"/>
+          <a:off x="2429510" y="2659380"/>
           <a:ext cx="342900" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2935,7 +2962,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2986,7 +3013,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3048,7 +3075,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2429510" y="769620"/>
+          <a:off x="2429510" y="760095"/>
           <a:ext cx="504825" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3099,7 +3126,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2429510" y="769620"/>
+          <a:off x="2429510" y="760095"/>
           <a:ext cx="428625" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3150,8 +3177,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2429510" y="962025"/>
-          <a:ext cx="504825" cy="201930"/>
+          <a:off x="2429510" y="952500"/>
+          <a:ext cx="504825" cy="211455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3201,8 +3228,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2429510" y="962025"/>
-          <a:ext cx="428625" cy="201930"/>
+          <a:off x="2429510" y="952500"/>
+          <a:ext cx="428625" cy="211455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3457,7 +3484,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2429510" y="1529715"/>
-          <a:ext cx="504825" cy="201930"/>
+          <a:ext cx="504825" cy="211455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3508,7 +3535,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2429510" y="1529715"/>
-          <a:ext cx="428625" cy="201930"/>
+          <a:ext cx="428625" cy="211455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3558,7 +3585,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2429510" y="1712595"/>
+          <a:off x="2429510" y="1722120"/>
           <a:ext cx="504825" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3609,7 +3636,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2429510" y="1712595"/>
+          <a:off x="2429510" y="1722120"/>
           <a:ext cx="428625" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3660,7 +3687,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2429510" y="1905000"/>
+          <a:off x="2429510" y="1914525"/>
           <a:ext cx="504825" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3711,7 +3738,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2429510" y="1905000"/>
+          <a:off x="2429510" y="1914525"/>
           <a:ext cx="428625" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3762,7 +3789,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2429510" y="2097405"/>
+          <a:off x="2429510" y="2106930"/>
           <a:ext cx="504825" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3813,7 +3840,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2429510" y="2097405"/>
+          <a:off x="2429510" y="2106930"/>
           <a:ext cx="428625" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3864,7 +3891,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2429510" y="2457450"/>
+          <a:off x="2429510" y="2466975"/>
           <a:ext cx="504825" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3915,7 +3942,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2429510" y="2457450"/>
+          <a:off x="2429510" y="2466975"/>
           <a:ext cx="428625" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3955,7 +3982,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3966,7 +3993,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2429510" y="2649855"/>
+          <a:off x="2429510" y="2659380"/>
           <a:ext cx="504825" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4006,7 +4033,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4017,7 +4044,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2429510" y="2649855"/>
+          <a:off x="2429510" y="2659380"/>
           <a:ext cx="428625" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4310,7 +4337,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -4346,11 +4373,13 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" ht="15.15" spans="1:9">
       <c r="A2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -4369,12 +4398,15 @@
       </c>
       <c r="G2">
         <v>100</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
       </c>
       <c r="I2" s="4"/>
     </row>
     <row r="3" ht="15.15" spans="1:9">
       <c r="A3" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>100</v>
@@ -4392,25 +4424,28 @@
       <c r="F3" s="4">
         <v>100</v>
       </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" ht="15.15" spans="1:9">
+    <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F4" s="4"/>
       <c r="I4" s="4"/>
     </row>
     <row r="5" ht="15.15" spans="1:9">
       <c r="A5" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" ht="15.15" spans="1:8">
       <c r="A6" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>100</v>
@@ -4427,10 +4462,13 @@
       <c r="F6">
         <v>90</v>
       </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="7" ht="15.15" spans="1:7">
+    <row r="7" ht="15.15" spans="1:8">
       <c r="A7" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>100</v>
@@ -4450,10 +4488,13 @@
       <c r="G7">
         <v>100</v>
       </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="8" ht="15.15" spans="1:5">
+    <row r="8" ht="15.15" spans="1:8">
       <c r="A8" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B8">
         <v>100</v>
@@ -4467,10 +4508,13 @@
       <c r="E8">
         <v>100</v>
       </c>
+      <c r="H8" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" ht="15.15" spans="1:8">
       <c r="A9" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B9">
         <v>100</v>
@@ -4486,16 +4530,19 @@
       </c>
       <c r="G9">
         <v>100</v>
+      </c>
+      <c r="H9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="15.15" spans="1:1">
       <c r="A10" s="3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="11" ht="15.15" spans="1:7">
+    <row r="11" ht="15.15" spans="1:8">
       <c r="A11" s="3" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B11">
         <v>100</v>
@@ -4514,21 +4561,24 @@
       </c>
       <c r="G11">
         <v>100</v>
+      </c>
+      <c r="H11" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="12" ht="28.35" spans="1:1">
       <c r="A12" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" ht="15.15" spans="1:1">
       <c r="A13" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="14" ht="15.15" spans="1:3">
+    <row r="14" spans="1:8">
       <c r="A14" s="3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B14">
         <v>100</v>
@@ -4537,10 +4587,13 @@
         <f>100+10</f>
         <v>110</v>
       </c>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="15" ht="15.15" spans="1:1">
+    <row r="15" spans="1:1">
       <c r="A15" s="5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" ht="15.15" spans="1:1">

--- a/data/Classes_2025.xlsx
+++ b/data/Classes_2025.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24334"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Text\Lectures\Statistica\Mat_Met_Psychology\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{612D6E25-2399-4B4C-87B2-74DCAC16EF01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9324"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -21,16 +27,17 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Name</t>
   </si>
@@ -59,13 +66,7 @@
     <t>Авакян Кристина Зауровна</t>
   </si>
   <si>
-    <t>Вариант 1</t>
-  </si>
-  <si>
     <t>Васина Анна Дмитриевна</t>
-  </si>
-  <si>
-    <t>Вариант 2</t>
   </si>
   <si>
     <t>Дубинина Анна Сергеевна</t>
@@ -77,34 +78,19 @@
     <t>Емельянова Екатерина Викторовна</t>
   </si>
   <si>
-    <t>Вариант 3</t>
-  </si>
-  <si>
     <t>Ковалева Александра Борисовна</t>
-  </si>
-  <si>
-    <t>Вариант 4</t>
   </si>
   <si>
     <t>Кузнецов Никита Сергеевич</t>
   </si>
   <si>
-    <t>Вариант 5</t>
-  </si>
-  <si>
     <t>Куликова Светлана Сергеевна</t>
-  </si>
-  <si>
-    <t>Вариант 6</t>
   </si>
   <si>
     <t>Панкратова Ксения Артемовна</t>
   </si>
   <si>
     <t>Сарнэт Виктория Павловна</t>
-  </si>
-  <si>
-    <t>Вариант 7</t>
   </si>
   <si>
     <t>Синицкая Юлия Сергеевна (Захарова)</t>
@@ -116,25 +102,21 @@
     <t>Цуранова Елизавета Алексеевна</t>
   </si>
   <si>
-    <t>Вариант 8</t>
+    <t>Чернышова Александра Алексеевна</t>
   </si>
   <si>
-    <t>Чернышова Александра Алексеевна</t>
+    <t>ИТОГ (% от финальной оценки)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="dd\.mm\.yyyy"/>
-    <numFmt numFmtId="181" formatCode="0_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
+    <numFmt numFmtId="165" formatCode="0_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,159 +130,8 @@
       <name val="Helvetica"/>
       <charset val="204"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -319,194 +150,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -529,331 +174,45 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Запятая" xfId="1" builtinId="3"/>
-    <cellStyle name="Денежный" xfId="2" builtinId="4"/>
-    <cellStyle name="Процент" xfId="3" builtinId="5"/>
-    <cellStyle name="Запятая [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Денежный [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Гиперссылка" xfId="6" builtinId="8"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="7" builtinId="9"/>
-    <cellStyle name="Примечание" xfId="8" builtinId="10"/>
-    <cellStyle name="Предупреждающий текст" xfId="9" builtinId="11"/>
-    <cellStyle name="Заголовок" xfId="10" builtinId="15"/>
-    <cellStyle name="Пояснительный текст" xfId="11" builtinId="53"/>
-    <cellStyle name="Заголовок 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Заголовок 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Заголовок 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Заголовок 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Ввод" xfId="16" builtinId="20"/>
-    <cellStyle name="Вывод" xfId="17" builtinId="21"/>
-    <cellStyle name="Вычисление" xfId="18" builtinId="22"/>
-    <cellStyle name="Проверить ячейку" xfId="19" builtinId="23"/>
-    <cellStyle name="Связанная ячейка" xfId="20" builtinId="24"/>
-    <cellStyle name="Итого" xfId="21" builtinId="25"/>
-    <cellStyle name="Хороший" xfId="22" builtinId="26"/>
-    <cellStyle name="Плохой" xfId="23" builtinId="27"/>
-    <cellStyle name="Нейтральный" xfId="24" builtinId="28"/>
-    <cellStyle name="Акцент1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% — Акцент1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% — Акцент1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% — Акцент1" xfId="28" builtinId="32"/>
-    <cellStyle name="Акцент2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% — Акцент2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% — Акцент2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% — Акцент2" xfId="32" builtinId="36"/>
-    <cellStyle name="Акцент3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% — Акцент3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% — Акцент3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% — Акцент3" xfId="36" builtinId="40"/>
-    <cellStyle name="Акцент4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% — Акцент4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% — Акцент4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% — Акцент4" xfId="40" builtinId="44"/>
-    <cellStyle name="Акцент5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% — Акцент5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% — Акцент5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% — Акцент5" xfId="44" builtinId="48"/>
-    <cellStyle name="Акцент6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% — Акцент6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% — Акцент6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% — Акцент6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -867,9 +226,15 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Host Control  2" hidden="1"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Host Control  2" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -897,9 +262,15 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Host Control  3" hidden="1"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Host Control  3" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -927,9 +298,15 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Host Control  4" hidden="1"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Host Control  4" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -957,9 +334,15 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Host Control  5" hidden="1"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Host Control  5" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -987,9 +370,15 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Host Control  6" hidden="1"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Host Control  6" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1017,9 +406,15 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>36195</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Host Control  7" hidden="1"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Host Control  7" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1047,9 +442,15 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>36195</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Host Control  8" hidden="1"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Host Control  8" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1077,9 +478,15 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Host Control  9" hidden="1"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Host Control  9" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1107,9 +514,15 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Host Control  10" hidden="1"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Host Control  10" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1137,9 +550,15 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Host Control  11" hidden="1"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Host Control  11" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1167,9 +586,15 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Host Control  12" hidden="1"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Host Control  12" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1197,9 +622,15 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Host Control  13" hidden="1"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Host Control  13" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1227,9 +658,15 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Host Control  14" hidden="1"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Host Control  14" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1257,9 +694,15 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Host Control  15" hidden="1"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Host Control  15" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1287,9 +730,15 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="Host Control  16" hidden="1"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Host Control  16" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1317,9 +766,15 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Host Control  3"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Host Control  3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -1368,9 +823,15 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="Host Control  4"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Host Control  4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -1419,9 +880,15 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="Host Control  5"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Host Control  5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -1470,9 +937,15 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="Host Control  6"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Host Control  6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -1521,9 +994,15 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>36195</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="Host Control  7"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Host Control  7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -1572,9 +1051,15 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>36195</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="Host Control  8"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Host Control  8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -1623,9 +1108,15 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="Host Control  9"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Host Control  9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -1674,9 +1165,15 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="Host Control  10"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Host Control  10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -1725,9 +1222,15 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="Host Control  11"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Host Control  11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -1776,9 +1279,15 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="Host Control  12"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Host Control  12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -1827,9 +1336,15 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="Host Control  13"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Host Control  13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -1878,9 +1393,15 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="Host Control  14"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Host Control  14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -1929,9 +1450,15 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="Host Control  15"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Host Control  15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -1980,9 +1507,15 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="Host Control  16"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="Host Control  16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -2031,9 +1564,15 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1053" name="Host Control  29" hidden="1"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1053" name="Host Control  29" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2061,9 +1600,15 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1054" name="Host Control  30" hidden="1"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1054" name="Host Control  30" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2091,9 +1636,15 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1055" name="Host Control  31" hidden="1"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1055" name="Host Control  31" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2121,9 +1672,15 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1056" name="Host Control  32" hidden="1"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1056" name="Host Control  32" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2151,9 +1708,15 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1057" name="Host Control  33" hidden="1"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1057" name="Host Control  33" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2181,9 +1744,15 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1058" name="Host Control  34" hidden="1"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1058" name="Host Control  34" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2211,9 +1780,15 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1059" name="Host Control  35" hidden="1"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1059" name="Host Control  35" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2241,9 +1816,15 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1060" name="Host Control  36" hidden="1"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1060" name="Host Control  36" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2271,9 +1852,15 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1061" name="Host Control  37" hidden="1"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1061" name="Host Control  37" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2301,9 +1888,15 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1062" name="Host Control  38" hidden="1"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1062" name="Host Control  38" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2331,9 +1924,15 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1063" name="Host Control  39" hidden="1"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1063" name="Host Control  39" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2361,9 +1960,15 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1064" name="Host Control  40" hidden="1"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1064" name="Host Control  40" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2391,9 +1996,15 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1065" name="Host Control  41" hidden="1"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1065" name="Host Control  41" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2421,9 +2032,15 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1066" name="Host Control  42" hidden="1"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1066" name="Host Control  42" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2451,9 +2068,15 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1067" name="Host Control  43" hidden="1"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1067" name="Host Control  43" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2481,9 +2104,15 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1068" name="Host Control  44" hidden="1"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1068" name="Host Control  44" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2511,9 +2140,15 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1069" name="Host Control  45" hidden="1"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1069" name="Host Control  45" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2541,9 +2176,15 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1070" name="Host Control  46" hidden="1"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1070" name="Host Control  46" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2571,9 +2212,15 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1071" name="Host Control  47" hidden="1"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1071" name="Host Control  47" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2601,9 +2248,15 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1072" name="Host Control  48" hidden="1"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1072" name="Host Control  48" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2628,12 +2281,18 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>411480</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>192405</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1073" name="Host Control  49" hidden="1"/>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1073" name="Host Control  49" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2658,12 +2317,18 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>192405</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1074" name="Host Control  50" hidden="1"/>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1074" name="Host Control  50" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2691,9 +2356,15 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1075" name="Host Control  51" hidden="1"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1075" name="Host Control  51" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2721,9 +2392,15 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1076" name="Host Control  52" hidden="1"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1076" name="Host Control  52" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2751,9 +2428,15 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1077" name="Host Control  53" hidden="1"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1077" name="Host Control  53" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2781,9 +2464,15 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1078" name="Host Control  54" hidden="1"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1078" name="Host Control  54" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2811,9 +2500,15 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="Host Control  30"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="Host Control  30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -2862,9 +2557,15 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="Host Control  31"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="Host Control  31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -2913,9 +2614,15 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="Host Control  32"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="Host Control  32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -2964,9 +2671,15 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="Host Control  33"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="Host Control  33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -3015,9 +2728,15 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="Host Control  34"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="Host Control  34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -3066,9 +2785,15 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="Host Control  35"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="Host Control  35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -3117,9 +2842,15 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="Host Control  36"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="Host Control  36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -3168,9 +2899,15 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="Host Control  37"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="Host Control  37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -3219,9 +2956,15 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="Host Control  38"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="Host Control  38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -3270,9 +3013,15 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="Host Control  39"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="Host Control  39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -3321,9 +3070,15 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="Host Control  40"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="Host Control  40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -3372,9 +3127,15 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="Host Control  41"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="Host Control  41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -3423,9 +3184,15 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="Host Control  42"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="Host Control  42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -3474,9 +3241,15 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="Host Control  43"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="Host Control  43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -3525,9 +3298,15 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="Host Control  44"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="Host Control  44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -3576,9 +3355,15 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="Host Control  45"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="Host Control  45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -3627,9 +3412,15 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="Host Control  46"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="Host Control  46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -3678,9 +3469,15 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="Host Control  47"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="Host Control  47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -3729,9 +3526,15 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="Host Control  48"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="Host Control  48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -3777,12 +3580,18 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>238125</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="Host Control  49"/>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>55245</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="Host Control  49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -3828,12 +3637,18 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>238125</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="Host Control  50"/>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>55245</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="Host Control  50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -3882,9 +3697,15 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="Host Control  51"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="Host Control  51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -3933,9 +3754,15 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="Host Control  52"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="Host Control  52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -3984,9 +3811,15 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="55" name="Host Control  53"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="Host Control  53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -4035,9 +3868,15 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="Host Control  54"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="Host Control  54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -4328,30 +4167,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.4259259259259" customWidth="1"/>
-    <col min="2" max="2" width="30.5740740740741" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="5" max="5" width="19.5740740740741" customWidth="1"/>
-    <col min="6" max="6" width="28" customWidth="1"/>
-    <col min="9" max="9" width="29.1388888888889" customWidth="1"/>
-    <col min="10" max="10" width="22.287037037037" customWidth="1"/>
+    <col min="1" max="1" width="42.21875" customWidth="1"/>
+    <col min="2" max="2" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.109375" customWidth="1"/>
+    <col min="10" max="10" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.15" spans="1:8">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4376,8 +4213,11 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" ht="15.15" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -4399,14 +4239,14 @@
       <c r="G2">
         <v>100</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" s="4">
+        <f>SUM(B2:H2)/700*100*0.2</f>
+        <v>17.714285714285715</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="3" ht="15.15" spans="1:9">
-      <c r="A3" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="B3">
         <v>100</v>
@@ -4424,28 +4264,37 @@
       <c r="F3" s="4">
         <v>100</v>
       </c>
-      <c r="H3" t="s">
+      <c r="G3">
+        <v>100</v>
+      </c>
+      <c r="I3" s="4">
+        <f t="shared" ref="I3:I14" si="0">SUM(B3:H3)/700*100*0.2</f>
+        <v>17.714285714285715</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="I4" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="I5" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="3" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" ht="15.15" spans="1:9">
-      <c r="A5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" ht="15.15" spans="1:8">
-      <c r="A6" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="B6">
         <v>100</v>
@@ -4462,13 +4311,17 @@
       <c r="F6">
         <v>90</v>
       </c>
-      <c r="H6" t="s">
-        <v>15</v>
+      <c r="G6">
+        <v>100</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="0"/>
+        <v>15.428571428571431</v>
       </c>
     </row>
-    <row r="7" ht="15.15" spans="1:8">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>100</v>
@@ -4488,13 +4341,17 @@
       <c r="G7">
         <v>100</v>
       </c>
-      <c r="H7" t="s">
-        <v>17</v>
+      <c r="H7">
+        <v>100</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="0"/>
+        <v>21.714285714285715</v>
       </c>
     </row>
-    <row r="8" ht="15.15" spans="1:8">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>100</v>
@@ -4508,13 +4365,17 @@
       <c r="E8">
         <v>100</v>
       </c>
-      <c r="H8" t="s">
-        <v>19</v>
+      <c r="F8" s="4">
+        <v>100</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="0"/>
+        <v>15.142857142857142</v>
       </c>
     </row>
-    <row r="9" ht="15.15" spans="1:8">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>100</v>
@@ -4525,24 +4386,35 @@
       <c r="D9">
         <v>130</v>
       </c>
+      <c r="E9">
+        <v>100</v>
+      </c>
       <c r="F9">
         <v>100</v>
       </c>
       <c r="G9">
         <v>100</v>
       </c>
-      <c r="H9" t="s">
-        <v>21</v>
+      <c r="H9">
+        <v>100</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="0"/>
+        <v>21.714285714285715</v>
       </c>
     </row>
-    <row r="10" ht="15.15" spans="1:1">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="11" ht="15.15" spans="1:8">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B11">
         <v>100</v>
@@ -4562,23 +4434,32 @@
       <c r="G11">
         <v>100</v>
       </c>
-      <c r="H11" t="s">
-        <v>24</v>
+      <c r="I11" s="4">
+        <f t="shared" si="0"/>
+        <v>17.142857142857142</v>
       </c>
     </row>
-    <row r="12" ht="28.35" spans="1:1">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>25</v>
+        <v>18</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="13" ht="15.15" spans="1:1">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B14">
         <v>100</v>
@@ -4587,24 +4468,22 @@
         <f>100+10</f>
         <v>110</v>
       </c>
-      <c r="H14" t="s">
-        <v>28</v>
+      <c r="I14" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="16" ht="15.15" spans="1:1">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:B15" etc:filterBottomFollowUsedRange="0">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:B15" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/Classes_2025.xlsx
+++ b/data/Classes_2025.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24334"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Text\Lectures\Statistica\Mat_Met_Psychology\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{612D6E25-2399-4B4C-87B2-74DCAC16EF01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="22188" windowHeight="9324"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -27,10 +21,9 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
-    </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -61,6 +54,9 @@
   </si>
   <si>
     <t>HW_7</t>
+  </si>
+  <si>
+    <t>ИТОГ (% от финальной оценки)</t>
   </si>
   <si>
     <t>Авакян Кристина Зауровна</t>
@@ -104,19 +100,20 @@
   <si>
     <t>Чернышова Александра Алексеевна</t>
   </si>
-  <si>
-    <t>ИТОГ (% от финальной оценки)</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
-    <numFmt numFmtId="165" formatCode="0_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="dd\.mm\.yyyy"/>
+    <numFmt numFmtId="181" formatCode="0_ "/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,8 +127,159 @@
       <name val="Helvetica"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -150,8 +298,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -174,45 +508,331 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Запятая" xfId="1" builtinId="3"/>
+    <cellStyle name="Денежный" xfId="2" builtinId="4"/>
+    <cellStyle name="Процент" xfId="3" builtinId="5"/>
+    <cellStyle name="Запятая [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Денежный [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Гиперссылка" xfId="6" builtinId="8"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="7" builtinId="9"/>
+    <cellStyle name="Примечание" xfId="8" builtinId="10"/>
+    <cellStyle name="Предупреждающий текст" xfId="9" builtinId="11"/>
+    <cellStyle name="Заголовок" xfId="10" builtinId="15"/>
+    <cellStyle name="Пояснительный текст" xfId="11" builtinId="53"/>
+    <cellStyle name="Заголовок 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Заголовок 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Заголовок 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Заголовок 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Ввод" xfId="16" builtinId="20"/>
+    <cellStyle name="Вывод" xfId="17" builtinId="21"/>
+    <cellStyle name="Вычисление" xfId="18" builtinId="22"/>
+    <cellStyle name="Проверить ячейку" xfId="19" builtinId="23"/>
+    <cellStyle name="Связанная ячейка" xfId="20" builtinId="24"/>
+    <cellStyle name="Итого" xfId="21" builtinId="25"/>
+    <cellStyle name="Хороший" xfId="22" builtinId="26"/>
+    <cellStyle name="Плохой" xfId="23" builtinId="27"/>
+    <cellStyle name="Нейтральный" xfId="24" builtinId="28"/>
+    <cellStyle name="Акцент1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% — Акцент1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% — Акцент1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% — Акцент1" xfId="28" builtinId="32"/>
+    <cellStyle name="Акцент2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% — Акцент2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% — Акцент2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% — Акцент2" xfId="32" builtinId="36"/>
+    <cellStyle name="Акцент3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% — Акцент3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% — Акцент3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% — Акцент3" xfId="36" builtinId="40"/>
+    <cellStyle name="Акцент4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% — Акцент4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% — Акцент4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% — Акцент4" xfId="40" builtinId="44"/>
+    <cellStyle name="Акцент5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% — Акцент5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% — Акцент5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% — Акцент5" xfId="44" builtinId="48"/>
+    <cellStyle name="Акцент6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% — Акцент6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% — Акцент6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% — Акцент6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -224,17 +844,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Host Control  2" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Host Control  2" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -262,20 +876,14 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Host Control  3" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Host Control  3" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="384810"/>
+          <a:off x="0" y="375285"/>
           <a:ext cx="609600" cy="211455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -298,20 +906,14 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Host Control  4" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Host Control  4" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="384810"/>
+          <a:off x="0" y="375285"/>
           <a:ext cx="609600" cy="211455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -334,20 +936,14 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Host Control  5" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Host Control  5" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="384810"/>
+          <a:off x="0" y="375285"/>
           <a:ext cx="609600" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -370,20 +966,14 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Host Control  6" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Host Control  6" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="384810"/>
+          <a:off x="0" y="375285"/>
           <a:ext cx="609600" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -406,21 +996,15 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>36195</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Host Control  7" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Host Control  7" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="577215"/>
-          <a:ext cx="609600" cy="219075"/>
+          <a:off x="0" y="567690"/>
+          <a:ext cx="609600" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -442,21 +1026,15 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>36195</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Host Control  8" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Host Control  8" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="577215"/>
-          <a:ext cx="609600" cy="219075"/>
+          <a:off x="0" y="567690"/>
+          <a:ext cx="609600" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -478,21 +1056,15 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Host Control  9" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Host Control  9" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="577215"/>
-          <a:ext cx="609600" cy="211455"/>
+          <a:off x="0" y="567690"/>
+          <a:ext cx="609600" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -514,21 +1086,15 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Host Control  10" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Host Control  10" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="577215"/>
-          <a:ext cx="609600" cy="211455"/>
+          <a:off x="0" y="567690"/>
+          <a:ext cx="609600" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -550,21 +1116,15 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Host Control  11" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Host Control  11" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="577215"/>
-          <a:ext cx="609600" cy="211455"/>
+          <a:off x="0" y="567690"/>
+          <a:ext cx="609600" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -586,21 +1146,15 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Host Control  12" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Host Control  12" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="577215"/>
-          <a:ext cx="609600" cy="211455"/>
+          <a:off x="0" y="567690"/>
+          <a:ext cx="609600" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -622,15 +1176,9 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Host Control  13" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Host Control  13" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -658,15 +1206,9 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Host Control  14" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Host Control  14" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -694,15 +1236,9 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Host Control  15" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Host Control  15" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -730,15 +1266,9 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="Host Control  16" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Host Control  16" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -766,22 +1296,16 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Host Control  3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Host Control  3"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="384810"/>
+          <a:off x="0" y="375285"/>
           <a:ext cx="609600" cy="211455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -823,22 +1347,16 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="Host Control  4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Host Control  4"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="384810"/>
+          <a:off x="0" y="375285"/>
           <a:ext cx="609600" cy="211455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -880,22 +1398,16 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="Host Control  5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Host Control  5"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="384810"/>
+          <a:off x="0" y="375285"/>
           <a:ext cx="609600" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -937,22 +1449,16 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="Host Control  6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Host Control  6"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="384810"/>
+          <a:off x="0" y="375285"/>
           <a:ext cx="609600" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -994,23 +1500,17 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>36195</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="Host Control  7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Host Control  7"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="577215"/>
-          <a:ext cx="609600" cy="219075"/>
+          <a:off x="0" y="567690"/>
+          <a:ext cx="609600" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1051,23 +1551,17 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>36195</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="Host Control  8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Host Control  8"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="577215"/>
-          <a:ext cx="609600" cy="219075"/>
+          <a:off x="0" y="567690"/>
+          <a:ext cx="609600" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1108,23 +1602,17 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="Host Control  9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Host Control  9"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="577215"/>
-          <a:ext cx="609600" cy="211455"/>
+          <a:off x="0" y="567690"/>
+          <a:ext cx="609600" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1165,23 +1653,17 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="Host Control  10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Host Control  10"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="577215"/>
-          <a:ext cx="609600" cy="211455"/>
+          <a:off x="0" y="567690"/>
+          <a:ext cx="609600" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1222,23 +1704,17 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="Host Control  11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Host Control  11"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="577215"/>
-          <a:ext cx="609600" cy="211455"/>
+          <a:off x="0" y="567690"/>
+          <a:ext cx="609600" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1279,23 +1755,17 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="Host Control  12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Host Control  12"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="577215"/>
-          <a:ext cx="609600" cy="211455"/>
+          <a:off x="0" y="567690"/>
+          <a:ext cx="609600" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1336,15 +1806,9 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="Host Control  13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Host Control  13"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -1393,15 +1857,9 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="Host Control  14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Host Control  14"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -1450,15 +1908,9 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="Host Control  15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Host Control  15"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -1507,15 +1959,9 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="Host Control  16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="Host Control  16"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -1562,22 +2008,16 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>411480</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1053" name="Host Control  29" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1053" name="Host Control  29" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2429510" y="192405"/>
+          <a:off x="2895600" y="192405"/>
           <a:ext cx="411480" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1598,22 +2038,16 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1054" name="Host Control  30" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1054" name="Host Control  30" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2429510" y="192405"/>
+          <a:off x="2895600" y="192405"/>
           <a:ext cx="342900" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1636,20 +2070,14 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1055" name="Host Control  31" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1055" name="Host Control  31" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2429510" y="384810"/>
+          <a:off x="2895600" y="375285"/>
           <a:ext cx="411480" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1672,20 +2100,14 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1056" name="Host Control  32" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1056" name="Host Control  32" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2429510" y="384810"/>
+          <a:off x="2895600" y="375285"/>
           <a:ext cx="342900" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1708,21 +2130,15 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1057" name="Host Control  33" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1057" name="Host Control  33" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2429510" y="577215"/>
-          <a:ext cx="411480" cy="192405"/>
+          <a:off x="2895600" y="567690"/>
+          <a:ext cx="411480" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1744,21 +2160,15 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1058" name="Host Control  34" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1058" name="Host Control  34" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2429510" y="577215"/>
-          <a:ext cx="342900" cy="192405"/>
+          <a:off x="2895600" y="567690"/>
+          <a:ext cx="342900" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1780,20 +2190,14 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1059" name="Host Control  35" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1059" name="Host Control  35" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2429510" y="760095"/>
+          <a:off x="2895600" y="760095"/>
           <a:ext cx="411480" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1816,20 +2220,14 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1060" name="Host Control  36" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1060" name="Host Control  36" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2429510" y="760095"/>
+          <a:off x="2895600" y="760095"/>
           <a:ext cx="342900" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1852,20 +2250,14 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1061" name="Host Control  37" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1061" name="Host Control  37" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2429510" y="952500"/>
+          <a:off x="2895600" y="952500"/>
           <a:ext cx="411480" cy="211455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1888,20 +2280,14 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1062" name="Host Control  38" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1062" name="Host Control  38" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2429510" y="952500"/>
+          <a:off x="2895600" y="952500"/>
           <a:ext cx="342900" cy="211455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1924,20 +2310,14 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1063" name="Host Control  39" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1063" name="Host Control  39" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2429510" y="1144905"/>
+          <a:off x="2895600" y="1144905"/>
           <a:ext cx="411480" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1960,20 +2340,14 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1064" name="Host Control  40" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1064" name="Host Control  40" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2429510" y="1144905"/>
+          <a:off x="2895600" y="1144905"/>
           <a:ext cx="342900" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1996,20 +2370,14 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1065" name="Host Control  41" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1065" name="Host Control  41" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2429510" y="1337310"/>
+          <a:off x="2895600" y="1337310"/>
           <a:ext cx="411480" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2032,20 +2400,14 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1066" name="Host Control  42" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1066" name="Host Control  42" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2429510" y="1337310"/>
+          <a:off x="2895600" y="1337310"/>
           <a:ext cx="342900" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2068,20 +2430,14 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1067" name="Host Control  43" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1067" name="Host Control  43" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2429510" y="1529715"/>
+          <a:off x="2895600" y="1529715"/>
           <a:ext cx="411480" cy="211455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2104,20 +2460,14 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1068" name="Host Control  44" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1068" name="Host Control  44" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2429510" y="1529715"/>
+          <a:off x="2895600" y="1529715"/>
           <a:ext cx="342900" cy="211455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2140,20 +2490,14 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1069" name="Host Control  45" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1069" name="Host Control  45" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2429510" y="1722120"/>
+          <a:off x="2895600" y="1722120"/>
           <a:ext cx="411480" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2176,20 +2520,14 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1070" name="Host Control  46" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1070" name="Host Control  46" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2429510" y="1722120"/>
+          <a:off x="2895600" y="1722120"/>
           <a:ext cx="342900" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2212,20 +2550,14 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1071" name="Host Control  47" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1071" name="Host Control  47" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2429510" y="1914525"/>
+          <a:off x="2895600" y="1914525"/>
           <a:ext cx="411480" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2248,20 +2580,14 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1072" name="Host Control  48" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1072" name="Host Control  48" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2429510" y="1914525"/>
+          <a:off x="2895600" y="1914525"/>
           <a:ext cx="342900" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2284,21 +2610,15 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1073" name="Host Control  49" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1073" name="Host Control  49" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2429510" y="2106930"/>
-          <a:ext cx="411480" cy="192405"/>
+          <a:off x="2895600" y="2106930"/>
+          <a:ext cx="411480" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2320,21 +2640,15 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1074" name="Host Control  50" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1074" name="Host Control  50" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2429510" y="2106930"/>
-          <a:ext cx="342900" cy="192405"/>
+          <a:off x="2895600" y="2106930"/>
+          <a:ext cx="342900" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2356,20 +2670,14 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1075" name="Host Control  51" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1075" name="Host Control  51" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2429510" y="2466975"/>
+          <a:off x="2895600" y="2299335"/>
           <a:ext cx="411480" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2392,20 +2700,14 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1076" name="Host Control  52" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1076" name="Host Control  52" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2429510" y="2466975"/>
+          <a:off x="2895600" y="2299335"/>
           <a:ext cx="342900" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2428,21 +2730,15 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1077" name="Host Control  53" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1077" name="Host Control  53" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2429510" y="2659380"/>
-          <a:ext cx="411480" cy="201930"/>
+          <a:off x="2895600" y="2491740"/>
+          <a:ext cx="411480" cy="211455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2464,21 +2760,15 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1078" name="Host Control  54" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1078" name="Host Control  54" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2429510" y="2659380"/>
-          <a:ext cx="342900" cy="201930"/>
+          <a:off x="2895600" y="2491740"/>
+          <a:ext cx="342900" cy="211455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2498,24 +2788,18 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="Host Control  30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="Host Control  30"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2429510" y="192405"/>
+          <a:off x="2895600" y="192405"/>
           <a:ext cx="428625" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2557,22 +2841,16 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="Host Control  31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="Host Control  31"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2429510" y="384810"/>
+          <a:off x="2895600" y="375285"/>
           <a:ext cx="504825" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2614,22 +2892,16 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="Host Control  32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="Host Control  32"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2429510" y="384810"/>
+          <a:off x="2895600" y="375285"/>
           <a:ext cx="428625" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2671,23 +2943,17 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="Host Control  33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="Host Control  33"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2429510" y="577215"/>
-          <a:ext cx="504825" cy="192405"/>
+          <a:off x="2895600" y="567690"/>
+          <a:ext cx="504825" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2728,23 +2994,17 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="Host Control  34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="Host Control  34"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2429510" y="577215"/>
-          <a:ext cx="428625" cy="192405"/>
+          <a:off x="2895600" y="567690"/>
+          <a:ext cx="428625" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2785,22 +3045,16 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="Host Control  35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="Host Control  35"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2429510" y="760095"/>
+          <a:off x="2895600" y="760095"/>
           <a:ext cx="504825" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2842,22 +3096,16 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="Host Control  36">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="Host Control  36"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2429510" y="760095"/>
+          <a:off x="2895600" y="760095"/>
           <a:ext cx="428625" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2899,22 +3147,16 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="Host Control  37">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="Host Control  37"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2429510" y="952500"/>
+          <a:off x="2895600" y="952500"/>
           <a:ext cx="504825" cy="211455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2956,22 +3198,16 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="Host Control  38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="Host Control  38"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2429510" y="952500"/>
+          <a:off x="2895600" y="952500"/>
           <a:ext cx="428625" cy="211455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3013,22 +3249,16 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="Host Control  39">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="Host Control  39"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2429510" y="1144905"/>
+          <a:off x="2895600" y="1144905"/>
           <a:ext cx="504825" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3070,22 +3300,16 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="Host Control  40">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="Host Control  40"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2429510" y="1144905"/>
+          <a:off x="2895600" y="1144905"/>
           <a:ext cx="428625" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3127,22 +3351,16 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="Host Control  41">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="Host Control  41"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2429510" y="1337310"/>
+          <a:off x="2895600" y="1337310"/>
           <a:ext cx="504825" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3184,22 +3402,16 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="Host Control  42">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="Host Control  42"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2429510" y="1337310"/>
+          <a:off x="2895600" y="1337310"/>
           <a:ext cx="428625" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3241,22 +3453,16 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="Host Control  43">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="Host Control  43"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2429510" y="1529715"/>
+          <a:off x="2895600" y="1529715"/>
           <a:ext cx="504825" cy="211455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3298,22 +3504,16 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="Host Control  44">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="Host Control  44"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2429510" y="1529715"/>
+          <a:off x="2895600" y="1529715"/>
           <a:ext cx="428625" cy="211455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3355,22 +3555,16 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="Host Control  45">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="Host Control  45"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2429510" y="1722120"/>
+          <a:off x="2895600" y="1722120"/>
           <a:ext cx="504825" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3412,22 +3606,16 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="Host Control  46">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="Host Control  46"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2429510" y="1722120"/>
+          <a:off x="2895600" y="1722120"/>
           <a:ext cx="428625" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3469,22 +3657,16 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="Host Control  47">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="Host Control  47"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2429510" y="1914525"/>
+          <a:off x="2895600" y="1914525"/>
           <a:ext cx="504825" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3526,22 +3708,16 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="Host Control  48">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="Host Control  48"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2429510" y="1914525"/>
+          <a:off x="2895600" y="1914525"/>
           <a:ext cx="428625" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3583,23 +3759,17 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>55245</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="Host Control  49">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="Host Control  49"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2429510" y="2106930"/>
-          <a:ext cx="504825" cy="238125"/>
+          <a:off x="2895600" y="2106930"/>
+          <a:ext cx="504825" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3640,23 +3810,17 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>55245</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="Host Control  50">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="Host Control  50"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2429510" y="2106930"/>
-          <a:ext cx="428625" cy="238125"/>
+          <a:off x="2895600" y="2106930"/>
+          <a:ext cx="428625" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3697,22 +3861,16 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="Host Control  51">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="Host Control  51"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2429510" y="2466975"/>
+          <a:off x="2895600" y="2299335"/>
           <a:ext cx="504825" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3754,22 +3912,16 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="Host Control  52">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="Host Control  52"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2429510" y="2466975"/>
+          <a:off x="2895600" y="2299335"/>
           <a:ext cx="428625" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3811,23 +3963,17 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="55" name="Host Control  53">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="Host Control  53"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2429510" y="2659380"/>
-          <a:ext cx="504825" cy="201930"/>
+          <a:off x="2895600" y="2491740"/>
+          <a:ext cx="504825" cy="211455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3868,23 +4014,17 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="Host Control  54">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="Host Control  54"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2429510" y="2659380"/>
-          <a:ext cx="428625" cy="201930"/>
+          <a:off x="2895600" y="2491740"/>
+          <a:ext cx="428625" cy="211455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4167,28 +4307,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="42.21875" customWidth="1"/>
-    <col min="2" max="2" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.109375" customWidth="1"/>
-    <col min="10" max="10" width="22.33203125" customWidth="1"/>
+    <col min="1" max="1" width="42.2222222222222" customWidth="1"/>
+    <col min="2" max="2" width="8.22222222222222" customWidth="1"/>
+    <col min="3" max="6" width="6" customWidth="1"/>
+    <col min="9" max="9" width="29.1111111111111" customWidth="1"/>
+    <col min="10" max="10" width="22.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" ht="15.15" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4214,12 +4354,12 @@
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -4239,14 +4379,17 @@
       <c r="G2">
         <v>100</v>
       </c>
+      <c r="H2">
+        <v>100</v>
+      </c>
       <c r="I2" s="4">
         <f>SUM(B2:H2)/700*100*0.2</f>
-        <v>17.714285714285715</v>
+        <v>20.5714285714286</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" ht="15.15" spans="1:9">
       <c r="A3" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>100</v>
@@ -4269,12 +4412,12 @@
       </c>
       <c r="I3" s="4">
         <f t="shared" ref="I3:I14" si="0">SUM(B3:H3)/700*100*0.2</f>
-        <v>17.714285714285715</v>
+        <v>17.7142857142857</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" ht="15.15" spans="1:9">
       <c r="A4" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" s="4"/>
       <c r="I4" s="4">
@@ -4282,9 +4425,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" ht="15.15" spans="1:9">
       <c r="A5" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" s="4"/>
       <c r="I5" s="4">
@@ -4292,9 +4435,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" ht="15.15" spans="1:9">
       <c r="A6" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>100</v>
@@ -4316,12 +4459,12 @@
       </c>
       <c r="I6" s="4">
         <f t="shared" si="0"/>
-        <v>15.428571428571431</v>
+        <v>15.4285714285714</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" ht="15.15" spans="1:9">
       <c r="A7" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>100</v>
@@ -4346,12 +4489,12 @@
       </c>
       <c r="I7" s="4">
         <f t="shared" si="0"/>
-        <v>21.714285714285715</v>
+        <v>21.7142857142857</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" ht="15.15" spans="1:9">
       <c r="A8" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>100</v>
@@ -4370,12 +4513,12 @@
       </c>
       <c r="I8" s="4">
         <f t="shared" si="0"/>
-        <v>15.142857142857142</v>
+        <v>15.1428571428571</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" ht="15.15" spans="1:9">
       <c r="A9" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>100</v>
@@ -4400,21 +4543,21 @@
       </c>
       <c r="I9" s="4">
         <f t="shared" si="0"/>
-        <v>21.714285714285715</v>
+        <v>21.7142857142857</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" ht="15.15" spans="1:9">
       <c r="A10" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I10" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" ht="15.15" spans="1:9">
       <c r="A11" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11">
         <v>100</v>
@@ -4436,30 +4579,30 @@
       </c>
       <c r="I11" s="4">
         <f t="shared" si="0"/>
-        <v>17.142857142857142</v>
+        <v>17.1428571428571</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" ht="15.15" spans="1:9">
       <c r="A12" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I12" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" ht="15.15" spans="1:9">
       <c r="A13" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I13" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" ht="15.15" spans="1:9">
       <c r="A14" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14">
         <v>100</v>
@@ -4473,17 +4616,20 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" ht="15.15" spans="1:1">
       <c r="A15" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" ht="15.15" spans="1:1">
       <c r="A16" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B15" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:B15" etc:filterBottomFollowUsedRange="0">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/Classes_2025.xlsx
+++ b/data/Classes_2025.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
   <si>
     <t>Name</t>
   </si>
@@ -56,10 +56,31 @@
     <t>HW_7</t>
   </si>
   <si>
-    <t>ИТОГ (% от финальной оценки)</t>
+    <t>Summary_HW</t>
+  </si>
+  <si>
+    <t>Projects</t>
+  </si>
+  <si>
+    <t>Summary_Project</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Summary_Test</t>
+  </si>
+  <si>
+    <t>Final_Summary</t>
+  </si>
+  <si>
+    <t>Final_Score</t>
   </si>
   <si>
     <t>Авакян Кристина Зауровна</t>
+  </si>
+  <si>
+    <t>Отлично</t>
   </si>
   <si>
     <t>Васина Анна Дмитриевна</t>
@@ -68,7 +89,13 @@
     <t>Дубинина Анна Сергеевна</t>
   </si>
   <si>
+    <t>Хорошо</t>
+  </si>
+  <si>
     <t>Егорова Татьяна Андреевна</t>
+  </si>
+  <si>
+    <t>Удовлетворительно</t>
   </si>
   <si>
     <t>Емельянова Екатерина Викторовна</t>
@@ -84,6 +111,9 @@
   </si>
   <si>
     <t>Панкратова Ксения Артемовна</t>
+  </si>
+  <si>
+    <t>Не зачтено</t>
   </si>
   <si>
     <t>Сарнэт Виктория Павловна</t>
@@ -279,7 +309,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -295,6 +325,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFBBBBBB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -630,7 +666,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -654,16 +690,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -672,89 +708,89 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -770,6 +806,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -854,7 +891,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="192405"/>
-          <a:ext cx="609600" cy="211455"/>
+          <a:ext cx="609600" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -883,7 +920,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="375285"/>
+          <a:off x="0" y="384810"/>
           <a:ext cx="609600" cy="211455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -913,7 +950,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="375285"/>
+          <a:off x="0" y="384810"/>
           <a:ext cx="609600" cy="211455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -943,7 +980,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="375285"/>
+          <a:off x="0" y="384810"/>
           <a:ext cx="609600" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -973,7 +1010,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="375285"/>
+          <a:off x="0" y="384810"/>
           <a:ext cx="609600" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1003,7 +1040,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="567690"/>
+          <a:off x="0" y="577215"/>
           <a:ext cx="609600" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1033,7 +1070,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="567690"/>
+          <a:off x="0" y="577215"/>
           <a:ext cx="609600" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1063,7 +1100,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="567690"/>
+          <a:off x="0" y="577215"/>
           <a:ext cx="609600" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1093,7 +1130,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="567690"/>
+          <a:off x="0" y="577215"/>
           <a:ext cx="609600" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1123,7 +1160,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="567690"/>
+          <a:off x="0" y="577215"/>
           <a:ext cx="609600" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1153,7 +1190,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="567690"/>
+          <a:off x="0" y="577215"/>
           <a:ext cx="609600" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1183,7 +1220,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="760095"/>
+          <a:off x="0" y="769620"/>
           <a:ext cx="609600" cy="211455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1213,7 +1250,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="760095"/>
+          <a:off x="0" y="769620"/>
           <a:ext cx="609600" cy="211455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1243,7 +1280,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="760095"/>
+          <a:off x="0" y="769620"/>
           <a:ext cx="609600" cy="230505"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1273,7 +1310,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="760095"/>
+          <a:off x="0" y="769620"/>
           <a:ext cx="609600" cy="230505"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1305,7 +1342,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="375285"/>
+          <a:off x="0" y="384810"/>
           <a:ext cx="609600" cy="211455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1356,7 +1393,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="375285"/>
+          <a:off x="0" y="384810"/>
           <a:ext cx="609600" cy="211455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1407,7 +1444,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="375285"/>
+          <a:off x="0" y="384810"/>
           <a:ext cx="609600" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1458,7 +1495,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="375285"/>
+          <a:off x="0" y="384810"/>
           <a:ext cx="609600" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1509,7 +1546,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="567690"/>
+          <a:off x="0" y="577215"/>
           <a:ext cx="609600" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1560,7 +1597,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="567690"/>
+          <a:off x="0" y="577215"/>
           <a:ext cx="609600" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1611,7 +1648,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="567690"/>
+          <a:off x="0" y="577215"/>
           <a:ext cx="609600" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1662,7 +1699,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="567690"/>
+          <a:off x="0" y="577215"/>
           <a:ext cx="609600" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1713,7 +1750,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="567690"/>
+          <a:off x="0" y="577215"/>
           <a:ext cx="609600" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1764,7 +1801,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="567690"/>
+          <a:off x="0" y="577215"/>
           <a:ext cx="609600" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1815,7 +1852,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="760095"/>
+          <a:off x="0" y="769620"/>
           <a:ext cx="609600" cy="211455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1866,7 +1903,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="760095"/>
+          <a:off x="0" y="769620"/>
           <a:ext cx="609600" cy="211455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1917,7 +1954,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="760095"/>
+          <a:off x="0" y="769620"/>
           <a:ext cx="609600" cy="230505"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1968,7 +2005,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="760095"/>
+          <a:off x="0" y="769620"/>
           <a:ext cx="609600" cy="230505"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2018,7 +2055,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2895600" y="192405"/>
-          <a:ext cx="411480" cy="192405"/>
+          <a:ext cx="411480" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2048,7 +2085,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2895600" y="192405"/>
-          <a:ext cx="342900" cy="192405"/>
+          <a:ext cx="342900" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2077,7 +2114,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2895600" y="375285"/>
+          <a:off x="2895600" y="384810"/>
           <a:ext cx="411480" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2107,7 +2144,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2895600" y="375285"/>
+          <a:off x="2895600" y="384810"/>
           <a:ext cx="342900" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2137,7 +2174,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2895600" y="567690"/>
+          <a:off x="2895600" y="577215"/>
           <a:ext cx="411480" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2167,7 +2204,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2895600" y="567690"/>
+          <a:off x="2895600" y="577215"/>
           <a:ext cx="342900" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2197,7 +2234,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2895600" y="760095"/>
+          <a:off x="2895600" y="769620"/>
           <a:ext cx="411480" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2227,7 +2264,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2895600" y="760095"/>
+          <a:off x="2895600" y="769620"/>
           <a:ext cx="342900" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2257,7 +2294,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2895600" y="952500"/>
+          <a:off x="2895600" y="962025"/>
           <a:ext cx="411480" cy="211455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2287,7 +2324,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2895600" y="952500"/>
+          <a:off x="2895600" y="962025"/>
           <a:ext cx="342900" cy="211455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2308,7 +2345,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>411480</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2317,7 +2354,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2895600" y="1144905"/>
+          <a:off x="2895600" y="1154430"/>
           <a:ext cx="411480" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2338,7 +2375,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2347,7 +2384,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2895600" y="1144905"/>
+          <a:off x="2895600" y="1154430"/>
           <a:ext cx="342900" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2428,7 +2465,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>411480</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2458,7 +2495,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2497,7 +2534,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2895600" y="1722120"/>
+          <a:off x="2895600" y="1712595"/>
           <a:ext cx="411480" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2527,7 +2564,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2895600" y="1722120"/>
+          <a:off x="2895600" y="1712595"/>
           <a:ext cx="342900" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2557,7 +2594,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2895600" y="1914525"/>
+          <a:off x="2895600" y="1905000"/>
           <a:ext cx="411480" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2587,7 +2624,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2895600" y="1914525"/>
+          <a:off x="2895600" y="1905000"/>
           <a:ext cx="342900" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2617,7 +2654,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2895600" y="2106930"/>
+          <a:off x="2895600" y="2097405"/>
           <a:ext cx="411480" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2647,7 +2684,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2895600" y="2106930"/>
+          <a:off x="2895600" y="2097405"/>
           <a:ext cx="342900" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2677,7 +2714,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2895600" y="2299335"/>
+          <a:off x="2895600" y="2289810"/>
           <a:ext cx="411480" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2707,7 +2744,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2895600" y="2299335"/>
+          <a:off x="2895600" y="2289810"/>
           <a:ext cx="342900" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2737,7 +2774,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2895600" y="2491740"/>
+          <a:off x="2895600" y="2482215"/>
           <a:ext cx="411480" cy="211455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2767,7 +2804,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2895600" y="2491740"/>
+          <a:off x="2895600" y="2482215"/>
           <a:ext cx="342900" cy="211455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2800,7 +2837,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2895600" y="192405"/>
-          <a:ext cx="428625" cy="192405"/>
+          <a:ext cx="428625" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2850,7 +2887,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2895600" y="375285"/>
+          <a:off x="2895600" y="384810"/>
           <a:ext cx="504825" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2901,7 +2938,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2895600" y="375285"/>
+          <a:off x="2895600" y="384810"/>
           <a:ext cx="428625" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2952,7 +2989,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2895600" y="567690"/>
+          <a:off x="2895600" y="577215"/>
           <a:ext cx="504825" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3003,7 +3040,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2895600" y="567690"/>
+          <a:off x="2895600" y="577215"/>
           <a:ext cx="428625" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3054,7 +3091,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2895600" y="760095"/>
+          <a:off x="2895600" y="769620"/>
           <a:ext cx="504825" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3105,7 +3142,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2895600" y="760095"/>
+          <a:off x="2895600" y="769620"/>
           <a:ext cx="428625" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3156,7 +3193,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2895600" y="952500"/>
+          <a:off x="2895600" y="962025"/>
           <a:ext cx="504825" cy="211455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3207,7 +3244,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2895600" y="952500"/>
+          <a:off x="2895600" y="962025"/>
           <a:ext cx="428625" cy="211455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3247,7 +3284,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3258,7 +3295,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2895600" y="1144905"/>
+          <a:off x="2895600" y="1154430"/>
           <a:ext cx="504825" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3298,7 +3335,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3309,7 +3346,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2895600" y="1144905"/>
+          <a:off x="2895600" y="1154430"/>
           <a:ext cx="428625" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3451,7 +3488,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3502,7 +3539,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3564,7 +3601,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2895600" y="1722120"/>
+          <a:off x="2895600" y="1712595"/>
           <a:ext cx="504825" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3615,7 +3652,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2895600" y="1722120"/>
+          <a:off x="2895600" y="1712595"/>
           <a:ext cx="428625" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3666,7 +3703,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2895600" y="1914525"/>
+          <a:off x="2895600" y="1905000"/>
           <a:ext cx="504825" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3717,7 +3754,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2895600" y="1914525"/>
+          <a:off x="2895600" y="1905000"/>
           <a:ext cx="428625" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3768,7 +3805,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2895600" y="2106930"/>
+          <a:off x="2895600" y="2097405"/>
           <a:ext cx="504825" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3819,7 +3856,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2895600" y="2106930"/>
+          <a:off x="2895600" y="2097405"/>
           <a:ext cx="428625" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3870,7 +3907,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2895600" y="2299335"/>
+          <a:off x="2895600" y="2289810"/>
           <a:ext cx="504825" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3921,7 +3958,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2895600" y="2299335"/>
+          <a:off x="2895600" y="2289810"/>
           <a:ext cx="428625" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3972,7 +4009,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2895600" y="2491740"/>
+          <a:off x="2895600" y="2482215"/>
           <a:ext cx="504825" cy="211455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4023,7 +4060,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2895600" y="2491740"/>
+          <a:off x="2895600" y="2482215"/>
           <a:ext cx="428625" cy="211455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4313,10 +4350,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -4324,11 +4361,15 @@
     <col min="1" max="1" width="42.2222222222222" customWidth="1"/>
     <col min="2" max="2" width="8.22222222222222" customWidth="1"/>
     <col min="3" max="6" width="6" customWidth="1"/>
-    <col min="9" max="9" width="29.1111111111111" customWidth="1"/>
-    <col min="10" max="10" width="22.3333333333333" customWidth="1"/>
+    <col min="9" max="9" width="13.8888888888889" customWidth="1"/>
+    <col min="10" max="10" width="8.22222222222222" customWidth="1"/>
+    <col min="11" max="11" width="13.2222222222222" customWidth="1"/>
+    <col min="13" max="13" width="13.1111111111111" customWidth="1"/>
+    <col min="14" max="14" width="17.1111111111111" customWidth="1"/>
+    <col min="15" max="15" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.15" spans="1:9">
+    <row r="1" ht="15.15" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4356,10 +4397,28 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" ht="15.15" spans="1:15">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -4386,10 +4445,31 @@
         <f>SUM(B2:H2)/700*100*0.2</f>
         <v>20.5714285714286</v>
       </c>
+      <c r="J2">
+        <v>95</v>
+      </c>
+      <c r="K2">
+        <f>J2/100*60</f>
+        <v>57</v>
+      </c>
+      <c r="L2">
+        <v>12</v>
+      </c>
+      <c r="M2">
+        <f>L2/16*20</f>
+        <v>15</v>
+      </c>
+      <c r="N2" s="4">
+        <f>I2+K2+M2</f>
+        <v>92.5714285714286</v>
+      </c>
+      <c r="O2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" ht="15.15" spans="1:9">
+    <row r="3" ht="15.15" spans="1:15">
       <c r="A3" s="3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B3">
         <v>100</v>
@@ -4414,30 +4494,104 @@
         <f t="shared" ref="I3:I14" si="0">SUM(B3:H3)/700*100*0.2</f>
         <v>17.7142857142857</v>
       </c>
+      <c r="J3">
+        <v>100</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K15" si="1">J3/100*60</f>
+        <v>60</v>
+      </c>
+      <c r="L3">
+        <v>12</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M15" si="2">L3/16*20</f>
+        <v>15</v>
+      </c>
+      <c r="N3" s="4">
+        <f t="shared" ref="N3:N15" si="3">I3+K3+M3</f>
+        <v>92.7142857142857</v>
+      </c>
+      <c r="O3" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="4" ht="15.15" spans="1:9">
+    <row r="4" ht="15.15" spans="1:15">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F4" s="4"/>
       <c r="I4" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="J4">
+        <v>90</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="L4">
+        <v>11</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="2"/>
+        <v>13.75</v>
+      </c>
+      <c r="N4" s="4">
+        <f t="shared" si="3"/>
+        <v>67.75</v>
+      </c>
+      <c r="O4" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="5" ht="15.15" spans="1:9">
+    <row r="5" ht="15.15" spans="1:15">
       <c r="A5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="F5" s="4">
+        <v>100</v>
+      </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
       <c r="I5" s="4">
         <f t="shared" si="0"/>
+        <v>11.4285714285714</v>
+      </c>
+      <c r="J5">
         <v>0</v>
       </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>11</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="2"/>
+        <v>13.75</v>
+      </c>
+      <c r="N5" s="4">
+        <f t="shared" si="3"/>
+        <v>25.1785714285714</v>
+      </c>
+      <c r="O5" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="6" ht="15.15" spans="1:9">
+    <row r="6" ht="15.15" spans="1:15">
       <c r="A6" s="3" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B6">
         <v>100</v>
@@ -4446,7 +4600,7 @@
         <v>90</v>
       </c>
       <c r="D6">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="E6">
         <v>100</v>
@@ -4457,14 +4611,38 @@
       <c r="G6">
         <v>100</v>
       </c>
+      <c r="H6">
+        <v>100</v>
+      </c>
       <c r="I6" s="4">
         <f t="shared" si="0"/>
-        <v>15.4285714285714</v>
+        <v>19.4285714285714</v>
+      </c>
+      <c r="J6">
+        <v>80</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="L6">
+        <v>13</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="2"/>
+        <v>16.25</v>
+      </c>
+      <c r="N6" s="4">
+        <f t="shared" si="3"/>
+        <v>83.6785714285714</v>
+      </c>
+      <c r="O6" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="7" ht="15.15" spans="1:9">
+    <row r="7" spans="1:15">
       <c r="A7" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B7">
         <v>100</v>
@@ -4491,10 +4669,31 @@
         <f t="shared" si="0"/>
         <v>21.7142857142857</v>
       </c>
+      <c r="J7">
+        <v>80</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="L7">
+        <v>11</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="2"/>
+        <v>13.75</v>
+      </c>
+      <c r="N7" s="4">
+        <f t="shared" si="3"/>
+        <v>83.4642857142857</v>
+      </c>
+      <c r="O7" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="8" ht="15.15" spans="1:9">
+    <row r="8" ht="15.15" spans="1:15">
       <c r="A8" s="3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B8">
         <v>100</v>
@@ -4515,10 +4714,31 @@
         <f t="shared" si="0"/>
         <v>15.1428571428571</v>
       </c>
+      <c r="J8">
+        <v>80</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="L8" s="7">
+        <v>10</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="2"/>
+        <v>12.5</v>
+      </c>
+      <c r="N8" s="4">
+        <f t="shared" si="3"/>
+        <v>75.6428571428571</v>
+      </c>
+      <c r="O8" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="9" ht="15.15" spans="1:9">
+    <row r="9" spans="1:15">
       <c r="A9" s="3" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B9">
         <v>100</v>
@@ -4545,19 +4765,61 @@
         <f t="shared" si="0"/>
         <v>21.7142857142857</v>
       </c>
+      <c r="J9">
+        <v>95</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="L9">
+        <v>12</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="N9" s="4">
+        <f t="shared" si="3"/>
+        <v>93.7142857142857</v>
+      </c>
+      <c r="O9" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="10" ht="15.15" spans="1:9">
+    <row r="10" ht="15.15" spans="1:15">
       <c r="A10" s="3" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="I10" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O10" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="11" ht="15.15" spans="1:9">
+    <row r="11" ht="15.15" spans="1:15">
       <c r="A11" s="3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B11">
         <v>100</v>
@@ -4577,32 +4839,98 @@
       <c r="G11">
         <v>100</v>
       </c>
+      <c r="H11">
+        <v>100</v>
+      </c>
       <c r="I11" s="4">
         <f t="shared" si="0"/>
-        <v>17.1428571428571</v>
+        <v>20</v>
+      </c>
+      <c r="J11">
+        <v>95</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="L11">
+        <v>10</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="2"/>
+        <v>12.5</v>
+      </c>
+      <c r="N11" s="4">
+        <f t="shared" si="3"/>
+        <v>89.5</v>
+      </c>
+      <c r="O11" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="12" ht="15.15" spans="1:9">
+    <row r="12" ht="15.15" spans="1:15">
       <c r="A12" s="3" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="I12" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O12" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="13" ht="15.15" spans="1:9">
+    <row r="13" ht="15.15" spans="1:15">
       <c r="A13" s="3" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I13" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O13" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="14" ht="15.15" spans="1:9">
+    <row r="14" ht="15.15" spans="1:15">
       <c r="A14" s="3" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B14">
         <v>100</v>
@@ -4615,13 +4943,58 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
+      <c r="J14">
+        <v>80</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="L14">
+        <v>12</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="N14" s="4">
+        <f t="shared" si="3"/>
+        <v>69</v>
+      </c>
+      <c r="O14" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="15" ht="15.15" spans="1:1">
+    <row r="15" ht="15.15" spans="1:15">
       <c r="A15" s="5" t="s">
-        <v>22</v>
+        <v>32</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O15" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="16" ht="15.15" spans="1:1">
+    <row r="16" ht="14.55" spans="1:1">
       <c r="A16" s="6"/>
     </row>
   </sheetData>
